--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DAE94E-F24D-463B-94C0-3AEF764D93CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED755B2-A9A4-45CA-BD75-4D1460961DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="238">
   <si>
     <t>priority</t>
   </si>
@@ -736,6 +736,21 @@
   </si>
   <si>
     <t>011005</t>
+  </si>
+  <si>
+    <t>arroz;leite;manteiga;farinha;óleo;oleo;milho;açúcar;acucar;pao;pão;aveia;carne;carnes;peixe;queijo;sal;mate;massa;massas;pao frances;pão francês;café;café;margarina</t>
+  </si>
+  <si>
+    <t>Acetato de dextroalfatocoferol; Acetato de dextro alfatocoferol; Acetato de dextro alfa tocoferol; Acetato de tocoferol; Dextroalfatocoferol; Dextro alfatocoferol; Tocoferol; Acetato de lisina; Acetato lisina; Lisina acetato; Lisina; Acetato de potássio; Acetato de potassio; Acetato potássico; Acetato potassico; Potássio acetato; Potassio acetato; Potássio; Potassio; Acetato de sódio; Acetato de sodio; Acetato sódico; Acetato sodico; Sódio acetato; Sodio acetato; Sódio; Sodio; Acetato de zinco; Zinco acetato; Zinco; Acetiltirosina; Acetil tirosina; Tirosina acetilada; Tirosina; Ácido acético; Acido acetico; Ácido etanoico; Acido etanoico; Acético; Acetico; Ácido ascórbico; Acido ascorbico; Vitamina C; Ascorbato; Ascórbico; Ascorbico; Ácido aspártico; Acido aspartico; Aspártico; Aspartico; Ácido cítrico; Acido citrico; Citrato; Cítrico; Citrico; Ácido fólico; Acido folico; Folato; Fólico; Folico; Ácido glutâmico; Acido glutamico; Glutamato; Glutâmico; Glutamico; Ácido málico; Acido malico; Málico; Malico; Ácido selenioso; Acido selenioso; Água para injeção; Agua para injecao; Água injetável; Agua injetavel; Água p/ injeção; Agua p injecao; Alanilglutamina; Alanil glutamina; L-alanilglutamina; Glutamina alanil; Glutamina; Alanina; L-alanina; Albumina humana; Albumina; Proteína plasmática humana; Arginina; L-arginina; Asparagina; L-asparagina; Bicarbonato de sódio; Bicarbonato de sodio; Bicarbonato sódico; Bicarbonato sodico; Bicarbonato; Sódio bicarbonato; Sodio bicarbonato; Biotina; Vitamina B7; Vitamina H; Cianocobalamina; Vitamina B12; Cistina; L-cistina; Cloreto crômico; Cloreto cromico; Cloreto de cromo; Cloreto de cálcio; Cloreto de calcio; Cálcio cloreto; Calcio cloreto; Cloreto de magnésio; Cloreto de magnesio; Magnésio; Magnesio; Cloreto de manganês; Cloreto de manganes; Manganês; Manganes; Cloreto de potássio; Cloreto de potassio; Potássio; Potassio; Cloreto de sódio; Cloreto de sodio; Sódio; Sodio; Sal; Cloreto de zinco; Zinco cloreto; Zinco; Cloridrato de piridoxina; Piridoxina HCl; Vitamina B6; Piridoxina; Cloridrato de tiamina; Tiamina HCl; Vitamina B1; Tiamina; Cocarboxilase; Co-carboxilase; Pirofosfato de tiamina; Difosfato de tiamina; Colecalciferol; Vitamina D3; Ergocalciferol; Vitamina D2; Fenilalanina; L-fenilalanina; Fitomenadiona; Vitamina K1; Fórmula isenta de fenilalanina; Dieta sem fenilalanina; Sem fenilalanina; Fórmula isenta de metionina; Dieta sem metionina; Sem metionina; Fórmula isenta de lisina e pobre em triptofano; Sem lisina; Baixo triptofano; Fórmula isenta de leucina isoleucina valina; Sem leucina; Sem isoleucina; Sem valina; Fórmula isenta de fenilalanina e metionina; Sem fenilalanina; Sem metionina; Fórmula isenta de aminoácidos não essenciais; Formula isenta de aminoacidos nao essenciais; Fórmula sem metionina treonina valina restrita isoleucina; Sem metionina; Sem treonina; Sem valina; Restrita em isoleucina; Fórmula cetogênica; Formula cetogenica; Dieta cetogênica; Dieta cetogenica; Fórmula 4:1; Fórmula hiperlipídica; Formula hiperlipidica; Suplemento de TCM; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; Preparação líquida de trioleato e trierucato; Trioleato; Trierucato; Fosfato de potássio dibásico; Fosfato de potassio dibasico; Fosfato dibásico; Potássio fosfato; Potassio fosfato; Fosfato de potássio monobásico; Fosfato de potassio monobasico; Fosfato monobásico; Fosfato de sódio monobásico; Fosfato de sodio monobasico; Fosfato monobasico; Fosfato de tiamina; Tiamina fosfato; Fosfato sódico de riboflavina; Fosfato sodico de riboflavina; Riboflavina fosfato; Frutose; Glicerofosfato de sódio; Glicerofosfato de sodio; Glicina; Gliconato de cálcio; Gliconato de calcio; Glicose; Dextrose; Histidina; L-histidina; Icodextrina; Iodeto de potássio; Iodeto de potassio; Isoleucina; L-isoleucina; Lecitina de ovo; Lecitina; Leucina; L-leucina; Levovalina; L-valina; Lisina; L-lisina; Metionina; L-metionina; Nicotinamida; Niacinamida; Vitamina B3; Palmitato de retinol; Retinol palmitato; Vitamina A; Prolina; L-prolina; Riboflavina; Vitamina B2; Selenito de sódio; Selenito de sodio; Serina; L-serina; Sorbitol; Sulfato de magnésio; Sulfato de magnesio; Sulfato de zinco; Zinco sulfato; Taurina; Tirosina; L-tirosina; Tocoferol; Alfa tocoferol; Vitamina E; Treonina; L-treonina; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; TCM; MCT</t>
+  </si>
+  <si>
+    <t>Crustáceos; Crustaceos; Camarões; Camaroes; Camarão; Camarao; Camarão sete barbas; Camarao sete barbas; Siri; Siris; Caranguejo; Caranguejos; Mexilhão; Mexilhao; Mexilhões; Mexilhoes; Mariscos; Marisco; Ostra; Ostras; Polvo; Polvos; Lula; Lulas; Vôngole; Vongole; Vieira; Vieiras; Leite fermentado; Leite fermentado sem acento; Iogurte; Iogurtes; Iogurte natural; Iogurte integral; Bebida láctea; Bebida lactea; Composto lácteo; Composto lacteo; Kefir; Coalhada; Mel natural; Mel; Mel de abelha; Mel silvestre; Mel floral; Farinha de trigo; Farinha de centeio; Farinha de milho; Fubá; Fuba; Farinha de arroz; Farinha de mandioca; Farinha de batata; Farinha de leguminosas; Farinha de sementes; Sêmola; Semola; Sêmola de trigo; Semola de trigo; Grumos de milho; Semola de milho; Semola de arroz; Flocos de cereais; Flocos de aveia; Aveia em flocos; Milho laminado; Centeio laminado; Amido de milho; Amido milho; Maisena; Maizena; Fécula de milho; Fecula de milho; Óleo de soja; Oleo de soja; Óleo de milho; Oleo de milho; Óleo de canola; Oleo de canola; Óleo de girassol; Oleo de girassol; Óleo de algodão; Oleo de algodao; Óleo de amendoim; Oleo de amendoim; Óleo de coco; Oleo de coco; Óleo de palma; Oleo de palma; Óleo vegetal; Oleo vegetal; Macarrão; Macarrao; Macarrões; Macarroes; Espaguete; Talharim; Penne; Massa alimentícia; Massa alimenticia; Massa seca; Suco natural; Sucos naturais; Suco de laranja natural; Suco de maçã natural; Suco de maca natural; Suco de uva integral; Suco de abacaxi natural; Polpa de fruta; Polpas de frutas; Polpa de manga; Polpa de goiaba; Polpa de morango; Polpa de açaí; Polpa de acai; Purê vegetal; Pure vegetal; Pão de forma; Pao de forma; Pão integral; Pao integral; Pão multigrãos; Pao multigraos; Extrato de tomate; Pasta de tomate; Frutas frescas; Fruta fresca; Legumes frescos; Verduras; Raízes; Raizes; Tubérculos; Tuberculos; Milho em grão; Milho em grao; Trigo em grão; Trigo em grao; Arroz em casca; Arroz; Soja; Linhaça; Linhaca; Gergelim; Amendoim cru; Sementes oleaginosas; Legumes pré-cozidos; Legumes pre cozidos; Batata pré-cozida; Batata pre cozida; Cenoura pré-cozida; Cenoura pre cozida; Ervilha cozida; Milho cozido; Castanha-do-pará; Castanha do para; Castanha de caju; Baru; Amendoim torrado; Semente de abóbora torrada; Semente de abobora torrada; Semente de girassol torrada; Sementes torradas</t>
+  </si>
+  <si>
+    <t>Sabão de toucador; Sabao de toucador; Sabonete; Sabonete em barra; Sabonete perfumado; Sabonete de banho; Sabonete corporal; Sabonete higiene; Barra de sabonete; Sabonete barra; Dentifrício; Dentifricio; Pasta dental; Creme dental; Creme dentário; Pasta de dente; Pasta dentaria; Gel dental; Gel dentario; Escova de dentes; Escova dental; Escova para dentes; Escova dentária; Escova dentaria; Escovas de dente; Escovas dentais; Papel higiênico; Papel higienico; Rolo de papel higiênico; Rolo de papel higienico; Papel toalete; Papel sanitario; Papel sanitário; Água sanitária; Agua sanitaria; Água sanitária tradicional; Agua sanitaria tradicional; Cloro doméstico; Cloro domestico; Cloro líquido; Cloro liquido; Hipoclorito de sódio; Hipoclorito de sodio; Água de cloro; Sabão em barra; Sabao em barra; Sabão barra; Sabao barra; Sabão de limpeza; Sabao de limpeza; Sabão barra limpeza; Sabão comum; Sabao comum; Fralda descartável; Fralda descartavel; Fraldas; Fraldas geriátricas; Fraldas geriatricas; Fralda infantil; Fralda adulto; Fralda para adulto; Fralda</t>
+  </si>
+  <si>
+    <t>Biofertilizante; Biofertilizantes; Biofertilizante líquido; Biofertilizante liquido; Biofertilizante sólido; Biofertilizante solido; Biofertilizante organomineral; Biofertilizante organo mineral; Biofertilizante foliar; Biofertilizante para solo; Biofertilizante para pastagem; Adubo biológico; Adubo biologico; Fertilizante biológico; Fertilizante biologico; Inoculante biofertilizante; Fertilizante; Fertilizantes; Adubo; Adubos; Adubo químico; Adubo quimico; Adubo mineral; Fertilizante mineral; Fertilizante organomineral; Fertilizante organico; Adubo organomineral; Adubo organico; NPK; Adubo NPK; NPK 04-14-08; NPK 04-30-10; NPK 20-00-20; Ureia; Ureia agricola; Nitrato de amônio; Nitrato de amonio; Nitrato de cálcio; Nitrato de calcio; Superfosfato simples; Superfosfato triplo; MAP; DAP; Cloreto de potássio; Cloreto de potassio; KCl; Sulfato de amônio; Sulfato de amonio; Fosfato monoamônico; Fosfato monoamonico; Fosfato diamônico; Fosfato diamonico; Micronutrientes agrícolas; Mistura de fertilizantes; Formulação de adubo; Corretivo de solo; Corretivos de solo; Condicionador de solo; Condicionadores de solo; Remineralizador de solo; Remineralizadores de solo; Substrato para plantas; Substratos para plantas; Substrato agrícola; Substrato hortícola; Calcário agrícola; Calcario agricola; Calcário dolomítico; Calcario dolomitico; Calcário calcítico; Calcario calcitico; Gesso agrícola; Gesso agricola; Fosfato natural reativo; Enxofre agrícola; Enxofre agricola; Rocha moída; Rocha moida; Pó de rocha; Turfa; Condicionador orgânico de solo; Condicionador organico de solo; Inoculante; Inoculantes; Inoculante para soja; Inoculante para feijão; Inoculante para milho; Inoculante para pastagem; Inoculante rizobiano; Rizóbio; Rizobio; Rhizobium; Bradyrhizobium; Azospirillum; Microrganismos para uso agrícola; Microorganismos para uso agricola; Meios de cultura; Meio de cultura; Bactérias benéficas; Bacterias beneficas; Fungos benéficos; Fungos beneficos; Bioprotetor; Bioinsumo microbiano; Bioestimulante; Bioestimulantes; Bioestimulante agrícola; Bioestimulante agricola; Bioinsumo; Bioinsumos; Bioinsumo para controle fitossanitário; Bioinsumo para controle fitossanitario; Extrato de algas; Extrato de algas marinhas; Extrato vegetal; Aminoácidos para plantas; Aminoacidos para plantas; Hormônio vegetal; Hormônio de crescimento vegetal; Regulador de crescimento vegetal; Estimulante de enraizamento; Enraizador; Indutor de resistência; Indutor de resistencia; Biodefensivo; Biodefensivos; Agente biológico de controle; Agente biologico de controle; Inseticida biológico; Inseticida biologico; Fungicida biológico; Fungicida biologico; Nematicida biológico; Nematicida biologico; Bactericida biológico; Bactericida biologico; Feromônios para controle de pragas; Feromonios para controle de pragas; Defensivo agrícola; Defensivo agricola; Defensivos agrícolas; Defensivos agricolas; Inseticida; Inseticidas; Fungicida; Fungicidas; Herbicida; Herbicidas; Formicida; Formicidas; Parasiticida; Parasiticidas; Germicida; Germicidas; Acaricida; Acaricidas; Nematicida; Nematicidas; Raticida; Raticidas; Desfolhante; Desfolhantes; Dessecante; Dessecantes; Espalhante adesivo; Espalhante-adesivo; Espalhante; Aderente agrícola; Estimulador de crescimento; Inibidor de crescimento; Regulador de crescimento; Reguladores de crescimento; Produto fitossanitário; Produto fitossanitario; Agrotóxico; Agrotoxico; Pesticida; Pesticidas; Calcário; Calcario; Calcário agrícola; Calcario agricola; Casca de coco triturada; Casca de coco moída; Casca de coco moida; Fibra de coco; Fibras de coco; Turfa agrícola; Turfa agricola; Torta vegetal; Tortas vegetais; Torta de mamona; Torta de algodão; Torta de algodao; Bagaços vegetais; Bagaço de cana; Bagaco de cana; Bagaço de frutas; Resíduos vegetais; Residuos vegetais; Resíduos agroindustriais orgânicos; Residuos agroindustriais organicos; Serragem; Serragens; Serragem de madeira; Resíduos de madeira; Residuos de madeira; Casca de arroz; Cascas de arroz; Cascas de café; Cascas de cafe; Borra de carnaúba; Borra de carnauba; Ossos moídos; Ossos moidos; Farinha de osso; Cinzas vegetais; Cinza vegetal; Resíduos da indústria de celulose; Residuos da industria de celulose; Dregs; Grits; Vermiculita; Vermiculita expandida; Argila expandida; Argilas expandidas; Palha de arroz; Palhas de cereais; Casca de grãos; Casca de graos; Casca de produtos vegetais; Fibras vegetais; Silicatos de potássio; Silicatos de potassio; Silicato de magnésio; Silicato de magnesio; Resinas naturais; Oleorresinas naturais; Suco vegetal concentrado; Extrato vegetal concentrado; Aminoácidos; Aminoacidos; Microrganismos mortos; Microorganismos mortos; Óleos essenciais; Oleos essenciais; Argila; Argilas; Terras minerais; Carvão vegetal; Carvao vegetal; Pastas mecânicas de madeira; Pasta mecânica de madeira; Pasta mecanica de madeira; Ácido nítrico; Acido nitrico; Ácido sulfúrico; Acido sulfurico; Ácido fosfórico; Acido fosforico; Ácido clorídrico; Acido cloridrico; Ácido fosforoso; Acido fosforoso; Ácido acético; Acido acetico; Hidróxido de sódio; Hidroxido de sodio; Soda cáustica; Soda caustica; Carbonato dissódico; Carbonato dissodico; Carbonato de sódio; Carbonato de sodio; Ácidos para fertilizantes; Acidos para fertilizantes; Reagentes para fabricação de fertilizantes; Enzimas preparadas para decomposição de matéria orgânica; Enzimas para decomposicao de materia organica; Enzimas para compostagem; Enzimas para esterco; Enzimas para resíduos vegetais; Enzimas para residuos vegetais; Enzimas agrícolas; Enzimas agricolas; Semente genética; Semente genetica; Semente básica; Semente basica; Semente nativa in natura; Semente certificada C1; Semente certificada C2; Semente não certificada S1; Semente nao certificada S1; Semente não certificada S2; Semente nao certificada S2; Semente de cultivar local; Semente crioula; Semente tradicional; Sementes de milho; Sementes de soja; Sementes de trigo; Sementes de arroz; Sementes de feijão; Sementes de feijao; Sementes de pastagem; Sementes forrageiras; Sementes de sorgo; Sementes de girassol; Mudas de plantas; Muda de planta; Mudas de hortaliças; Mudas de hortaliças; Mudas de árvores frutíferas; Mudas de arvores frutiferas; Muda de eucalipto; Muda de pinus; Mudas florestais; Material propagativo de plantas; Material propagativo de fungos; Micélio de fungos; Micelio de fungos; Inóculo de fungos; Inoculo de fungos; Vacina veterinária; Vacina veterinaria; Vacinas veterinárias; Soros veterinários; Medicamentos veterinários; Medicamentos veterinarios; Vacina para bovinos; Vacina para suínos; Vacina para suinos; Vacina para aves de corte; Vacina para aves de postura; Vacina para ovinos; Vacina para caprinos; Soro hiperimune; Fármaco veterinário injetável; Farmaco veterinario injetavel; Aves de um dia; Pintos de um dia; Pintainhos; Pintos de corte; Pintos de postura; Pintos de frango; Frangos de um dia; Aves recém-nascidas; Aves recem nascidas; Embriões congelados; Embrioes congelados; Embrião bovino; Embriao bovino; Embrião suíno; Embriao suino; Sêmen congelado; Semen congelado; Sêmen bovino; Semen bovino; Sêmen suíno; Semen suino; Sêmen ovino; Semen ovino; Reprodutor de raça pura; Reprodutores de raça pura; Touros de raça pura; Matrizes puras; Matrizes de animais puros de origem; Animais com registro genealógico; Animais com registro genealogico; Ovos fertilizados; Ovo fertilizado; Ovos férteis; Ovos férteis para incubação; Ovos fertis para incubacao; Girinos; Alevinos; Alevinos de peixe; Alevinos de tilápia; Alevinos de tilapia; Alevinos de tambaqui; Alevinos de pacu; Ração para animais; Racao para animais; Rações para bovinos; Racoes para bovinos; Ração para suínos; Racao para suinos; Ração para aves; Racao para aves; Ração para peixes; Racao para peixes; Ração para ovinos; Ração para caprinos; Concentrado para animais; Concentrado proteico; Suplemento mineral; Suplemento vitamínico mineral; Suplemento vitaminico mineral; Núcleo para ração; Nucleo para racao; Premix para ração; Premix para racao; Aditivos para ração; Aditivos para racao; Melhorador de desempenho animal; Sementes para ração animal; Sementes para racao animal; Cereais para alimentação animal; Cereais para alimentacao animal; Milho moído para ração; Milho moido para racao; Milho em grão para ração; Milho em grao para racao; Trigo para ração; Sorgo para ração; Sorgo para racao; Farelo de soja; Farelo de trigo; Farelo de algodão; Farelo de algodao; Farelo de arroz; Farelo de milho; Farelos vegetais; Tortas de oleaginosas; Torta de soja; Torta de algodão; Bagaço de malte; Bagaço de cervejaria; Resíduos de usina de açúcar e álcool; Residuos de usina de acucar e alcool; Resíduos de indústria alimentícia; Residuos de industria alimenticia; Alho em pó; Alho em po; Sal mineralizado; Sal mineral; Sal proteinado; Farinha de peixe; Farinhas de peixe; Farinha de ostra; Farinha de carne; Farinha de osso; Farinha de penas; Farinha de pena; Farinha de sangue; Farinha de vísceras; Farinha de visceras; Calcário calcítico; Calcario calcitico; Gorduras animais; Óleos animais; Oleos animais; Resíduos de óleo vegetal; Residuos de oleo vegetal; Óleo residual de fritura; Oleo residual de fritura; DL-Metionina; DL Metionina; DL-Metionina análogos; DL Metionina analogos; Serviços agronômicos; Servicos agronomicos; Consultoria agronômica; Consultoria agronomica; Assistência técnica agrícola; Assistencia tecnica agricola; Assistência agronômica; Assistencia agronomica; Elaboração de projetos agrícolas; Elaboracao de projetos agricolas; Serviços de técnico agrícola; Serviços de tecnico agricola; Serviços agropecuários; Servicos agropecuarios; Serviços em agroecologia; Servicos em agroecologia; Consultoria em agroecologia; Serviços veterinários para produção animal; Servicos veterinarios para producao animal; Atendimento veterinário em fazenda; Atendimento veterinario em fazenda; Exames clínicos de rebanho; Exames clinicos de rebanho; Manejo sanitário; Manejo sanitario; Serviços de zootecnista; Servicos de zootecnista; Consultoria em zootecnia; Planejamento nutricional animal; Planejamento de lotação; Serviços de inseminação artificial; Servicos de inseminacao artificial; Inseminação de bovinos; Inseminacao de bovinos; Fertilização de animais de criação; Fertilizacao de animais de criacao; Transferência de embriões; Transferencia de embrioes; Serviços de engenharia florestal; Servicos de engenharia florestal; Projetos florestais; Inventário florestal; Inventario florestal; Manejo florestal; Serviços de pulverização; Servicos de pulverizacao; Pulverização aérea; Pulverizacao aerea; Pulverização costal; Pulverizacao costal; Controle de pragas; Controle fitossanitário; Controle fitossanitario; Serviços de semeadura; Servicos de semeadura; Serviços de adubação; Servicos de adubacao; Mistura de adubos; Reparação de solo; Reparacao de solo; Plantio mecanizado; Plantio manual; Colheita mecanizada; Colheita manual; Serviços de projetos para irrigação; Servicos de projetos para irrigacao; Projeto de irrigação; Projeto de irrigacao; Projeto de fertirrigação; Projeto de fertirrigacao; Serviços de análise de solo; Servicos de analise de solo; Análise laboratorial de sementes; Analise laboratorial de sementes; Análise de água de produção; Analise de agua de producao; Análise bromatológica; Analise bromatologica; Análise de sanidade animal; Analise de sanidade animal; Licenciamento de direitos sobre cultivares; Cessão de direitos sobre cultivares; Cessao de direitos sobre cultivares; Royalties de cultivares; Melhoramento genético de animais; Melhoramento genetico de animais; Melhoramento genético de plantas; Melhoramento genetico de plantas; Serviços de biotecnologia agrícola; Servicos de biotecnologia agricola; Vinhaça; Vinhaca; Vinhaça de cana; Vinhaca de cana; Resíduo líquido de destilaria; Residuo liquido de destilaria; Subproduto de usina de etanol; Subproduto de usina de açucar e álcool; Subproduto de usina de acucar e alcool</t>
   </si>
 </sst>
 </file>
@@ -797,12 +812,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1111,23 +1125,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.140625" style="4"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1156,10 +1172,10 @@
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>222</v>
       </c>
       <c r="G2" t="s">
@@ -1176,10 +1192,10 @@
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>223</v>
       </c>
       <c r="G3" t="s">
@@ -1196,10 +1212,10 @@
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>224</v>
       </c>
       <c r="G4" t="s">
@@ -1216,10 +1232,10 @@
       <c r="A5">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G5" t="s">
@@ -1236,10 +1252,10 @@
       <c r="A6">
         <v>100</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>226</v>
       </c>
       <c r="G6" t="s">
@@ -1256,10 +1272,10 @@
       <c r="A7">
         <v>100</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>227</v>
       </c>
       <c r="G7" t="s">
@@ -1276,10 +1292,10 @@
       <c r="A8">
         <v>100</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G8" t="s">
@@ -1296,10 +1312,10 @@
       <c r="A9">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G9" t="s">
@@ -1316,10 +1332,10 @@
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G10" t="s">
@@ -1336,10 +1352,10 @@
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G11" t="s">
@@ -1356,10 +1372,10 @@
       <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G12" t="s">
@@ -1376,10 +1392,10 @@
       <c r="A13">
         <v>100</v>
       </c>
-      <c r="B13" s="4">
-        <v>200</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="3">
+        <v>200</v>
+      </c>
+      <c r="C13" s="3">
         <v>200001</v>
       </c>
       <c r="G13" t="s">
@@ -1396,10 +1412,10 @@
       <c r="A14">
         <v>100</v>
       </c>
-      <c r="B14" s="4">
-        <v>200</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="3">
+        <v>200</v>
+      </c>
+      <c r="C14" s="3">
         <v>200002</v>
       </c>
       <c r="G14" t="s">
@@ -1416,15 +1432,18 @@
       <c r="A15">
         <v>100</v>
       </c>
-      <c r="B15" s="4">
-        <v>200</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="3">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3">
         <v>200003</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
+      <c r="E15" t="s">
+        <v>233</v>
+      </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
@@ -1439,10 +1458,10 @@
       <c r="A16">
         <v>100</v>
       </c>
-      <c r="B16" s="4">
-        <v>200</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="3">
+        <v>200</v>
+      </c>
+      <c r="C16" s="3">
         <v>200004</v>
       </c>
       <c r="D16" t="s">
@@ -1462,14 +1481,11 @@
       <c r="A17">
         <v>100</v>
       </c>
-      <c r="B17" s="4">
-        <v>200</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="3">
+        <v>200</v>
+      </c>
+      <c r="C17" s="3">
         <v>200005</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -1485,10 +1501,10 @@
       <c r="A18">
         <v>100</v>
       </c>
-      <c r="B18" s="4">
-        <v>200</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3">
         <v>200006</v>
       </c>
       <c r="G18" t="s">
@@ -1505,10 +1521,10 @@
       <c r="A19">
         <v>100</v>
       </c>
-      <c r="B19" s="4">
-        <v>200</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="3">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3">
         <v>200007</v>
       </c>
       <c r="D19" t="s">
@@ -1528,14 +1544,11 @@
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" s="4">
-        <v>200</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3">
         <v>200008</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1551,10 +1564,10 @@
       <c r="A21">
         <v>100</v>
       </c>
-      <c r="B21" s="4">
-        <v>200</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3">
         <v>200009</v>
       </c>
       <c r="D21" t="s">
@@ -1574,10 +1587,10 @@
       <c r="A22">
         <v>100</v>
       </c>
-      <c r="B22" s="4">
-        <v>200</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="3">
+        <v>200</v>
+      </c>
+      <c r="C22" s="3">
         <v>200010</v>
       </c>
       <c r="G22" t="s">
@@ -1594,14 +1607,11 @@
       <c r="A23">
         <v>100</v>
       </c>
-      <c r="B23" s="4">
-        <v>200</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="3">
+        <v>200</v>
+      </c>
+      <c r="C23" s="3">
         <v>200011</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -1617,10 +1627,10 @@
       <c r="A24">
         <v>100</v>
       </c>
-      <c r="B24" s="4">
-        <v>200</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="3">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3">
         <v>200012</v>
       </c>
       <c r="G24" t="s">
@@ -1637,13 +1647,13 @@
       <c r="A25">
         <v>100</v>
       </c>
-      <c r="B25" s="4">
-        <v>200</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="3">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3">
         <v>200013</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
@@ -1663,10 +1673,10 @@
       <c r="A26">
         <v>100</v>
       </c>
-      <c r="B26" s="4">
-        <v>200</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="3">
+        <v>200</v>
+      </c>
+      <c r="C26" s="3">
         <v>200014</v>
       </c>
       <c r="D26" t="s">
@@ -1686,10 +1696,10 @@
       <c r="A27">
         <v>100</v>
       </c>
-      <c r="B27" s="4">
-        <v>200</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="3">
+        <v>200</v>
+      </c>
+      <c r="C27" s="3">
         <v>200015</v>
       </c>
       <c r="G27" t="s">
@@ -1706,10 +1716,10 @@
       <c r="A28">
         <v>100</v>
       </c>
-      <c r="B28" s="4">
-        <v>200</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="3">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3">
         <v>200016</v>
       </c>
       <c r="G28" t="s">
@@ -1726,10 +1736,10 @@
       <c r="A29">
         <v>100</v>
       </c>
-      <c r="B29" s="4">
-        <v>200</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3">
         <v>200017</v>
       </c>
       <c r="G29" t="s">
@@ -1746,10 +1756,10 @@
       <c r="A30">
         <v>100</v>
       </c>
-      <c r="B30" s="4">
-        <v>200</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="3">
+        <v>200</v>
+      </c>
+      <c r="C30" s="3">
         <v>200018</v>
       </c>
       <c r="G30" t="s">
@@ -1766,10 +1776,10 @@
       <c r="A31">
         <v>100</v>
       </c>
-      <c r="B31" s="4">
-        <v>200</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="3">
+        <v>200</v>
+      </c>
+      <c r="C31" s="3">
         <v>200019</v>
       </c>
       <c r="G31" t="s">
@@ -1786,10 +1796,10 @@
       <c r="A32">
         <v>100</v>
       </c>
-      <c r="B32" s="4">
-        <v>200</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="3">
+        <v>200</v>
+      </c>
+      <c r="C32" s="3">
         <v>200020</v>
       </c>
       <c r="G32" t="s">
@@ -1806,10 +1816,10 @@
       <c r="A33">
         <v>100</v>
       </c>
-      <c r="B33" s="4">
-        <v>200</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="3">
+        <v>200</v>
+      </c>
+      <c r="C33" s="3">
         <v>200021</v>
       </c>
       <c r="G33" t="s">
@@ -1826,10 +1836,10 @@
       <c r="A34">
         <v>100</v>
       </c>
-      <c r="B34" s="4">
-        <v>200</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="3">
+        <v>200</v>
+      </c>
+      <c r="C34" s="3">
         <v>200022</v>
       </c>
       <c r="G34" t="s">
@@ -1846,10 +1856,10 @@
       <c r="A35">
         <v>100</v>
       </c>
-      <c r="B35" s="4">
-        <v>200</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="3">
+        <v>200</v>
+      </c>
+      <c r="C35" s="3">
         <v>200023</v>
       </c>
       <c r="G35" t="s">
@@ -1866,10 +1876,10 @@
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="4">
-        <v>200</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="3">
+        <v>200</v>
+      </c>
+      <c r="C36" s="3">
         <v>200024</v>
       </c>
       <c r="G36" t="s">
@@ -1886,10 +1896,10 @@
       <c r="A37">
         <v>100</v>
       </c>
-      <c r="B37" s="4">
-        <v>200</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="3">
+        <v>200</v>
+      </c>
+      <c r="C37" s="3">
         <v>200025</v>
       </c>
       <c r="G37" t="s">
@@ -1906,10 +1916,10 @@
       <c r="A38">
         <v>100</v>
       </c>
-      <c r="B38" s="4">
-        <v>200</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="3">
+        <v>200</v>
+      </c>
+      <c r="C38" s="3">
         <v>200026</v>
       </c>
       <c r="G38" t="s">
@@ -1926,10 +1936,10 @@
       <c r="A39">
         <v>100</v>
       </c>
-      <c r="B39" s="4">
-        <v>200</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="3">
+        <v>200</v>
+      </c>
+      <c r="C39" s="3">
         <v>200027</v>
       </c>
       <c r="G39" t="s">
@@ -1946,10 +1956,10 @@
       <c r="A40">
         <v>100</v>
       </c>
-      <c r="B40" s="4">
-        <v>200</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="3">
+        <v>200</v>
+      </c>
+      <c r="C40" s="3">
         <v>200028</v>
       </c>
       <c r="G40" t="s">
@@ -1966,10 +1976,10 @@
       <c r="A41">
         <v>100</v>
       </c>
-      <c r="B41" s="4">
-        <v>200</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="3">
+        <v>200</v>
+      </c>
+      <c r="C41" s="3">
         <v>200029</v>
       </c>
       <c r="G41" t="s">
@@ -1986,10 +1996,10 @@
       <c r="A42">
         <v>100</v>
       </c>
-      <c r="B42" s="4">
-        <v>200</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="3">
+        <v>200</v>
+      </c>
+      <c r="C42" s="3">
         <v>200030</v>
       </c>
       <c r="D42" t="s">
@@ -2009,10 +2019,10 @@
       <c r="A43">
         <v>100</v>
       </c>
-      <c r="B43" s="4">
-        <v>200</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B43" s="3">
+        <v>200</v>
+      </c>
+      <c r="C43" s="3">
         <v>200031</v>
       </c>
       <c r="D43" t="s">
@@ -2032,10 +2042,10 @@
       <c r="A44">
         <v>100</v>
       </c>
-      <c r="B44" s="4">
-        <v>200</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="3">
+        <v>200</v>
+      </c>
+      <c r="C44" s="3">
         <v>200032</v>
       </c>
       <c r="G44" t="s">
@@ -2052,15 +2062,18 @@
       <c r="A45">
         <v>100</v>
       </c>
-      <c r="B45" s="4">
-        <v>200</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="3">
+        <v>200</v>
+      </c>
+      <c r="C45" s="3">
         <v>200033</v>
       </c>
       <c r="D45" t="s">
         <v>37</v>
       </c>
+      <c r="E45" t="s">
+        <v>234</v>
+      </c>
       <c r="G45" t="s">
         <v>62</v>
       </c>
@@ -2075,15 +2088,18 @@
       <c r="A46">
         <v>100</v>
       </c>
-      <c r="B46" s="4">
-        <v>200</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="3">
+        <v>200</v>
+      </c>
+      <c r="C46" s="3">
         <v>200034</v>
       </c>
       <c r="D46" t="s">
         <v>63</v>
       </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
       <c r="G46" t="s">
         <v>64</v>
       </c>
@@ -2098,15 +2114,18 @@
       <c r="A47">
         <v>100</v>
       </c>
-      <c r="B47" s="4">
-        <v>200</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="3">
+        <v>200</v>
+      </c>
+      <c r="C47" s="3">
         <v>200035</v>
       </c>
       <c r="D47" t="s">
         <v>65</v>
       </c>
+      <c r="E47" t="s">
+        <v>236</v>
+      </c>
       <c r="G47" t="s">
         <v>66</v>
       </c>
@@ -2121,14 +2140,11 @@
       <c r="A48">
         <v>100</v>
       </c>
-      <c r="B48" s="4">
-        <v>200</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="3">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3">
         <v>200036</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
       </c>
       <c r="G48" t="s">
         <v>68</v>
@@ -2144,10 +2160,10 @@
       <c r="A49">
         <v>100</v>
       </c>
-      <c r="B49" s="4">
-        <v>200</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="3">
+        <v>200</v>
+      </c>
+      <c r="C49" s="3">
         <v>200037</v>
       </c>
       <c r="G49" t="s">
@@ -2164,15 +2180,18 @@
       <c r="A50">
         <v>100</v>
       </c>
-      <c r="B50" s="4">
-        <v>200</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="3">
+        <v>200</v>
+      </c>
+      <c r="C50" s="3">
         <v>200038</v>
       </c>
       <c r="D50" t="s">
         <v>67</v>
       </c>
+      <c r="E50" t="s">
+        <v>237</v>
+      </c>
       <c r="G50" t="s">
         <v>70</v>
       </c>
@@ -2187,10 +2206,10 @@
       <c r="A51">
         <v>100</v>
       </c>
-      <c r="B51" s="4">
-        <v>200</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="3">
+        <v>200</v>
+      </c>
+      <c r="C51" s="3">
         <v>200039</v>
       </c>
       <c r="D51" t="s">
@@ -2213,10 +2232,10 @@
       <c r="A52">
         <v>100</v>
       </c>
-      <c r="B52" s="4">
-        <v>200</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="3">
+        <v>200</v>
+      </c>
+      <c r="C52" s="3">
         <v>200040</v>
       </c>
       <c r="G52" t="s">
@@ -2233,10 +2252,10 @@
       <c r="A53">
         <v>100</v>
       </c>
-      <c r="B53" s="4">
-        <v>200</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="3">
+        <v>200</v>
+      </c>
+      <c r="C53" s="3">
         <v>200041</v>
       </c>
       <c r="G53" t="s">
@@ -2253,10 +2272,10 @@
       <c r="A54">
         <v>100</v>
       </c>
-      <c r="B54" s="4">
-        <v>200</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="3">
+        <v>200</v>
+      </c>
+      <c r="C54" s="3">
         <v>200042</v>
       </c>
       <c r="G54" t="s">
@@ -2273,10 +2292,10 @@
       <c r="A55">
         <v>100</v>
       </c>
-      <c r="B55" s="4">
-        <v>200</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="3">
+        <v>200</v>
+      </c>
+      <c r="C55" s="3">
         <v>200043</v>
       </c>
       <c r="D55" t="s">
@@ -2296,10 +2315,10 @@
       <c r="A56">
         <v>100</v>
       </c>
-      <c r="B56" s="4">
-        <v>200</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="3">
+        <v>200</v>
+      </c>
+      <c r="C56" s="3">
         <v>200044</v>
       </c>
       <c r="G56" t="s">
@@ -2316,10 +2335,10 @@
       <c r="A57">
         <v>100</v>
       </c>
-      <c r="B57" s="4">
-        <v>200</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="3">
+        <v>200</v>
+      </c>
+      <c r="C57" s="3">
         <v>200045</v>
       </c>
       <c r="G57" t="s">
@@ -2336,10 +2355,10 @@
       <c r="A58">
         <v>100</v>
       </c>
-      <c r="B58" s="4">
-        <v>200</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="3">
+        <v>200</v>
+      </c>
+      <c r="C58" s="3">
         <v>200046</v>
       </c>
       <c r="G58" t="s">
@@ -2356,10 +2375,10 @@
       <c r="A59">
         <v>100</v>
       </c>
-      <c r="B59" s="4">
-        <v>200</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="3">
+        <v>200</v>
+      </c>
+      <c r="C59" s="3">
         <v>200047</v>
       </c>
       <c r="G59" t="s">
@@ -2376,10 +2395,10 @@
       <c r="A60">
         <v>100</v>
       </c>
-      <c r="B60" s="4">
-        <v>200</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="3">
+        <v>200</v>
+      </c>
+      <c r="C60" s="3">
         <v>200048</v>
       </c>
       <c r="G60" t="s">
@@ -2396,10 +2415,10 @@
       <c r="A61">
         <v>100</v>
       </c>
-      <c r="B61" s="4">
-        <v>200</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="3">
+        <v>200</v>
+      </c>
+      <c r="C61" s="3">
         <v>200049</v>
       </c>
       <c r="G61" t="s">
@@ -2416,10 +2435,10 @@
       <c r="A62">
         <v>100</v>
       </c>
-      <c r="B62" s="4">
-        <v>200</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="3">
+        <v>200</v>
+      </c>
+      <c r="C62" s="3">
         <v>200050</v>
       </c>
       <c r="G62" t="s">
@@ -2436,10 +2455,10 @@
       <c r="A63">
         <v>100</v>
       </c>
-      <c r="B63" s="4">
-        <v>200</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="3">
+        <v>200</v>
+      </c>
+      <c r="C63" s="3">
         <v>200051</v>
       </c>
       <c r="G63" t="s">
@@ -2456,10 +2475,10 @@
       <c r="A64">
         <v>100</v>
       </c>
-      <c r="B64" s="4">
-        <v>200</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="3">
+        <v>200</v>
+      </c>
+      <c r="C64" s="3">
         <v>200052</v>
       </c>
       <c r="G64" t="s">
@@ -2476,10 +2495,10 @@
       <c r="A65">
         <v>100</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>220</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>220001</v>
       </c>
       <c r="G65" t="s">
@@ -2496,10 +2515,10 @@
       <c r="A66">
         <v>100</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>220</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>220002</v>
       </c>
       <c r="G66" t="s">
@@ -2516,10 +2535,10 @@
       <c r="A67">
         <v>100</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>220</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>220003</v>
       </c>
       <c r="G67" t="s">
@@ -2536,10 +2555,10 @@
       <c r="A68">
         <v>100</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>221</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>221001</v>
       </c>
       <c r="G68" t="s">
@@ -2556,10 +2575,10 @@
       <c r="A69">
         <v>100</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>222</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>222001</v>
       </c>
       <c r="G69" t="s">
@@ -2576,10 +2595,10 @@
       <c r="A70">
         <v>100</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>400</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>400001</v>
       </c>
       <c r="G70" t="s">
@@ -2596,10 +2615,10 @@
       <c r="A71">
         <v>100</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>410</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>410001</v>
       </c>
       <c r="G71" t="s">
@@ -2616,10 +2635,10 @@
       <c r="A72">
         <v>100</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>410</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>410002</v>
       </c>
       <c r="G72" t="s">
@@ -2636,10 +2655,10 @@
       <c r="A73">
         <v>100</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>410</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>410003</v>
       </c>
       <c r="G73" t="s">
@@ -2656,10 +2675,10 @@
       <c r="A74">
         <v>100</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>410</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>410004</v>
       </c>
       <c r="G74" t="s">
@@ -2676,10 +2695,10 @@
       <c r="A75">
         <v>100</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>410</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>410005</v>
       </c>
       <c r="G75" t="s">
@@ -2696,10 +2715,10 @@
       <c r="A76">
         <v>100</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>410</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>410006</v>
       </c>
       <c r="G76" t="s">
@@ -2716,10 +2735,10 @@
       <c r="A77">
         <v>100</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>410</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>410007</v>
       </c>
       <c r="G77" t="s">
@@ -2736,10 +2755,10 @@
       <c r="A78">
         <v>100</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>410</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>410008</v>
       </c>
       <c r="G78" t="s">
@@ -2756,10 +2775,10 @@
       <c r="A79">
         <v>100</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>410</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>410009</v>
       </c>
       <c r="G79" t="s">
@@ -2776,10 +2795,10 @@
       <c r="A80">
         <v>100</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>410</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>410010</v>
       </c>
       <c r="G80" t="s">
@@ -2796,10 +2815,10 @@
       <c r="A81">
         <v>100</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>410</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>410011</v>
       </c>
       <c r="G81" t="s">
@@ -2816,10 +2835,10 @@
       <c r="A82">
         <v>100</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>410</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>410012</v>
       </c>
       <c r="G82" t="s">
@@ -2836,10 +2855,10 @@
       <c r="A83">
         <v>100</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>410</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>410013</v>
       </c>
       <c r="G83" t="s">
@@ -2856,10 +2875,10 @@
       <c r="A84">
         <v>100</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>410</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>410014</v>
       </c>
       <c r="G84" t="s">
@@ -2876,10 +2895,10 @@
       <c r="A85">
         <v>100</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>410</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>410015</v>
       </c>
       <c r="G85" t="s">
@@ -2896,10 +2915,10 @@
       <c r="A86">
         <v>100</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>410</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>410016</v>
       </c>
       <c r="G86" t="s">
@@ -2916,10 +2935,10 @@
       <c r="A87">
         <v>100</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>410</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>410017</v>
       </c>
       <c r="G87" t="s">
@@ -2936,10 +2955,10 @@
       <c r="A88">
         <v>100</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>410</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>410018</v>
       </c>
       <c r="G88" t="s">
@@ -2956,10 +2975,10 @@
       <c r="A89">
         <v>100</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>410</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>410019</v>
       </c>
       <c r="G89" t="s">
@@ -2976,10 +2995,10 @@
       <c r="A90">
         <v>100</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>410</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>410020</v>
       </c>
       <c r="G90" t="s">
@@ -2996,10 +3015,10 @@
       <c r="A91">
         <v>100</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>410</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>410021</v>
       </c>
       <c r="G91" t="s">
@@ -3016,10 +3035,10 @@
       <c r="A92">
         <v>100</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>410</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>410022</v>
       </c>
       <c r="G92" t="s">
@@ -3036,10 +3055,10 @@
       <c r="A93">
         <v>100</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>410</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>410023</v>
       </c>
       <c r="G93" t="s">
@@ -3056,10 +3075,10 @@
       <c r="A94">
         <v>100</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>410</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>410024</v>
       </c>
       <c r="G94" t="s">
@@ -3076,10 +3095,10 @@
       <c r="A95">
         <v>100</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>410</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>410025</v>
       </c>
       <c r="G95" t="s">
@@ -3096,10 +3115,10 @@
       <c r="A96">
         <v>100</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>410</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>410026</v>
       </c>
       <c r="G96" t="s">
@@ -3116,10 +3135,10 @@
       <c r="A97">
         <v>100</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>410</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>410999</v>
       </c>
       <c r="G97" t="s">
@@ -3136,10 +3155,10 @@
       <c r="A98">
         <v>100</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>510</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>510001</v>
       </c>
       <c r="G98" t="s">
@@ -3156,10 +3175,10 @@
       <c r="A99">
         <v>100</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>515</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>515001</v>
       </c>
       <c r="G99" t="s">
@@ -3176,10 +3195,10 @@
       <c r="A100">
         <v>100</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>550</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>550001</v>
       </c>
       <c r="G100" t="s">
@@ -3196,10 +3215,10 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>550</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>550002</v>
       </c>
       <c r="G101" t="s">
@@ -3216,10 +3235,10 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>550</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>550003</v>
       </c>
       <c r="G102" t="s">
@@ -3236,10 +3255,10 @@
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>550</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>550004</v>
       </c>
       <c r="G103" t="s">
@@ -3256,10 +3275,10 @@
       <c r="A104">
         <v>100</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>550</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>550005</v>
       </c>
       <c r="G104" t="s">
@@ -3276,10 +3295,10 @@
       <c r="A105">
         <v>100</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>550</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>550006</v>
       </c>
       <c r="G105" t="s">
@@ -3296,10 +3315,10 @@
       <c r="A106">
         <v>100</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>550</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>550007</v>
       </c>
       <c r="G106" t="s">
@@ -3316,10 +3335,10 @@
       <c r="A107">
         <v>100</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>550</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>550008</v>
       </c>
       <c r="G107" t="s">
@@ -3336,10 +3355,10 @@
       <c r="A108">
         <v>100</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>550</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>550009</v>
       </c>
       <c r="G108" t="s">
@@ -3356,10 +3375,10 @@
       <c r="A109">
         <v>100</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>550</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>550010</v>
       </c>
       <c r="G109" t="s">
@@ -3376,10 +3395,10 @@
       <c r="A110">
         <v>100</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>550</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>550011</v>
       </c>
       <c r="G110" t="s">
@@ -3396,10 +3415,10 @@
       <c r="A111">
         <v>100</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>550</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>550012</v>
       </c>
       <c r="G111" t="s">
@@ -3416,10 +3435,10 @@
       <c r="A112">
         <v>100</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>550</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>550013</v>
       </c>
       <c r="G112" t="s">
@@ -3436,10 +3455,10 @@
       <c r="A113">
         <v>100</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>550</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>550014</v>
       </c>
       <c r="G113" t="s">
@@ -3456,10 +3475,10 @@
       <c r="A114">
         <v>100</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>550</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>550015</v>
       </c>
       <c r="G114" t="s">
@@ -3476,10 +3495,10 @@
       <c r="A115">
         <v>100</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>550</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>550016</v>
       </c>
       <c r="G115" t="s">
@@ -3496,10 +3515,10 @@
       <c r="A116">
         <v>100</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>550</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>550017</v>
       </c>
       <c r="G116" t="s">
@@ -3516,10 +3535,10 @@
       <c r="A117">
         <v>100</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>550</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>550018</v>
       </c>
       <c r="G117" t="s">
@@ -3536,10 +3555,10 @@
       <c r="A118">
         <v>100</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>550</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>550019</v>
       </c>
       <c r="G118" t="s">
@@ -3556,10 +3575,10 @@
       <c r="A119">
         <v>100</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>550</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>550020</v>
       </c>
       <c r="G119" t="s">
@@ -3576,10 +3595,10 @@
       <c r="A120">
         <v>100</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>550</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>550021</v>
       </c>
       <c r="G120" t="s">
@@ -3596,10 +3615,10 @@
       <c r="A121">
         <v>100</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>620</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>620001</v>
       </c>
       <c r="G121" t="s">
@@ -3616,10 +3635,10 @@
       <c r="A122">
         <v>100</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>620</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>620002</v>
       </c>
       <c r="G122" t="s">
@@ -3636,10 +3655,10 @@
       <c r="A123">
         <v>100</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>620</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <v>620003</v>
       </c>
       <c r="G123" t="s">
@@ -3656,10 +3675,10 @@
       <c r="A124">
         <v>100</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>620</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>620004</v>
       </c>
       <c r="G124" t="s">
@@ -3676,10 +3695,10 @@
       <c r="A125">
         <v>100</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>620</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>620005</v>
       </c>
       <c r="G125" t="s">
@@ -3696,10 +3715,10 @@
       <c r="A126">
         <v>100</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>620</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>620006</v>
       </c>
       <c r="G126" t="s">
@@ -3716,10 +3735,10 @@
       <c r="A127">
         <v>100</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>800</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>800001</v>
       </c>
       <c r="G127" t="s">
@@ -3736,10 +3755,10 @@
       <c r="A128">
         <v>100</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>800</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>800002</v>
       </c>
       <c r="G128" t="s">
@@ -3756,10 +3775,10 @@
       <c r="A129">
         <v>100</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <v>810</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>810001</v>
       </c>
       <c r="G129" t="s">
@@ -3776,10 +3795,10 @@
       <c r="A130">
         <v>100</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <v>811</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>811001</v>
       </c>
       <c r="G130" t="s">
@@ -3796,10 +3815,10 @@
       <c r="A131">
         <v>100</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>811</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>811002</v>
       </c>
       <c r="G131" t="s">
@@ -3816,10 +3835,10 @@
       <c r="A132">
         <v>100</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <v>811</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="3">
         <v>811003</v>
       </c>
       <c r="G132" t="s">
@@ -3836,10 +3855,10 @@
       <c r="A133">
         <v>100</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>820</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>820001</v>
       </c>
       <c r="G133" t="s">
@@ -3856,10 +3875,10 @@
       <c r="A134">
         <v>100</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <v>820</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>820002</v>
       </c>
       <c r="G134" t="s">
@@ -3876,10 +3895,10 @@
       <c r="A135">
         <v>100</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <v>820</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>820003</v>
       </c>
       <c r="G135" t="s">
@@ -3896,10 +3915,10 @@
       <c r="A136">
         <v>100</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <v>820</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>820004</v>
       </c>
       <c r="G136" t="s">
@@ -3916,10 +3935,10 @@
       <c r="A137">
         <v>100</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <v>820</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>820005</v>
       </c>
       <c r="G137" t="s">
@@ -3936,10 +3955,10 @@
       <c r="A138">
         <v>100</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <v>820</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>820006</v>
       </c>
       <c r="G138" t="s">
@@ -3956,10 +3975,10 @@
       <c r="A139">
         <v>100</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <v>830</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>830001</v>
       </c>
       <c r="G139" t="s">

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED755B2-A9A4-45CA-BD75-4D1460961DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD6D89-527F-41CB-A7C7-2012F68F1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
   <si>
     <t>priority</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Situação de emergência de saúde pública reconhecida pelo Poder Legislativo federal, estadual, distrital ou municipal competente, ato conjunto do Ministro da Fazenda e do Comitê Gestor do IBS poderá ser editado, a qualquer momento, para incluir dispositivos não listados no Anexo XIV da Lei Complementar nº 214, de 2025, limitada a vigência do benefício ao período e à localidade da emergência de saúde pública, observado o art. 146 da Lei Complementar nº 214, de 2025.</t>
-  </si>
-  <si>
-    <t>abs; absorvente; tampao; tampoes; coletores; menstural; menstruais; interno</t>
   </si>
   <si>
     <t>Fornecimento de tampões higiênicos, absorventes higiênicos internos ou externos, descartáveis ou reutilizáveis, calcinhas absorventes e coletores menstruais, observado o art. 147 da Lei Complementar nº 214, de 2025.</t>
@@ -738,9 +735,6 @@
     <t>011005</t>
   </si>
   <si>
-    <t>arroz;leite;manteiga;farinha;óleo;oleo;milho;açúcar;acucar;pao;pão;aveia;carne;carnes;peixe;queijo;sal;mate;massa;massas;pao frances;pão francês;café;café;margarina</t>
-  </si>
-  <si>
     <t>Acetato de dextroalfatocoferol; Acetato de dextro alfatocoferol; Acetato de dextro alfa tocoferol; Acetato de tocoferol; Dextroalfatocoferol; Dextro alfatocoferol; Tocoferol; Acetato de lisina; Acetato lisina; Lisina acetato; Lisina; Acetato de potássio; Acetato de potassio; Acetato potássico; Acetato potassico; Potássio acetato; Potassio acetato; Potássio; Potassio; Acetato de sódio; Acetato de sodio; Acetato sódico; Acetato sodico; Sódio acetato; Sodio acetato; Sódio; Sodio; Acetato de zinco; Zinco acetato; Zinco; Acetiltirosina; Acetil tirosina; Tirosina acetilada; Tirosina; Ácido acético; Acido acetico; Ácido etanoico; Acido etanoico; Acético; Acetico; Ácido ascórbico; Acido ascorbico; Vitamina C; Ascorbato; Ascórbico; Ascorbico; Ácido aspártico; Acido aspartico; Aspártico; Aspartico; Ácido cítrico; Acido citrico; Citrato; Cítrico; Citrico; Ácido fólico; Acido folico; Folato; Fólico; Folico; Ácido glutâmico; Acido glutamico; Glutamato; Glutâmico; Glutamico; Ácido málico; Acido malico; Málico; Malico; Ácido selenioso; Acido selenioso; Água para injeção; Agua para injecao; Água injetável; Agua injetavel; Água p/ injeção; Agua p injecao; Alanilglutamina; Alanil glutamina; L-alanilglutamina; Glutamina alanil; Glutamina; Alanina; L-alanina; Albumina humana; Albumina; Proteína plasmática humana; Arginina; L-arginina; Asparagina; L-asparagina; Bicarbonato de sódio; Bicarbonato de sodio; Bicarbonato sódico; Bicarbonato sodico; Bicarbonato; Sódio bicarbonato; Sodio bicarbonato; Biotina; Vitamina B7; Vitamina H; Cianocobalamina; Vitamina B12; Cistina; L-cistina; Cloreto crômico; Cloreto cromico; Cloreto de cromo; Cloreto de cálcio; Cloreto de calcio; Cálcio cloreto; Calcio cloreto; Cloreto de magnésio; Cloreto de magnesio; Magnésio; Magnesio; Cloreto de manganês; Cloreto de manganes; Manganês; Manganes; Cloreto de potássio; Cloreto de potassio; Potássio; Potassio; Cloreto de sódio; Cloreto de sodio; Sódio; Sodio; Sal; Cloreto de zinco; Zinco cloreto; Zinco; Cloridrato de piridoxina; Piridoxina HCl; Vitamina B6; Piridoxina; Cloridrato de tiamina; Tiamina HCl; Vitamina B1; Tiamina; Cocarboxilase; Co-carboxilase; Pirofosfato de tiamina; Difosfato de tiamina; Colecalciferol; Vitamina D3; Ergocalciferol; Vitamina D2; Fenilalanina; L-fenilalanina; Fitomenadiona; Vitamina K1; Fórmula isenta de fenilalanina; Dieta sem fenilalanina; Sem fenilalanina; Fórmula isenta de metionina; Dieta sem metionina; Sem metionina; Fórmula isenta de lisina e pobre em triptofano; Sem lisina; Baixo triptofano; Fórmula isenta de leucina isoleucina valina; Sem leucina; Sem isoleucina; Sem valina; Fórmula isenta de fenilalanina e metionina; Sem fenilalanina; Sem metionina; Fórmula isenta de aminoácidos não essenciais; Formula isenta de aminoacidos nao essenciais; Fórmula sem metionina treonina valina restrita isoleucina; Sem metionina; Sem treonina; Sem valina; Restrita em isoleucina; Fórmula cetogênica; Formula cetogenica; Dieta cetogênica; Dieta cetogenica; Fórmula 4:1; Fórmula hiperlipídica; Formula hiperlipidica; Suplemento de TCM; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; Preparação líquida de trioleato e trierucato; Trioleato; Trierucato; Fosfato de potássio dibásico; Fosfato de potassio dibasico; Fosfato dibásico; Potássio fosfato; Potassio fosfato; Fosfato de potássio monobásico; Fosfato de potassio monobasico; Fosfato monobásico; Fosfato de sódio monobásico; Fosfato de sodio monobasico; Fosfato monobasico; Fosfato de tiamina; Tiamina fosfato; Fosfato sódico de riboflavina; Fosfato sodico de riboflavina; Riboflavina fosfato; Frutose; Glicerofosfato de sódio; Glicerofosfato de sodio; Glicina; Gliconato de cálcio; Gliconato de calcio; Glicose; Dextrose; Histidina; L-histidina; Icodextrina; Iodeto de potássio; Iodeto de potassio; Isoleucina; L-isoleucina; Lecitina de ovo; Lecitina; Leucina; L-leucina; Levovalina; L-valina; Lisina; L-lisina; Metionina; L-metionina; Nicotinamida; Niacinamida; Vitamina B3; Palmitato de retinol; Retinol palmitato; Vitamina A; Prolina; L-prolina; Riboflavina; Vitamina B2; Selenito de sódio; Selenito de sodio; Serina; L-serina; Sorbitol; Sulfato de magnésio; Sulfato de magnesio; Sulfato de zinco; Zinco sulfato; Taurina; Tirosina; L-tirosina; Tocoferol; Alfa tocoferol; Vitamina E; Treonina; L-treonina; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; TCM; MCT</t>
   </si>
   <si>
@@ -751,13 +745,38 @@
   </si>
   <si>
     <t>Biofertilizante; Biofertilizantes; Biofertilizante líquido; Biofertilizante liquido; Biofertilizante sólido; Biofertilizante solido; Biofertilizante organomineral; Biofertilizante organo mineral; Biofertilizante foliar; Biofertilizante para solo; Biofertilizante para pastagem; Adubo biológico; Adubo biologico; Fertilizante biológico; Fertilizante biologico; Inoculante biofertilizante; Fertilizante; Fertilizantes; Adubo; Adubos; Adubo químico; Adubo quimico; Adubo mineral; Fertilizante mineral; Fertilizante organomineral; Fertilizante organico; Adubo organomineral; Adubo organico; NPK; Adubo NPK; NPK 04-14-08; NPK 04-30-10; NPK 20-00-20; Ureia; Ureia agricola; Nitrato de amônio; Nitrato de amonio; Nitrato de cálcio; Nitrato de calcio; Superfosfato simples; Superfosfato triplo; MAP; DAP; Cloreto de potássio; Cloreto de potassio; KCl; Sulfato de amônio; Sulfato de amonio; Fosfato monoamônico; Fosfato monoamonico; Fosfato diamônico; Fosfato diamonico; Micronutrientes agrícolas; Mistura de fertilizantes; Formulação de adubo; Corretivo de solo; Corretivos de solo; Condicionador de solo; Condicionadores de solo; Remineralizador de solo; Remineralizadores de solo; Substrato para plantas; Substratos para plantas; Substrato agrícola; Substrato hortícola; Calcário agrícola; Calcario agricola; Calcário dolomítico; Calcario dolomitico; Calcário calcítico; Calcario calcitico; Gesso agrícola; Gesso agricola; Fosfato natural reativo; Enxofre agrícola; Enxofre agricola; Rocha moída; Rocha moida; Pó de rocha; Turfa; Condicionador orgânico de solo; Condicionador organico de solo; Inoculante; Inoculantes; Inoculante para soja; Inoculante para feijão; Inoculante para milho; Inoculante para pastagem; Inoculante rizobiano; Rizóbio; Rizobio; Rhizobium; Bradyrhizobium; Azospirillum; Microrganismos para uso agrícola; Microorganismos para uso agricola; Meios de cultura; Meio de cultura; Bactérias benéficas; Bacterias beneficas; Fungos benéficos; Fungos beneficos; Bioprotetor; Bioinsumo microbiano; Bioestimulante; Bioestimulantes; Bioestimulante agrícola; Bioestimulante agricola; Bioinsumo; Bioinsumos; Bioinsumo para controle fitossanitário; Bioinsumo para controle fitossanitario; Extrato de algas; Extrato de algas marinhas; Extrato vegetal; Aminoácidos para plantas; Aminoacidos para plantas; Hormônio vegetal; Hormônio de crescimento vegetal; Regulador de crescimento vegetal; Estimulante de enraizamento; Enraizador; Indutor de resistência; Indutor de resistencia; Biodefensivo; Biodefensivos; Agente biológico de controle; Agente biologico de controle; Inseticida biológico; Inseticida biologico; Fungicida biológico; Fungicida biologico; Nematicida biológico; Nematicida biologico; Bactericida biológico; Bactericida biologico; Feromônios para controle de pragas; Feromonios para controle de pragas; Defensivo agrícola; Defensivo agricola; Defensivos agrícolas; Defensivos agricolas; Inseticida; Inseticidas; Fungicida; Fungicidas; Herbicida; Herbicidas; Formicida; Formicidas; Parasiticida; Parasiticidas; Germicida; Germicidas; Acaricida; Acaricidas; Nematicida; Nematicidas; Raticida; Raticidas; Desfolhante; Desfolhantes; Dessecante; Dessecantes; Espalhante adesivo; Espalhante-adesivo; Espalhante; Aderente agrícola; Estimulador de crescimento; Inibidor de crescimento; Regulador de crescimento; Reguladores de crescimento; Produto fitossanitário; Produto fitossanitario; Agrotóxico; Agrotoxico; Pesticida; Pesticidas; Calcário; Calcario; Calcário agrícola; Calcario agricola; Casca de coco triturada; Casca de coco moída; Casca de coco moida; Fibra de coco; Fibras de coco; Turfa agrícola; Turfa agricola; Torta vegetal; Tortas vegetais; Torta de mamona; Torta de algodão; Torta de algodao; Bagaços vegetais; Bagaço de cana; Bagaco de cana; Bagaço de frutas; Resíduos vegetais; Residuos vegetais; Resíduos agroindustriais orgânicos; Residuos agroindustriais organicos; Serragem; Serragens; Serragem de madeira; Resíduos de madeira; Residuos de madeira; Casca de arroz; Cascas de arroz; Cascas de café; Cascas de cafe; Borra de carnaúba; Borra de carnauba; Ossos moídos; Ossos moidos; Farinha de osso; Cinzas vegetais; Cinza vegetal; Resíduos da indústria de celulose; Residuos da industria de celulose; Dregs; Grits; Vermiculita; Vermiculita expandida; Argila expandida; Argilas expandidas; Palha de arroz; Palhas de cereais; Casca de grãos; Casca de graos; Casca de produtos vegetais; Fibras vegetais; Silicatos de potássio; Silicatos de potassio; Silicato de magnésio; Silicato de magnesio; Resinas naturais; Oleorresinas naturais; Suco vegetal concentrado; Extrato vegetal concentrado; Aminoácidos; Aminoacidos; Microrganismos mortos; Microorganismos mortos; Óleos essenciais; Oleos essenciais; Argila; Argilas; Terras minerais; Carvão vegetal; Carvao vegetal; Pastas mecânicas de madeira; Pasta mecânica de madeira; Pasta mecanica de madeira; Ácido nítrico; Acido nitrico; Ácido sulfúrico; Acido sulfurico; Ácido fosfórico; Acido fosforico; Ácido clorídrico; Acido cloridrico; Ácido fosforoso; Acido fosforoso; Ácido acético; Acido acetico; Hidróxido de sódio; Hidroxido de sodio; Soda cáustica; Soda caustica; Carbonato dissódico; Carbonato dissodico; Carbonato de sódio; Carbonato de sodio; Ácidos para fertilizantes; Acidos para fertilizantes; Reagentes para fabricação de fertilizantes; Enzimas preparadas para decomposição de matéria orgânica; Enzimas para decomposicao de materia organica; Enzimas para compostagem; Enzimas para esterco; Enzimas para resíduos vegetais; Enzimas para residuos vegetais; Enzimas agrícolas; Enzimas agricolas; Semente genética; Semente genetica; Semente básica; Semente basica; Semente nativa in natura; Semente certificada C1; Semente certificada C2; Semente não certificada S1; Semente nao certificada S1; Semente não certificada S2; Semente nao certificada S2; Semente de cultivar local; Semente crioula; Semente tradicional; Sementes de milho; Sementes de soja; Sementes de trigo; Sementes de arroz; Sementes de feijão; Sementes de feijao; Sementes de pastagem; Sementes forrageiras; Sementes de sorgo; Sementes de girassol; Mudas de plantas; Muda de planta; Mudas de hortaliças; Mudas de hortaliças; Mudas de árvores frutíferas; Mudas de arvores frutiferas; Muda de eucalipto; Muda de pinus; Mudas florestais; Material propagativo de plantas; Material propagativo de fungos; Micélio de fungos; Micelio de fungos; Inóculo de fungos; Inoculo de fungos; Vacina veterinária; Vacina veterinaria; Vacinas veterinárias; Soros veterinários; Medicamentos veterinários; Medicamentos veterinarios; Vacina para bovinos; Vacina para suínos; Vacina para suinos; Vacina para aves de corte; Vacina para aves de postura; Vacina para ovinos; Vacina para caprinos; Soro hiperimune; Fármaco veterinário injetável; Farmaco veterinario injetavel; Aves de um dia; Pintos de um dia; Pintainhos; Pintos de corte; Pintos de postura; Pintos de frango; Frangos de um dia; Aves recém-nascidas; Aves recem nascidas; Embriões congelados; Embrioes congelados; Embrião bovino; Embriao bovino; Embrião suíno; Embriao suino; Sêmen congelado; Semen congelado; Sêmen bovino; Semen bovino; Sêmen suíno; Semen suino; Sêmen ovino; Semen ovino; Reprodutor de raça pura; Reprodutores de raça pura; Touros de raça pura; Matrizes puras; Matrizes de animais puros de origem; Animais com registro genealógico; Animais com registro genealogico; Ovos fertilizados; Ovo fertilizado; Ovos férteis; Ovos férteis para incubação; Ovos fertis para incubacao; Girinos; Alevinos; Alevinos de peixe; Alevinos de tilápia; Alevinos de tilapia; Alevinos de tambaqui; Alevinos de pacu; Ração para animais; Racao para animais; Rações para bovinos; Racoes para bovinos; Ração para suínos; Racao para suinos; Ração para aves; Racao para aves; Ração para peixes; Racao para peixes; Ração para ovinos; Ração para caprinos; Concentrado para animais; Concentrado proteico; Suplemento mineral; Suplemento vitamínico mineral; Suplemento vitaminico mineral; Núcleo para ração; Nucleo para racao; Premix para ração; Premix para racao; Aditivos para ração; Aditivos para racao; Melhorador de desempenho animal; Sementes para ração animal; Sementes para racao animal; Cereais para alimentação animal; Cereais para alimentacao animal; Milho moído para ração; Milho moido para racao; Milho em grão para ração; Milho em grao para racao; Trigo para ração; Sorgo para ração; Sorgo para racao; Farelo de soja; Farelo de trigo; Farelo de algodão; Farelo de algodao; Farelo de arroz; Farelo de milho; Farelos vegetais; Tortas de oleaginosas; Torta de soja; Torta de algodão; Bagaço de malte; Bagaço de cervejaria; Resíduos de usina de açúcar e álcool; Residuos de usina de acucar e alcool; Resíduos de indústria alimentícia; Residuos de industria alimenticia; Alho em pó; Alho em po; Sal mineralizado; Sal mineral; Sal proteinado; Farinha de peixe; Farinhas de peixe; Farinha de ostra; Farinha de carne; Farinha de osso; Farinha de penas; Farinha de pena; Farinha de sangue; Farinha de vísceras; Farinha de visceras; Calcário calcítico; Calcario calcitico; Gorduras animais; Óleos animais; Oleos animais; Resíduos de óleo vegetal; Residuos de oleo vegetal; Óleo residual de fritura; Oleo residual de fritura; DL-Metionina; DL Metionina; DL-Metionina análogos; DL Metionina analogos; Serviços agronômicos; Servicos agronomicos; Consultoria agronômica; Consultoria agronomica; Assistência técnica agrícola; Assistencia tecnica agricola; Assistência agronômica; Assistencia agronomica; Elaboração de projetos agrícolas; Elaboracao de projetos agricolas; Serviços de técnico agrícola; Serviços de tecnico agricola; Serviços agropecuários; Servicos agropecuarios; Serviços em agroecologia; Servicos em agroecologia; Consultoria em agroecologia; Serviços veterinários para produção animal; Servicos veterinarios para producao animal; Atendimento veterinário em fazenda; Atendimento veterinario em fazenda; Exames clínicos de rebanho; Exames clinicos de rebanho; Manejo sanitário; Manejo sanitario; Serviços de zootecnista; Servicos de zootecnista; Consultoria em zootecnia; Planejamento nutricional animal; Planejamento de lotação; Serviços de inseminação artificial; Servicos de inseminacao artificial; Inseminação de bovinos; Inseminacao de bovinos; Fertilização de animais de criação; Fertilizacao de animais de criacao; Transferência de embriões; Transferencia de embrioes; Serviços de engenharia florestal; Servicos de engenharia florestal; Projetos florestais; Inventário florestal; Inventario florestal; Manejo florestal; Serviços de pulverização; Servicos de pulverizacao; Pulverização aérea; Pulverizacao aerea; Pulverização costal; Pulverizacao costal; Controle de pragas; Controle fitossanitário; Controle fitossanitario; Serviços de semeadura; Servicos de semeadura; Serviços de adubação; Servicos de adubacao; Mistura de adubos; Reparação de solo; Reparacao de solo; Plantio mecanizado; Plantio manual; Colheita mecanizada; Colheita manual; Serviços de projetos para irrigação; Servicos de projetos para irrigacao; Projeto de irrigação; Projeto de irrigacao; Projeto de fertirrigação; Projeto de fertirrigacao; Serviços de análise de solo; Servicos de analise de solo; Análise laboratorial de sementes; Analise laboratorial de sementes; Análise de água de produção; Analise de agua de producao; Análise bromatológica; Analise bromatologica; Análise de sanidade animal; Analise de sanidade animal; Licenciamento de direitos sobre cultivares; Cessão de direitos sobre cultivares; Cessao de direitos sobre cultivares; Royalties de cultivares; Melhoramento genético de animais; Melhoramento genetico de animais; Melhoramento genético de plantas; Melhoramento genetico de plantas; Serviços de biotecnologia agrícola; Servicos de biotecnologia agricola; Vinhaça; Vinhaca; Vinhaça de cana; Vinhaca de cana; Resíduo líquido de destilaria; Residuo liquido de destilaria; Subproduto de usina de etanol; Subproduto de usina de açucar e álcool; Subproduto de usina de acucar e alcool</t>
+  </si>
+  <si>
+    <t>Viatura operacional militar; Viatura militar; Viaturas militares; Veículo militar; Veiculo militar; Veículo tático; Veiculo tatico; Viatura de operação; Peças de viatura militar; Pecas de viatura militar; Carro blindado; Veículo blindado; Veiculo blindado; Carro de combate; Tanque militar; Blindado anfíbio; Blindado anfibio; Blindado sobre lagartas; Blindado sobre rodas; Veículo anfíbio militar; Veiculo anfibio militar; Partes de blindado; Pecas de blindado; Veículo especial militar; Veiculo especial militar; Simulador de veículo militar; Simulador de veiculo militar; Simulador militar; Simuladores de direção militar; Trator militar; Trator para artilharia; Trator para engenharia; Trator sobre lagartas; Trator sobre rodas; Trator de baixa velocidade; Trator de alta velocidade; Partes de trator militar; Radar militar; Radar de vigilância; Radar de vigilancia; Radar de defesa; Radar tático; Foguete militar; Foguetes militares; Artefato foguete; Explosivo militar; Explosivos militares; Carga explosiva militar; Optrônico; Optronico; Equipamento optrônico; Equipamento optronico; Sensor optoeletrônico; Sensor optoeletronico; Ração operacional; Racao operacional; Ração militar; Racao militar; Ração de campanha; Racao de campanha; Mina marítima; Mina maritima; Minas navais; Munição naval; Municao naval; Cartucho de artilharia; Projétil de artilharia; Projetil de artilharia; Estojo de munição; Estopilha; Espoleta; Traçador; Tracador; Pólvora; Polvora; Alto-explosivo; Alto explosivo; Bomba militar; Bomba aerea; Torpedo; Torpedos; Míssil militar; Missil militar; Foguete guiado; Conjunto de míssil; Conjunto de missil; Aeronave militar; Aviao militar; Helicóptero militar; Helicoptero militar; Drone militar; VANT; Veículo aéreo não tripulado; Veiculo aereo nao tripulado; UAV militar; Partes de aeronave militar; Veículo espacial militar; Veiculo espacial militar; Veículo espacial de segurança nacional; Paraquedas militar; Paraquedas tatico; Paraquedas de carga; Dispositivo de lançamento de aeronave; Dispositivo de lançamento espacial; Sistema de aterrissagem aéreo; Sistema de aterrissagem aereo; Simulador de voo; Simulador de voo militar; Treinador de piloto; Equipamento de apoio no solo; Equipamento de apoio em solo; Unidade de apoio em solo; Estação de apoio em solo; Equipamento de comunicação aérea; Equipamento de comunicacao aerea; Equipamento de navegação aérea; Equipamento de navegacao aerea; Equipamento de controle de tráfego aéreo; Equipamento de controle de trafego aereo; Embarcação militar; Embarcacao militar; Barco militar; Navio militar; Patrulheiro naval; Peças e componentes de embarcação; Pecas e componentes de embarcacao; IPS; Sistema de prevenção de intrusão; Sistema de prevencao de intrusao; Dispositivo IPS; IDS; Sistema de detecção de intrusão; Sistema de deteccao de intrusao; Dispositivo IDS; Token de autenticação; Token de autenticacao; Token físico; Token fisico; Autenticação biométrica; Autenticacao biometrica; Leitor biométrico; Leitor biometrico; Equipamento biométrico; Equipamento biometrico; Sistema biométrico; Sistema biometrico; Criptografia; Equipamento de criptografia; Sistema de criptografia; Hardware criptográfico; Hardware criptografico; Appliance criptográfico; Appliance criptografico; Firewall; Firewall seguro; Firewall corporativo; Firewall militar; Roteador seguro; Roteador criptografado; Switch seguro; Switch criptografado; Dispositivo de comunicação criptografada; Equipamento de comunicação criptografada; Rádio criptografado; Radio criptografado; Unidade de armazenamento criptografada; HD criptografado; SSD criptografado; Servidor seguro; Servidor de armazenamento seguro; Servidor criptografado</t>
+  </si>
+  <si>
+    <t>drenagem; bolsa; sistema de drenagem; filme raios x; chapa raio x; cimento ósseo; enxerto ósseo; coletor; conector; diálise; dialise; autotransfusão; hidrocefalia; eletrodo; espaçador; espaco; filmes; filtro; cardioplegia; sutura; hemostático; hemostatico; laminaria; hemoconcentrador; hemodialisador; marcapasso; chapas raio x; oxigenador; reservatório; reservatorio; rim artificial; shunt; pele sintética; pele biologica; tela cirúrgica; valvula; válvula; ascite; irídio; iridio; stent; reprocessador; implante dentário; implante dental; cardiodesfibrilador; desfibrilador; espiral; embolização; embolizacao; imunoglobulina; fator viii; frações do sangue; reagente; reagentes; diagnóstico; diagnostico; gel lubrificante; gel medico; ostomia; equipamentos ostomia; bolsa medica; artigos de laboratório; artigos laboratoriais; acessórios hemodiálise; luvas; seringa; agulha; sondas; cateter; cânula; canula; lanceta; cautério; cauto; instrumentos médicos; instrumentos cirurgicos; mesa cirúrgica; mesa cirurgica; cama hospitalar; fotocoagulador; bisturi; anestesia; autoclave; retinógrafo; retinografo; meio de cultura; termociclador; pipetador; cromatógrafo; cromatografo; sequenciador; eletroforese; espectrofotômetro; espectrofotometro; fotometria; citômetro; citometro; espectrômetro; espectrometro; micrótomo; microtomo; preservativo; diu; substância conservante; substancia conservante; introdutor; enxerto tubular; guia; dilatador; angioplastia; cateter; conjunto descartável; conjunto descartavel; balão intra-aórtico; balao intra-aortico</t>
+  </si>
+  <si>
+    <t>adaptação veicular; adaptação automotiva; acessório veicular pcd; acessório automotivo pcd; comando manual; plataforma de elevação; rampa veicular; guincho veicular; deficiência visual; produto para cegos; braille; teclado braille; display braille; máquina braille; impressora braille; reglete; sintetizador de voz; deficiência auditiva; produto para surdos; telefone para surdos; despertador vibratório; despertador luminoso; mouse ocular</t>
+  </si>
+  <si>
+    <r>
+      <t>abs; absorvente; tampao; tampoes; coletores; menstural; menstruais; interno; protetor; diario</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; intimo</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +791,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1125,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1200,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1193,10 +1220,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1213,10 +1240,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1233,10 +1260,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1253,10 +1280,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1273,10 +1300,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1293,10 +1320,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1313,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1333,10 +1360,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1353,10 +1380,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1373,10 +1400,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1441,9 +1468,6 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
-        <v>233</v>
-      </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
@@ -1657,10 +1681,10 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
         <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1680,10 +1704,10 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
         <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -1703,7 +1727,7 @@
         <v>200015</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -1723,7 +1747,7 @@
         <v>200016</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -1743,7 +1767,7 @@
         <v>200017</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -1763,7 +1787,7 @@
         <v>200018</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -1783,7 +1807,7 @@
         <v>200019</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -1803,7 +1827,7 @@
         <v>200020</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -1823,7 +1847,7 @@
         <v>200021</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -1843,7 +1867,7 @@
         <v>200022</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -1863,7 +1887,7 @@
         <v>200023</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -1883,7 +1907,7 @@
         <v>200024</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -1903,7 +1927,7 @@
         <v>200025</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37">
         <v>60</v>
@@ -1923,7 +1947,7 @@
         <v>200026</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38">
         <v>80</v>
@@ -1943,7 +1967,7 @@
         <v>200027</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39">
         <v>70</v>
@@ -1963,7 +1987,7 @@
         <v>200028</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40">
         <v>60</v>
@@ -1983,7 +2007,7 @@
         <v>200029</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41">
         <v>60</v>
@@ -2005,8 +2029,11 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
+      <c r="E42" t="s">
+        <v>237</v>
+      </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42">
         <v>60</v>
@@ -2028,8 +2055,11 @@
       <c r="D43" t="s">
         <v>32</v>
       </c>
+      <c r="E43" t="s">
+        <v>238</v>
+      </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43">
         <v>60</v>
@@ -2049,7 +2079,7 @@
         <v>200032</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44">
         <v>60</v>
@@ -2072,10 +2102,10 @@
         <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45">
         <v>60</v>
@@ -2095,13 +2125,13 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="G46" t="s">
         <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" t="s">
-        <v>64</v>
       </c>
       <c r="H46">
         <v>60</v>
@@ -2121,13 +2151,13 @@
         <v>200035</v>
       </c>
       <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" t="s">
         <v>65</v>
-      </c>
-      <c r="E47" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
       </c>
       <c r="H47">
         <v>60</v>
@@ -2147,7 +2177,7 @@
         <v>200036</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48">
         <v>60</v>
@@ -2167,7 +2197,7 @@
         <v>200037</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49">
         <v>60</v>
@@ -2187,13 +2217,13 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H50">
         <v>60</v>
@@ -2213,10 +2243,10 @@
         <v>200039</v>
       </c>
       <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
         <v>71</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
       </c>
       <c r="H51">
         <v>60</v>
@@ -2225,7 +2255,7 @@
         <v>60</v>
       </c>
       <c r="J51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2239,7 +2269,7 @@
         <v>200040</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52">
         <v>60</v>
@@ -2259,7 +2289,7 @@
         <v>200041</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H53">
         <v>60</v>
@@ -2279,7 +2309,7 @@
         <v>200042</v>
       </c>
       <c r="G54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H54">
         <v>60</v>
@@ -2299,10 +2329,13 @@
         <v>200043</v>
       </c>
       <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" t="s">
         <v>77</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
       </c>
       <c r="H55">
         <v>60</v>
@@ -2322,7 +2355,7 @@
         <v>200044</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H56">
         <v>60</v>
@@ -2342,7 +2375,7 @@
         <v>200045</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -2362,7 +2395,7 @@
         <v>200046</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -2382,7 +2415,7 @@
         <v>200047</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -2402,7 +2435,7 @@
         <v>200048</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -2422,7 +2455,7 @@
         <v>200049</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -2442,7 +2475,7 @@
         <v>200050</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62">
         <v>40</v>
@@ -2462,7 +2495,7 @@
         <v>200051</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -2482,7 +2515,7 @@
         <v>200052</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -2502,7 +2535,7 @@
         <v>220001</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2522,7 +2555,7 @@
         <v>220002</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2542,7 +2575,7 @@
         <v>220003</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2562,7 +2595,7 @@
         <v>221001</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2582,7 +2615,7 @@
         <v>222001</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2602,7 +2635,7 @@
         <v>400001</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2622,7 +2655,7 @@
         <v>410001</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2642,7 +2675,7 @@
         <v>410002</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2662,7 +2695,7 @@
         <v>410003</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2682,7 +2715,7 @@
         <v>410004</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2702,7 +2735,7 @@
         <v>410005</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2722,7 +2755,7 @@
         <v>410006</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2742,7 +2775,7 @@
         <v>410007</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2762,7 +2795,7 @@
         <v>410008</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2782,7 +2815,7 @@
         <v>410009</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2802,7 +2835,7 @@
         <v>410010</v>
       </c>
       <c r="G80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2822,7 +2855,7 @@
         <v>410011</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2842,7 +2875,7 @@
         <v>410012</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2862,7 +2895,7 @@
         <v>410013</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2882,7 +2915,7 @@
         <v>410014</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2902,7 +2935,7 @@
         <v>410015</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2922,7 +2955,7 @@
         <v>410016</v>
       </c>
       <c r="G86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2942,7 +2975,7 @@
         <v>410017</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2962,7 +2995,7 @@
         <v>410018</v>
       </c>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -2982,7 +3015,7 @@
         <v>410019</v>
       </c>
       <c r="G89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3002,7 +3035,7 @@
         <v>410020</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3022,7 +3055,7 @@
         <v>410021</v>
       </c>
       <c r="G91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3042,7 +3075,7 @@
         <v>410022</v>
       </c>
       <c r="G92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3062,7 +3095,7 @@
         <v>410023</v>
       </c>
       <c r="G93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3082,7 +3115,7 @@
         <v>410024</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3102,7 +3135,7 @@
         <v>410025</v>
       </c>
       <c r="G95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3122,7 +3155,7 @@
         <v>410026</v>
       </c>
       <c r="G96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3142,7 +3175,7 @@
         <v>410999</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3162,7 +3195,7 @@
         <v>510001</v>
       </c>
       <c r="G98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3182,7 +3215,7 @@
         <v>515001</v>
       </c>
       <c r="G99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H99">
         <v>60</v>
@@ -3202,7 +3235,7 @@
         <v>550001</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3222,7 +3255,7 @@
         <v>550002</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3242,7 +3275,7 @@
         <v>550003</v>
       </c>
       <c r="G102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3262,7 +3295,7 @@
         <v>550004</v>
       </c>
       <c r="G103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3282,7 +3315,7 @@
         <v>550005</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3302,7 +3335,7 @@
         <v>550006</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3322,7 +3355,7 @@
         <v>550007</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3342,7 +3375,7 @@
         <v>550008</v>
       </c>
       <c r="G107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3362,7 +3395,7 @@
         <v>550009</v>
       </c>
       <c r="G108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3382,7 +3415,7 @@
         <v>550010</v>
       </c>
       <c r="G109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3402,7 +3435,7 @@
         <v>550011</v>
       </c>
       <c r="G110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3422,7 +3455,7 @@
         <v>550012</v>
       </c>
       <c r="G111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3442,7 +3475,7 @@
         <v>550013</v>
       </c>
       <c r="G112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3462,7 +3495,7 @@
         <v>550014</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3482,7 +3515,7 @@
         <v>550015</v>
       </c>
       <c r="G114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3502,7 +3535,7 @@
         <v>550016</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3522,7 +3555,7 @@
         <v>550017</v>
       </c>
       <c r="G116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3542,7 +3575,7 @@
         <v>550018</v>
       </c>
       <c r="G117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3562,7 +3595,7 @@
         <v>550019</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3582,7 +3615,7 @@
         <v>550020</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3602,7 +3635,7 @@
         <v>550021</v>
       </c>
       <c r="G120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3622,7 +3655,7 @@
         <v>620001</v>
       </c>
       <c r="G121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3642,7 +3675,7 @@
         <v>620002</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3662,7 +3695,7 @@
         <v>620003</v>
       </c>
       <c r="G123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3682,7 +3715,7 @@
         <v>620004</v>
       </c>
       <c r="G124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3702,7 +3735,7 @@
         <v>620005</v>
       </c>
       <c r="G125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3722,7 +3755,7 @@
         <v>620006</v>
       </c>
       <c r="G126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3742,7 +3775,7 @@
         <v>800001</v>
       </c>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3762,7 +3795,7 @@
         <v>800002</v>
       </c>
       <c r="G128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3782,7 +3815,7 @@
         <v>810001</v>
       </c>
       <c r="G129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3802,7 +3835,7 @@
         <v>811001</v>
       </c>
       <c r="G130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3822,7 +3855,7 @@
         <v>811002</v>
       </c>
       <c r="G131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3842,7 +3875,7 @@
         <v>811003</v>
       </c>
       <c r="G132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3862,7 +3895,7 @@
         <v>820001</v>
       </c>
       <c r="G133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3882,7 +3915,7 @@
         <v>820002</v>
       </c>
       <c r="G134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3902,7 +3935,7 @@
         <v>820003</v>
       </c>
       <c r="G135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3922,7 +3955,7 @@
         <v>820004</v>
       </c>
       <c r="G136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3942,7 +3975,7 @@
         <v>820005</v>
       </c>
       <c r="G137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3962,7 +3995,7 @@
         <v>820006</v>
       </c>
       <c r="G138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -3982,7 +4015,7 @@
         <v>830001</v>
       </c>
       <c r="G139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -3994,6 +4027,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4007,17 +4041,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4035,114 +4069,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
         <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
         <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
         <v>169</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
         <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
         <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
         <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
         <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
         <v>183</v>
-      </c>
-      <c r="B11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
         <v>185</v>
-      </c>
-      <c r="B12" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
         <v>187</v>
-      </c>
-      <c r="B13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
         <v>189</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4160,13 +4194,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4178,15 +4212,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
       </c>
       <c r="C2">
         <v>49</v>
@@ -4198,7 +4232,7 @@
         <v>200039</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4228,13 +4262,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4279,13 @@
         <v>200043</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
         <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
       </c>
       <c r="F2">
         <v>98</v>
@@ -4265,13 +4299,13 @@
         <v>200044</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
         <v>198</v>
-      </c>
-      <c r="E3" t="s">
-        <v>199</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -4288,10 +4322,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4305,13 +4339,13 @@
         <v>200033</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -4328,10 +4362,10 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -4348,10 +4382,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -4365,13 +4399,13 @@
         <v>200031</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -4388,10 +4422,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -4408,10 +4442,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4425,13 +4459,13 @@
         <v>200031</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4452,21 +4486,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>222</v>
@@ -4474,10 +4508,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -4485,10 +4519,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -4496,10 +4530,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -4507,10 +4541,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -4518,10 +4552,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4529,10 +4563,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8">
         <v>437</v>
@@ -4540,10 +4574,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9">
         <v>157</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD6D89-527F-41CB-A7C7-2012F68F1D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF493965-8E7B-40E5-8035-7FB65A8AF97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF493965-8E7B-40E5-8035-7FB65A8AF97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A2402-9834-40AA-BAD9-86BFDA36F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -750,9 +750,6 @@
     <t>Viatura operacional militar; Viatura militar; Viaturas militares; Veículo militar; Veiculo militar; Veículo tático; Veiculo tatico; Viatura de operação; Peças de viatura militar; Pecas de viatura militar; Carro blindado; Veículo blindado; Veiculo blindado; Carro de combate; Tanque militar; Blindado anfíbio; Blindado anfibio; Blindado sobre lagartas; Blindado sobre rodas; Veículo anfíbio militar; Veiculo anfibio militar; Partes de blindado; Pecas de blindado; Veículo especial militar; Veiculo especial militar; Simulador de veículo militar; Simulador de veiculo militar; Simulador militar; Simuladores de direção militar; Trator militar; Trator para artilharia; Trator para engenharia; Trator sobre lagartas; Trator sobre rodas; Trator de baixa velocidade; Trator de alta velocidade; Partes de trator militar; Radar militar; Radar de vigilância; Radar de vigilancia; Radar de defesa; Radar tático; Foguete militar; Foguetes militares; Artefato foguete; Explosivo militar; Explosivos militares; Carga explosiva militar; Optrônico; Optronico; Equipamento optrônico; Equipamento optronico; Sensor optoeletrônico; Sensor optoeletronico; Ração operacional; Racao operacional; Ração militar; Racao militar; Ração de campanha; Racao de campanha; Mina marítima; Mina maritima; Minas navais; Munição naval; Municao naval; Cartucho de artilharia; Projétil de artilharia; Projetil de artilharia; Estojo de munição; Estopilha; Espoleta; Traçador; Tracador; Pólvora; Polvora; Alto-explosivo; Alto explosivo; Bomba militar; Bomba aerea; Torpedo; Torpedos; Míssil militar; Missil militar; Foguete guiado; Conjunto de míssil; Conjunto de missil; Aeronave militar; Aviao militar; Helicóptero militar; Helicoptero militar; Drone militar; VANT; Veículo aéreo não tripulado; Veiculo aereo nao tripulado; UAV militar; Partes de aeronave militar; Veículo espacial militar; Veiculo espacial militar; Veículo espacial de segurança nacional; Paraquedas militar; Paraquedas tatico; Paraquedas de carga; Dispositivo de lançamento de aeronave; Dispositivo de lançamento espacial; Sistema de aterrissagem aéreo; Sistema de aterrissagem aereo; Simulador de voo; Simulador de voo militar; Treinador de piloto; Equipamento de apoio no solo; Equipamento de apoio em solo; Unidade de apoio em solo; Estação de apoio em solo; Equipamento de comunicação aérea; Equipamento de comunicacao aerea; Equipamento de navegação aérea; Equipamento de navegacao aerea; Equipamento de controle de tráfego aéreo; Equipamento de controle de trafego aereo; Embarcação militar; Embarcacao militar; Barco militar; Navio militar; Patrulheiro naval; Peças e componentes de embarcação; Pecas e componentes de embarcacao; IPS; Sistema de prevenção de intrusão; Sistema de prevencao de intrusao; Dispositivo IPS; IDS; Sistema de detecção de intrusão; Sistema de deteccao de intrusao; Dispositivo IDS; Token de autenticação; Token de autenticacao; Token físico; Token fisico; Autenticação biométrica; Autenticacao biometrica; Leitor biométrico; Leitor biometrico; Equipamento biométrico; Equipamento biometrico; Sistema biométrico; Sistema biometrico; Criptografia; Equipamento de criptografia; Sistema de criptografia; Hardware criptográfico; Hardware criptografico; Appliance criptográfico; Appliance criptografico; Firewall; Firewall seguro; Firewall corporativo; Firewall militar; Roteador seguro; Roteador criptografado; Switch seguro; Switch criptografado; Dispositivo de comunicação criptografada; Equipamento de comunicação criptografada; Rádio criptografado; Radio criptografado; Unidade de armazenamento criptografada; HD criptografado; SSD criptografado; Servidor seguro; Servidor de armazenamento seguro; Servidor criptografado</t>
   </si>
   <si>
-    <t>drenagem; bolsa; sistema de drenagem; filme raios x; chapa raio x; cimento ósseo; enxerto ósseo; coletor; conector; diálise; dialise; autotransfusão; hidrocefalia; eletrodo; espaçador; espaco; filmes; filtro; cardioplegia; sutura; hemostático; hemostatico; laminaria; hemoconcentrador; hemodialisador; marcapasso; chapas raio x; oxigenador; reservatório; reservatorio; rim artificial; shunt; pele sintética; pele biologica; tela cirúrgica; valvula; válvula; ascite; irídio; iridio; stent; reprocessador; implante dentário; implante dental; cardiodesfibrilador; desfibrilador; espiral; embolização; embolizacao; imunoglobulina; fator viii; frações do sangue; reagente; reagentes; diagnóstico; diagnostico; gel lubrificante; gel medico; ostomia; equipamentos ostomia; bolsa medica; artigos de laboratório; artigos laboratoriais; acessórios hemodiálise; luvas; seringa; agulha; sondas; cateter; cânula; canula; lanceta; cautério; cauto; instrumentos médicos; instrumentos cirurgicos; mesa cirúrgica; mesa cirurgica; cama hospitalar; fotocoagulador; bisturi; anestesia; autoclave; retinógrafo; retinografo; meio de cultura; termociclador; pipetador; cromatógrafo; cromatografo; sequenciador; eletroforese; espectrofotômetro; espectrofotometro; fotometria; citômetro; citometro; espectrômetro; espectrometro; micrótomo; microtomo; preservativo; diu; substância conservante; substancia conservante; introdutor; enxerto tubular; guia; dilatador; angioplastia; cateter; conjunto descartável; conjunto descartavel; balão intra-aórtico; balao intra-aortico</t>
-  </si>
-  <si>
     <t>adaptação veicular; adaptação automotiva; acessório veicular pcd; acessório automotivo pcd; comando manual; plataforma de elevação; rampa veicular; guincho veicular; deficiência visual; produto para cegos; braille; teclado braille; display braille; máquina braille; impressora braille; reglete; sintetizador de voz; deficiência auditiva; produto para surdos; telefone para surdos; despertador vibratório; despertador luminoso; mouse ocular</t>
   </si>
   <si>
@@ -770,6 +767,9 @@
       </rPr>
       <t>; intimo</t>
     </r>
+  </si>
+  <si>
+    <t>drenagem; bolsa; sistema de drenagem; filme raios x; chapa raio x; cimento ósseo; enxerto ósseo; coletor; diálise; dialise; autotransfusão; hidrocefalia; eletrodo; espaçador; espaco; filmes; filtro; cardioplegia; sutura; hemostático; hemostatico; laminaria; hemoconcentrador; hemodialisador; marcapasso; chapas raio x; oxigenador; reservatório; reservatorio; rim artificial; shunt; pele sintética; pele biologica; tela cirúrgica; valvula; válvula; ascite; irídio; iridio; stent; reprocessador; implante dentário; implante dental; cardiodesfibrilador; desfibrilador; espiral; embolização; embolizacao; imunoglobulina; fator viii; frações do sangue; reagente; reagentes; diagnóstico; diagnostico; gel lubrificante; gel medico; ostomia; equipamentos ostomia; bolsa medica; artigos de laboratório; artigos laboratoriais; acessórios hemodiálise; luvas; seringa; agulha; sondas; cateter; cânula; canula; lanceta; cautério; cauto; instrumentos médicos; instrumentos cirurgicos; mesa cirúrgica; mesa cirurgica; cama hospitalar; fotocoagulador; bisturi; anestesia; autoclave; retinógrafo; retinografo; meio de cultura; termociclador; pipetador; cromatógrafo; cromatografo; sequenciador; eletroforese; espectrofotômetro; espectrofotometro; fotometria; citômetro; citometro; espectrômetro; espectrometro; micrótomo; microtomo; preservativo; diu; substância conservante; substancia conservante; introdutor; enxerto tubular; guia; dilatador; angioplastia; cateter; conjunto descartável; conjunto descartavel; balão intra-aórtico; balao intra-aortico</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1681,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2030,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -2056,7 +2056,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A2402-9834-40AA-BAD9-86BFDA36F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B5B2A-52C2-4429-9E80-ED3745AA5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="239">
   <si>
     <t>priority</t>
   </si>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t>Acetato de dextroalfatocoferol; Acetato de dextro alfatocoferol; Acetato de dextro alfa tocoferol; Acetato de tocoferol; Dextroalfatocoferol; Dextro alfatocoferol; Tocoferol; Acetato de lisina; Acetato lisina; Lisina acetato; Lisina; Acetato de potássio; Acetato de potassio; Acetato potássico; Acetato potassico; Potássio acetato; Potassio acetato; Potássio; Potassio; Acetato de sódio; Acetato de sodio; Acetato sódico; Acetato sodico; Sódio acetato; Sodio acetato; Sódio; Sodio; Acetato de zinco; Zinco acetato; Zinco; Acetiltirosina; Acetil tirosina; Tirosina acetilada; Tirosina; Ácido acético; Acido acetico; Ácido etanoico; Acido etanoico; Acético; Acetico; Ácido ascórbico; Acido ascorbico; Vitamina C; Ascorbato; Ascórbico; Ascorbico; Ácido aspártico; Acido aspartico; Aspártico; Aspartico; Ácido cítrico; Acido citrico; Citrato; Cítrico; Citrico; Ácido fólico; Acido folico; Folato; Fólico; Folico; Ácido glutâmico; Acido glutamico; Glutamato; Glutâmico; Glutamico; Ácido málico; Acido malico; Málico; Malico; Ácido selenioso; Acido selenioso; Água para injeção; Agua para injecao; Água injetável; Agua injetavel; Água p/ injeção; Agua p injecao; Alanilglutamina; Alanil glutamina; L-alanilglutamina; Glutamina alanil; Glutamina; Alanina; L-alanina; Albumina humana; Albumina; Proteína plasmática humana; Arginina; L-arginina; Asparagina; L-asparagina; Bicarbonato de sódio; Bicarbonato de sodio; Bicarbonato sódico; Bicarbonato sodico; Bicarbonato; Sódio bicarbonato; Sodio bicarbonato; Biotina; Vitamina B7; Vitamina H; Cianocobalamina; Vitamina B12; Cistina; L-cistina; Cloreto crômico; Cloreto cromico; Cloreto de cromo; Cloreto de cálcio; Cloreto de calcio; Cálcio cloreto; Calcio cloreto; Cloreto de magnésio; Cloreto de magnesio; Magnésio; Magnesio; Cloreto de manganês; Cloreto de manganes; Manganês; Manganes; Cloreto de potássio; Cloreto de potassio; Potássio; Potassio; Cloreto de sódio; Cloreto de sodio; Sódio; Sodio; Sal; Cloreto de zinco; Zinco cloreto; Zinco; Cloridrato de piridoxina; Piridoxina HCl; Vitamina B6; Piridoxina; Cloridrato de tiamina; Tiamina HCl; Vitamina B1; Tiamina; Cocarboxilase; Co-carboxilase; Pirofosfato de tiamina; Difosfato de tiamina; Colecalciferol; Vitamina D3; Ergocalciferol; Vitamina D2; Fenilalanina; L-fenilalanina; Fitomenadiona; Vitamina K1; Fórmula isenta de fenilalanina; Dieta sem fenilalanina; Sem fenilalanina; Fórmula isenta de metionina; Dieta sem metionina; Sem metionina; Fórmula isenta de lisina e pobre em triptofano; Sem lisina; Baixo triptofano; Fórmula isenta de leucina isoleucina valina; Sem leucina; Sem isoleucina; Sem valina; Fórmula isenta de fenilalanina e metionina; Sem fenilalanina; Sem metionina; Fórmula isenta de aminoácidos não essenciais; Formula isenta de aminoacidos nao essenciais; Fórmula sem metionina treonina valina restrita isoleucina; Sem metionina; Sem treonina; Sem valina; Restrita em isoleucina; Fórmula cetogênica; Formula cetogenica; Dieta cetogênica; Dieta cetogenica; Fórmula 4:1; Fórmula hiperlipídica; Formula hiperlipidica; Suplemento de TCM; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; Preparação líquida de trioleato e trierucato; Trioleato; Trierucato; Fosfato de potássio dibásico; Fosfato de potassio dibasico; Fosfato dibásico; Potássio fosfato; Potassio fosfato; Fosfato de potássio monobásico; Fosfato de potassio monobasico; Fosfato monobásico; Fosfato de sódio monobásico; Fosfato de sodio monobasico; Fosfato monobasico; Fosfato de tiamina; Tiamina fosfato; Fosfato sódico de riboflavina; Fosfato sodico de riboflavina; Riboflavina fosfato; Frutose; Glicerofosfato de sódio; Glicerofosfato de sodio; Glicina; Gliconato de cálcio; Gliconato de calcio; Glicose; Dextrose; Histidina; L-histidina; Icodextrina; Iodeto de potássio; Iodeto de potassio; Isoleucina; L-isoleucina; Lecitina de ovo; Lecitina; Leucina; L-leucina; Levovalina; L-valina; Lisina; L-lisina; Metionina; L-metionina; Nicotinamida; Niacinamida; Vitamina B3; Palmitato de retinol; Retinol palmitato; Vitamina A; Prolina; L-prolina; Riboflavina; Vitamina B2; Selenito de sódio; Selenito de sodio; Serina; L-serina; Sorbitol; Sulfato de magnésio; Sulfato de magnesio; Sulfato de zinco; Zinco sulfato; Taurina; Tirosina; L-tirosina; Tocoferol; Alfa tocoferol; Vitamina E; Treonina; L-treonina; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; TCM; MCT</t>
-  </si>
-  <si>
-    <t>Crustáceos; Crustaceos; Camarões; Camaroes; Camarão; Camarao; Camarão sete barbas; Camarao sete barbas; Siri; Siris; Caranguejo; Caranguejos; Mexilhão; Mexilhao; Mexilhões; Mexilhoes; Mariscos; Marisco; Ostra; Ostras; Polvo; Polvos; Lula; Lulas; Vôngole; Vongole; Vieira; Vieiras; Leite fermentado; Leite fermentado sem acento; Iogurte; Iogurtes; Iogurte natural; Iogurte integral; Bebida láctea; Bebida lactea; Composto lácteo; Composto lacteo; Kefir; Coalhada; Mel natural; Mel; Mel de abelha; Mel silvestre; Mel floral; Farinha de trigo; Farinha de centeio; Farinha de milho; Fubá; Fuba; Farinha de arroz; Farinha de mandioca; Farinha de batata; Farinha de leguminosas; Farinha de sementes; Sêmola; Semola; Sêmola de trigo; Semola de trigo; Grumos de milho; Semola de milho; Semola de arroz; Flocos de cereais; Flocos de aveia; Aveia em flocos; Milho laminado; Centeio laminado; Amido de milho; Amido milho; Maisena; Maizena; Fécula de milho; Fecula de milho; Óleo de soja; Oleo de soja; Óleo de milho; Oleo de milho; Óleo de canola; Oleo de canola; Óleo de girassol; Oleo de girassol; Óleo de algodão; Oleo de algodao; Óleo de amendoim; Oleo de amendoim; Óleo de coco; Oleo de coco; Óleo de palma; Oleo de palma; Óleo vegetal; Oleo vegetal; Macarrão; Macarrao; Macarrões; Macarroes; Espaguete; Talharim; Penne; Massa alimentícia; Massa alimenticia; Massa seca; Suco natural; Sucos naturais; Suco de laranja natural; Suco de maçã natural; Suco de maca natural; Suco de uva integral; Suco de abacaxi natural; Polpa de fruta; Polpas de frutas; Polpa de manga; Polpa de goiaba; Polpa de morango; Polpa de açaí; Polpa de acai; Purê vegetal; Pure vegetal; Pão de forma; Pao de forma; Pão integral; Pao integral; Pão multigrãos; Pao multigraos; Extrato de tomate; Pasta de tomate; Frutas frescas; Fruta fresca; Legumes frescos; Verduras; Raízes; Raizes; Tubérculos; Tuberculos; Milho em grão; Milho em grao; Trigo em grão; Trigo em grao; Arroz em casca; Arroz; Soja; Linhaça; Linhaca; Gergelim; Amendoim cru; Sementes oleaginosas; Legumes pré-cozidos; Legumes pre cozidos; Batata pré-cozida; Batata pre cozida; Cenoura pré-cozida; Cenoura pre cozida; Ervilha cozida; Milho cozido; Castanha-do-pará; Castanha do para; Castanha de caju; Baru; Amendoim torrado; Semente de abóbora torrada; Semente de abobora torrada; Semente de girassol torrada; Sementes torradas</t>
   </si>
   <si>
     <t>Sabão de toucador; Sabao de toucador; Sabonete; Sabonete em barra; Sabonete perfumado; Sabonete de banho; Sabonete corporal; Sabonete higiene; Barra de sabonete; Sabonete barra; Dentifrício; Dentifricio; Pasta dental; Creme dental; Creme dentário; Pasta de dente; Pasta dentaria; Gel dental; Gel dentario; Escova de dentes; Escova dental; Escova para dentes; Escova dentária; Escova dentaria; Escovas de dente; Escovas dentais; Papel higiênico; Papel higienico; Rolo de papel higiênico; Rolo de papel higienico; Papel toalete; Papel sanitario; Papel sanitário; Água sanitária; Agua sanitaria; Água sanitária tradicional; Agua sanitaria tradicional; Cloro doméstico; Cloro domestico; Cloro líquido; Cloro liquido; Hipoclorito de sódio; Hipoclorito de sodio; Água de cloro; Sabão em barra; Sabao em barra; Sabão barra; Sabao barra; Sabão de limpeza; Sabao de limpeza; Sabão barra limpeza; Sabão comum; Sabao comum; Fralda descartável; Fralda descartavel; Fraldas; Fraldas geriátricas; Fraldas geriatricas; Fralda infantil; Fralda adulto; Fralda para adulto; Fralda</t>
@@ -1152,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1678,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2030,7 +2027,7 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -2056,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -2127,9 +2124,6 @@
       <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="E46" t="s">
-        <v>233</v>
-      </c>
       <c r="G46" t="s">
         <v>63</v>
       </c>
@@ -2154,7 +2148,7 @@
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G47" t="s">
         <v>65</v>
@@ -2220,7 +2214,7 @@
         <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
         <v>69</v>
@@ -2332,7 +2326,7 @@
         <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B5B2A-52C2-4429-9E80-ED3745AA5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665A985-7F69-411E-8551-7FB94A39A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
   <si>
     <t>priority</t>
   </si>
@@ -735,19 +735,7 @@
     <t>011005</t>
   </si>
   <si>
-    <t>Acetato de dextroalfatocoferol; Acetato de dextro alfatocoferol; Acetato de dextro alfa tocoferol; Acetato de tocoferol; Dextroalfatocoferol; Dextro alfatocoferol; Tocoferol; Acetato de lisina; Acetato lisina; Lisina acetato; Lisina; Acetato de potássio; Acetato de potassio; Acetato potássico; Acetato potassico; Potássio acetato; Potassio acetato; Potássio; Potassio; Acetato de sódio; Acetato de sodio; Acetato sódico; Acetato sodico; Sódio acetato; Sodio acetato; Sódio; Sodio; Acetato de zinco; Zinco acetato; Zinco; Acetiltirosina; Acetil tirosina; Tirosina acetilada; Tirosina; Ácido acético; Acido acetico; Ácido etanoico; Acido etanoico; Acético; Acetico; Ácido ascórbico; Acido ascorbico; Vitamina C; Ascorbato; Ascórbico; Ascorbico; Ácido aspártico; Acido aspartico; Aspártico; Aspartico; Ácido cítrico; Acido citrico; Citrato; Cítrico; Citrico; Ácido fólico; Acido folico; Folato; Fólico; Folico; Ácido glutâmico; Acido glutamico; Glutamato; Glutâmico; Glutamico; Ácido málico; Acido malico; Málico; Malico; Ácido selenioso; Acido selenioso; Água para injeção; Agua para injecao; Água injetável; Agua injetavel; Água p/ injeção; Agua p injecao; Alanilglutamina; Alanil glutamina; L-alanilglutamina; Glutamina alanil; Glutamina; Alanina; L-alanina; Albumina humana; Albumina; Proteína plasmática humana; Arginina; L-arginina; Asparagina; L-asparagina; Bicarbonato de sódio; Bicarbonato de sodio; Bicarbonato sódico; Bicarbonato sodico; Bicarbonato; Sódio bicarbonato; Sodio bicarbonato; Biotina; Vitamina B7; Vitamina H; Cianocobalamina; Vitamina B12; Cistina; L-cistina; Cloreto crômico; Cloreto cromico; Cloreto de cromo; Cloreto de cálcio; Cloreto de calcio; Cálcio cloreto; Calcio cloreto; Cloreto de magnésio; Cloreto de magnesio; Magnésio; Magnesio; Cloreto de manganês; Cloreto de manganes; Manganês; Manganes; Cloreto de potássio; Cloreto de potassio; Potássio; Potassio; Cloreto de sódio; Cloreto de sodio; Sódio; Sodio; Sal; Cloreto de zinco; Zinco cloreto; Zinco; Cloridrato de piridoxina; Piridoxina HCl; Vitamina B6; Piridoxina; Cloridrato de tiamina; Tiamina HCl; Vitamina B1; Tiamina; Cocarboxilase; Co-carboxilase; Pirofosfato de tiamina; Difosfato de tiamina; Colecalciferol; Vitamina D3; Ergocalciferol; Vitamina D2; Fenilalanina; L-fenilalanina; Fitomenadiona; Vitamina K1; Fórmula isenta de fenilalanina; Dieta sem fenilalanina; Sem fenilalanina; Fórmula isenta de metionina; Dieta sem metionina; Sem metionina; Fórmula isenta de lisina e pobre em triptofano; Sem lisina; Baixo triptofano; Fórmula isenta de leucina isoleucina valina; Sem leucina; Sem isoleucina; Sem valina; Fórmula isenta de fenilalanina e metionina; Sem fenilalanina; Sem metionina; Fórmula isenta de aminoácidos não essenciais; Formula isenta de aminoacidos nao essenciais; Fórmula sem metionina treonina valina restrita isoleucina; Sem metionina; Sem treonina; Sem valina; Restrita em isoleucina; Fórmula cetogênica; Formula cetogenica; Dieta cetogênica; Dieta cetogenica; Fórmula 4:1; Fórmula hiperlipídica; Formula hiperlipidica; Suplemento de TCM; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; Preparação líquida de trioleato e trierucato; Trioleato; Trierucato; Fosfato de potássio dibásico; Fosfato de potassio dibasico; Fosfato dibásico; Potássio fosfato; Potassio fosfato; Fosfato de potássio monobásico; Fosfato de potassio monobasico; Fosfato monobásico; Fosfato de sódio monobásico; Fosfato de sodio monobasico; Fosfato monobasico; Fosfato de tiamina; Tiamina fosfato; Fosfato sódico de riboflavina; Fosfato sodico de riboflavina; Riboflavina fosfato; Frutose; Glicerofosfato de sódio; Glicerofosfato de sodio; Glicina; Gliconato de cálcio; Gliconato de calcio; Glicose; Dextrose; Histidina; L-histidina; Icodextrina; Iodeto de potássio; Iodeto de potassio; Isoleucina; L-isoleucina; Lecitina de ovo; Lecitina; Leucina; L-leucina; Levovalina; L-valina; Lisina; L-lisina; Metionina; L-metionina; Nicotinamida; Niacinamida; Vitamina B3; Palmitato de retinol; Retinol palmitato; Vitamina A; Prolina; L-prolina; Riboflavina; Vitamina B2; Selenito de sódio; Selenito de sodio; Serina; L-serina; Sorbitol; Sulfato de magnésio; Sulfato de magnesio; Sulfato de zinco; Zinco sulfato; Taurina; Tirosina; L-tirosina; Tocoferol; Alfa tocoferol; Vitamina E; Treonina; L-treonina; Triglicerídeos de cadeia média; Triglicerideos de cadeia media; TCM; MCT</t>
-  </si>
-  <si>
-    <t>Sabão de toucador; Sabao de toucador; Sabonete; Sabonete em barra; Sabonete perfumado; Sabonete de banho; Sabonete corporal; Sabonete higiene; Barra de sabonete; Sabonete barra; Dentifrício; Dentifricio; Pasta dental; Creme dental; Creme dentário; Pasta de dente; Pasta dentaria; Gel dental; Gel dentario; Escova de dentes; Escova dental; Escova para dentes; Escova dentária; Escova dentaria; Escovas de dente; Escovas dentais; Papel higiênico; Papel higienico; Rolo de papel higiênico; Rolo de papel higienico; Papel toalete; Papel sanitario; Papel sanitário; Água sanitária; Agua sanitaria; Água sanitária tradicional; Agua sanitaria tradicional; Cloro doméstico; Cloro domestico; Cloro líquido; Cloro liquido; Hipoclorito de sódio; Hipoclorito de sodio; Água de cloro; Sabão em barra; Sabao em barra; Sabão barra; Sabao barra; Sabão de limpeza; Sabao de limpeza; Sabão barra limpeza; Sabão comum; Sabao comum; Fralda descartável; Fralda descartavel; Fraldas; Fraldas geriátricas; Fraldas geriatricas; Fralda infantil; Fralda adulto; Fralda para adulto; Fralda</t>
-  </si>
-  <si>
     <t>Biofertilizante; Biofertilizantes; Biofertilizante líquido; Biofertilizante liquido; Biofertilizante sólido; Biofertilizante solido; Biofertilizante organomineral; Biofertilizante organo mineral; Biofertilizante foliar; Biofertilizante para solo; Biofertilizante para pastagem; Adubo biológico; Adubo biologico; Fertilizante biológico; Fertilizante biologico; Inoculante biofertilizante; Fertilizante; Fertilizantes; Adubo; Adubos; Adubo químico; Adubo quimico; Adubo mineral; Fertilizante mineral; Fertilizante organomineral; Fertilizante organico; Adubo organomineral; Adubo organico; NPK; Adubo NPK; NPK 04-14-08; NPK 04-30-10; NPK 20-00-20; Ureia; Ureia agricola; Nitrato de amônio; Nitrato de amonio; Nitrato de cálcio; Nitrato de calcio; Superfosfato simples; Superfosfato triplo; MAP; DAP; Cloreto de potássio; Cloreto de potassio; KCl; Sulfato de amônio; Sulfato de amonio; Fosfato monoamônico; Fosfato monoamonico; Fosfato diamônico; Fosfato diamonico; Micronutrientes agrícolas; Mistura de fertilizantes; Formulação de adubo; Corretivo de solo; Corretivos de solo; Condicionador de solo; Condicionadores de solo; Remineralizador de solo; Remineralizadores de solo; Substrato para plantas; Substratos para plantas; Substrato agrícola; Substrato hortícola; Calcário agrícola; Calcario agricola; Calcário dolomítico; Calcario dolomitico; Calcário calcítico; Calcario calcitico; Gesso agrícola; Gesso agricola; Fosfato natural reativo; Enxofre agrícola; Enxofre agricola; Rocha moída; Rocha moida; Pó de rocha; Turfa; Condicionador orgânico de solo; Condicionador organico de solo; Inoculante; Inoculantes; Inoculante para soja; Inoculante para feijão; Inoculante para milho; Inoculante para pastagem; Inoculante rizobiano; Rizóbio; Rizobio; Rhizobium; Bradyrhizobium; Azospirillum; Microrganismos para uso agrícola; Microorganismos para uso agricola; Meios de cultura; Meio de cultura; Bactérias benéficas; Bacterias beneficas; Fungos benéficos; Fungos beneficos; Bioprotetor; Bioinsumo microbiano; Bioestimulante; Bioestimulantes; Bioestimulante agrícola; Bioestimulante agricola; Bioinsumo; Bioinsumos; Bioinsumo para controle fitossanitário; Bioinsumo para controle fitossanitario; Extrato de algas; Extrato de algas marinhas; Extrato vegetal; Aminoácidos para plantas; Aminoacidos para plantas; Hormônio vegetal; Hormônio de crescimento vegetal; Regulador de crescimento vegetal; Estimulante de enraizamento; Enraizador; Indutor de resistência; Indutor de resistencia; Biodefensivo; Biodefensivos; Agente biológico de controle; Agente biologico de controle; Inseticida biológico; Inseticida biologico; Fungicida biológico; Fungicida biologico; Nematicida biológico; Nematicida biologico; Bactericida biológico; Bactericida biologico; Feromônios para controle de pragas; Feromonios para controle de pragas; Defensivo agrícola; Defensivo agricola; Defensivos agrícolas; Defensivos agricolas; Inseticida; Inseticidas; Fungicida; Fungicidas; Herbicida; Herbicidas; Formicida; Formicidas; Parasiticida; Parasiticidas; Germicida; Germicidas; Acaricida; Acaricidas; Nematicida; Nematicidas; Raticida; Raticidas; Desfolhante; Desfolhantes; Dessecante; Dessecantes; Espalhante adesivo; Espalhante-adesivo; Espalhante; Aderente agrícola; Estimulador de crescimento; Inibidor de crescimento; Regulador de crescimento; Reguladores de crescimento; Produto fitossanitário; Produto fitossanitario; Agrotóxico; Agrotoxico; Pesticida; Pesticidas; Calcário; Calcario; Calcário agrícola; Calcario agricola; Casca de coco triturada; Casca de coco moída; Casca de coco moida; Fibra de coco; Fibras de coco; Turfa agrícola; Turfa agricola; Torta vegetal; Tortas vegetais; Torta de mamona; Torta de algodão; Torta de algodao; Bagaços vegetais; Bagaço de cana; Bagaco de cana; Bagaço de frutas; Resíduos vegetais; Residuos vegetais; Resíduos agroindustriais orgânicos; Residuos agroindustriais organicos; Serragem; Serragens; Serragem de madeira; Resíduos de madeira; Residuos de madeira; Casca de arroz; Cascas de arroz; Cascas de café; Cascas de cafe; Borra de carnaúba; Borra de carnauba; Ossos moídos; Ossos moidos; Farinha de osso; Cinzas vegetais; Cinza vegetal; Resíduos da indústria de celulose; Residuos da industria de celulose; Dregs; Grits; Vermiculita; Vermiculita expandida; Argila expandida; Argilas expandidas; Palha de arroz; Palhas de cereais; Casca de grãos; Casca de graos; Casca de produtos vegetais; Fibras vegetais; Silicatos de potássio; Silicatos de potassio; Silicato de magnésio; Silicato de magnesio; Resinas naturais; Oleorresinas naturais; Suco vegetal concentrado; Extrato vegetal concentrado; Aminoácidos; Aminoacidos; Microrganismos mortos; Microorganismos mortos; Óleos essenciais; Oleos essenciais; Argila; Argilas; Terras minerais; Carvão vegetal; Carvao vegetal; Pastas mecânicas de madeira; Pasta mecânica de madeira; Pasta mecanica de madeira; Ácido nítrico; Acido nitrico; Ácido sulfúrico; Acido sulfurico; Ácido fosfórico; Acido fosforico; Ácido clorídrico; Acido cloridrico; Ácido fosforoso; Acido fosforoso; Ácido acético; Acido acetico; Hidróxido de sódio; Hidroxido de sodio; Soda cáustica; Soda caustica; Carbonato dissódico; Carbonato dissodico; Carbonato de sódio; Carbonato de sodio; Ácidos para fertilizantes; Acidos para fertilizantes; Reagentes para fabricação de fertilizantes; Enzimas preparadas para decomposição de matéria orgânica; Enzimas para decomposicao de materia organica; Enzimas para compostagem; Enzimas para esterco; Enzimas para resíduos vegetais; Enzimas para residuos vegetais; Enzimas agrícolas; Enzimas agricolas; Semente genética; Semente genetica; Semente básica; Semente basica; Semente nativa in natura; Semente certificada C1; Semente certificada C2; Semente não certificada S1; Semente nao certificada S1; Semente não certificada S2; Semente nao certificada S2; Semente de cultivar local; Semente crioula; Semente tradicional; Sementes de milho; Sementes de soja; Sementes de trigo; Sementes de arroz; Sementes de feijão; Sementes de feijao; Sementes de pastagem; Sementes forrageiras; Sementes de sorgo; Sementes de girassol; Mudas de plantas; Muda de planta; Mudas de hortaliças; Mudas de hortaliças; Mudas de árvores frutíferas; Mudas de arvores frutiferas; Muda de eucalipto; Muda de pinus; Mudas florestais; Material propagativo de plantas; Material propagativo de fungos; Micélio de fungos; Micelio de fungos; Inóculo de fungos; Inoculo de fungos; Vacina veterinária; Vacina veterinaria; Vacinas veterinárias; Soros veterinários; Medicamentos veterinários; Medicamentos veterinarios; Vacina para bovinos; Vacina para suínos; Vacina para suinos; Vacina para aves de corte; Vacina para aves de postura; Vacina para ovinos; Vacina para caprinos; Soro hiperimune; Fármaco veterinário injetável; Farmaco veterinario injetavel; Aves de um dia; Pintos de um dia; Pintainhos; Pintos de corte; Pintos de postura; Pintos de frango; Frangos de um dia; Aves recém-nascidas; Aves recem nascidas; Embriões congelados; Embrioes congelados; Embrião bovino; Embriao bovino; Embrião suíno; Embriao suino; Sêmen congelado; Semen congelado; Sêmen bovino; Semen bovino; Sêmen suíno; Semen suino; Sêmen ovino; Semen ovino; Reprodutor de raça pura; Reprodutores de raça pura; Touros de raça pura; Matrizes puras; Matrizes de animais puros de origem; Animais com registro genealógico; Animais com registro genealogico; Ovos fertilizados; Ovo fertilizado; Ovos férteis; Ovos férteis para incubação; Ovos fertis para incubacao; Girinos; Alevinos; Alevinos de peixe; Alevinos de tilápia; Alevinos de tilapia; Alevinos de tambaqui; Alevinos de pacu; Ração para animais; Racao para animais; Rações para bovinos; Racoes para bovinos; Ração para suínos; Racao para suinos; Ração para aves; Racao para aves; Ração para peixes; Racao para peixes; Ração para ovinos; Ração para caprinos; Concentrado para animais; Concentrado proteico; Suplemento mineral; Suplemento vitamínico mineral; Suplemento vitaminico mineral; Núcleo para ração; Nucleo para racao; Premix para ração; Premix para racao; Aditivos para ração; Aditivos para racao; Melhorador de desempenho animal; Sementes para ração animal; Sementes para racao animal; Cereais para alimentação animal; Cereais para alimentacao animal; Milho moído para ração; Milho moido para racao; Milho em grão para ração; Milho em grao para racao; Trigo para ração; Sorgo para ração; Sorgo para racao; Farelo de soja; Farelo de trigo; Farelo de algodão; Farelo de algodao; Farelo de arroz; Farelo de milho; Farelos vegetais; Tortas de oleaginosas; Torta de soja; Torta de algodão; Bagaço de malte; Bagaço de cervejaria; Resíduos de usina de açúcar e álcool; Residuos de usina de acucar e alcool; Resíduos de indústria alimentícia; Residuos de industria alimenticia; Alho em pó; Alho em po; Sal mineralizado; Sal mineral; Sal proteinado; Farinha de peixe; Farinhas de peixe; Farinha de ostra; Farinha de carne; Farinha de osso; Farinha de penas; Farinha de pena; Farinha de sangue; Farinha de vísceras; Farinha de visceras; Calcário calcítico; Calcario calcitico; Gorduras animais; Óleos animais; Oleos animais; Resíduos de óleo vegetal; Residuos de oleo vegetal; Óleo residual de fritura; Oleo residual de fritura; DL-Metionina; DL Metionina; DL-Metionina análogos; DL Metionina analogos; Serviços agronômicos; Servicos agronomicos; Consultoria agronômica; Consultoria agronomica; Assistência técnica agrícola; Assistencia tecnica agricola; Assistência agronômica; Assistencia agronomica; Elaboração de projetos agrícolas; Elaboracao de projetos agricolas; Serviços de técnico agrícola; Serviços de tecnico agricola; Serviços agropecuários; Servicos agropecuarios; Serviços em agroecologia; Servicos em agroecologia; Consultoria em agroecologia; Serviços veterinários para produção animal; Servicos veterinarios para producao animal; Atendimento veterinário em fazenda; Atendimento veterinario em fazenda; Exames clínicos de rebanho; Exames clinicos de rebanho; Manejo sanitário; Manejo sanitario; Serviços de zootecnista; Servicos de zootecnista; Consultoria em zootecnia; Planejamento nutricional animal; Planejamento de lotação; Serviços de inseminação artificial; Servicos de inseminacao artificial; Inseminação de bovinos; Inseminacao de bovinos; Fertilização de animais de criação; Fertilizacao de animais de criacao; Transferência de embriões; Transferencia de embrioes; Serviços de engenharia florestal; Servicos de engenharia florestal; Projetos florestais; Inventário florestal; Inventario florestal; Manejo florestal; Serviços de pulverização; Servicos de pulverizacao; Pulverização aérea; Pulverizacao aerea; Pulverização costal; Pulverizacao costal; Controle de pragas; Controle fitossanitário; Controle fitossanitario; Serviços de semeadura; Servicos de semeadura; Serviços de adubação; Servicos de adubacao; Mistura de adubos; Reparação de solo; Reparacao de solo; Plantio mecanizado; Plantio manual; Colheita mecanizada; Colheita manual; Serviços de projetos para irrigação; Servicos de projetos para irrigacao; Projeto de irrigação; Projeto de irrigacao; Projeto de fertirrigação; Projeto de fertirrigacao; Serviços de análise de solo; Servicos de analise de solo; Análise laboratorial de sementes; Analise laboratorial de sementes; Análise de água de produção; Analise de agua de producao; Análise bromatológica; Analise bromatologica; Análise de sanidade animal; Analise de sanidade animal; Licenciamento de direitos sobre cultivares; Cessão de direitos sobre cultivares; Cessao de direitos sobre cultivares; Royalties de cultivares; Melhoramento genético de animais; Melhoramento genetico de animais; Melhoramento genético de plantas; Melhoramento genetico de plantas; Serviços de biotecnologia agrícola; Servicos de biotecnologia agricola; Vinhaça; Vinhaca; Vinhaça de cana; Vinhaca de cana; Resíduo líquido de destilaria; Residuo liquido de destilaria; Subproduto de usina de etanol; Subproduto de usina de açucar e álcool; Subproduto de usina de acucar e alcool</t>
-  </si>
-  <si>
-    <t>Viatura operacional militar; Viatura militar; Viaturas militares; Veículo militar; Veiculo militar; Veículo tático; Veiculo tatico; Viatura de operação; Peças de viatura militar; Pecas de viatura militar; Carro blindado; Veículo blindado; Veiculo blindado; Carro de combate; Tanque militar; Blindado anfíbio; Blindado anfibio; Blindado sobre lagartas; Blindado sobre rodas; Veículo anfíbio militar; Veiculo anfibio militar; Partes de blindado; Pecas de blindado; Veículo especial militar; Veiculo especial militar; Simulador de veículo militar; Simulador de veiculo militar; Simulador militar; Simuladores de direção militar; Trator militar; Trator para artilharia; Trator para engenharia; Trator sobre lagartas; Trator sobre rodas; Trator de baixa velocidade; Trator de alta velocidade; Partes de trator militar; Radar militar; Radar de vigilância; Radar de vigilancia; Radar de defesa; Radar tático; Foguete militar; Foguetes militares; Artefato foguete; Explosivo militar; Explosivos militares; Carga explosiva militar; Optrônico; Optronico; Equipamento optrônico; Equipamento optronico; Sensor optoeletrônico; Sensor optoeletronico; Ração operacional; Racao operacional; Ração militar; Racao militar; Ração de campanha; Racao de campanha; Mina marítima; Mina maritima; Minas navais; Munição naval; Municao naval; Cartucho de artilharia; Projétil de artilharia; Projetil de artilharia; Estojo de munição; Estopilha; Espoleta; Traçador; Tracador; Pólvora; Polvora; Alto-explosivo; Alto explosivo; Bomba militar; Bomba aerea; Torpedo; Torpedos; Míssil militar; Missil militar; Foguete guiado; Conjunto de míssil; Conjunto de missil; Aeronave militar; Aviao militar; Helicóptero militar; Helicoptero militar; Drone militar; VANT; Veículo aéreo não tripulado; Veiculo aereo nao tripulado; UAV militar; Partes de aeronave militar; Veículo espacial militar; Veiculo espacial militar; Veículo espacial de segurança nacional; Paraquedas militar; Paraquedas tatico; Paraquedas de carga; Dispositivo de lançamento de aeronave; Dispositivo de lançamento espacial; Sistema de aterrissagem aéreo; Sistema de aterrissagem aereo; Simulador de voo; Simulador de voo militar; Treinador de piloto; Equipamento de apoio no solo; Equipamento de apoio em solo; Unidade de apoio em solo; Estação de apoio em solo; Equipamento de comunicação aérea; Equipamento de comunicacao aerea; Equipamento de navegação aérea; Equipamento de navegacao aerea; Equipamento de controle de tráfego aéreo; Equipamento de controle de trafego aereo; Embarcação militar; Embarcacao militar; Barco militar; Navio militar; Patrulheiro naval; Peças e componentes de embarcação; Pecas e componentes de embarcacao; IPS; Sistema de prevenção de intrusão; Sistema de prevencao de intrusao; Dispositivo IPS; IDS; Sistema de detecção de intrusão; Sistema de deteccao de intrusao; Dispositivo IDS; Token de autenticação; Token de autenticacao; Token físico; Token fisico; Autenticação biométrica; Autenticacao biometrica; Leitor biométrico; Leitor biometrico; Equipamento biométrico; Equipamento biometrico; Sistema biométrico; Sistema biometrico; Criptografia; Equipamento de criptografia; Sistema de criptografia; Hardware criptográfico; Hardware criptografico; Appliance criptográfico; Appliance criptografico; Firewall; Firewall seguro; Firewall corporativo; Firewall militar; Roteador seguro; Roteador criptografado; Switch seguro; Switch criptografado; Dispositivo de comunicação criptografada; Equipamento de comunicação criptografada; Rádio criptografado; Radio criptografado; Unidade de armazenamento criptografada; HD criptografado; SSD criptografado; Servidor seguro; Servidor de armazenamento seguro; Servidor criptografado</t>
-  </si>
-  <si>
-    <t>adaptação veicular; adaptação automotiva; acessório veicular pcd; acessório automotivo pcd; comando manual; plataforma de elevação; rampa veicular; guincho veicular; deficiência visual; produto para cegos; braille; teclado braille; display braille; máquina braille; impressora braille; reglete; sintetizador de voz; deficiência auditiva; produto para surdos; telefone para surdos; despertador vibratório; despertador luminoso; mouse ocular</t>
   </si>
   <si>
     <r>
@@ -764,9 +752,6 @@
       </rPr>
       <t>; intimo</t>
     </r>
-  </si>
-  <si>
-    <t>drenagem; bolsa; sistema de drenagem; filme raios x; chapa raio x; cimento ósseo; enxerto ósseo; coletor; diálise; dialise; autotransfusão; hidrocefalia; eletrodo; espaçador; espaco; filmes; filtro; cardioplegia; sutura; hemostático; hemostatico; laminaria; hemoconcentrador; hemodialisador; marcapasso; chapas raio x; oxigenador; reservatório; reservatorio; rim artificial; shunt; pele sintética; pele biologica; tela cirúrgica; valvula; válvula; ascite; irídio; iridio; stent; reprocessador; implante dentário; implante dental; cardiodesfibrilador; desfibrilador; espiral; embolização; embolizacao; imunoglobulina; fator viii; frações do sangue; reagente; reagentes; diagnóstico; diagnostico; gel lubrificante; gel medico; ostomia; equipamentos ostomia; bolsa medica; artigos de laboratório; artigos laboratoriais; acessórios hemodiálise; luvas; seringa; agulha; sondas; cateter; cânula; canula; lanceta; cautério; cauto; instrumentos médicos; instrumentos cirurgicos; mesa cirúrgica; mesa cirurgica; cama hospitalar; fotocoagulador; bisturi; anestesia; autoclave; retinógrafo; retinografo; meio de cultura; termociclador; pipetador; cromatógrafo; cromatografo; sequenciador; eletroforese; espectrofotômetro; espectrofotometro; fotometria; citômetro; citometro; espectrômetro; espectrometro; micrótomo; microtomo; preservativo; diu; substância conservante; substancia conservante; introdutor; enxerto tubular; guia; dilatador; angioplastia; cateter; conjunto descartável; conjunto descartavel; balão intra-aórtico; balao intra-aortico</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1663,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2026,9 +2011,6 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
-      <c r="E42" t="s">
-        <v>238</v>
-      </c>
       <c r="G42" t="s">
         <v>58</v>
       </c>
@@ -2052,9 +2034,6 @@
       <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
-        <v>236</v>
-      </c>
       <c r="G43" t="s">
         <v>59</v>
       </c>
@@ -2098,9 +2077,6 @@
       <c r="D45" t="s">
         <v>37</v>
       </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
       <c r="G45" t="s">
         <v>61</v>
       </c>
@@ -2147,9 +2123,6 @@
       <c r="D47" t="s">
         <v>64</v>
       </c>
-      <c r="E47" t="s">
-        <v>233</v>
-      </c>
       <c r="G47" t="s">
         <v>65</v>
       </c>
@@ -2214,7 +2187,7 @@
         <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
         <v>69</v>
@@ -2324,9 +2297,6 @@
       </c>
       <c r="D55" t="s">
         <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>235</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665A985-7F69-411E-8551-7FB94A39A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2498D3-5A6D-43D2-A5EE-612D3C09AA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="233">
   <si>
     <t>priority</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Operações relacionadas ao fornecimento de serviço de educação desportiva, classificado no código 1.2205.12.00 da NBS, observado o art. 141 da Lei Complementar nº 214, de 2025. Operações relacionadas às seguintes atividades desportivas: operações e prestações de serviços de segurança da informação e segurança cibernética, observado o art. 141 da Lei Complementar nº 214, de 2025.</t>
-  </si>
-  <si>
-    <t>21069030;36020000;84714900;84715090;84719014;85176234;8517624;85176241;85176249;85176259;8517627;85176272;85176273;85176277;85176278;85176279;852351;85235110;85235190;852352;85235210;85235290;85258929;85261000;8701;87011000;87012;87012100;87012200;87012300;87012400;87012900;87013000;87019;87019100;87019200;87019300;870194;87019410;87019490;870195;87019510;87019590;8709;87091;87091100;87091900;87099000;87100000;8802;88021;88021100;880212;88021210;88021290;88026000;88040000;8805;88051000;88052;88052100;88052900;8806;88061000;88062;88062100;88062200;88062300;88062400;88062900;88069;88069100;88069200;88069300;88069400;88069900;89012000;89061000;901420;90142010;90142020;90142030;90142090;90318099;93012000;9306;93062;930621;93062110;93062120;93062130;93062190;93062900;93063000;930690;93069010;93069020;93069090</t>
   </si>
   <si>
     <t>Fornecimento à administração pública direta, autarquias e fundações púbicas dos serviços e dos bens relativos à soberania e à segurança nacional, à segurança da informação e à segurança cibernética relacionados no Anexo XI da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NBS e da NCM/SH, observado o art. 142 da Lei Complementar nº 214, de 2025.</t>
@@ -1134,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,10 +1179,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1202,10 +1199,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1222,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1242,10 +1239,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1262,10 +1259,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1282,10 +1279,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1302,10 +1299,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1322,10 +1319,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1342,10 +1339,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1362,10 +1359,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1382,10 +1379,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1663,7 +1660,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2187,7 +2184,7 @@
         <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G50" t="s">
         <v>69</v>
@@ -2295,11 +2292,8 @@
       <c r="C55" s="3">
         <v>200043</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
       </c>
       <c r="H55">
         <v>60</v>
@@ -2319,7 +2313,7 @@
         <v>200044</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H56">
         <v>60</v>
@@ -2339,7 +2333,7 @@
         <v>200045</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -2359,7 +2353,7 @@
         <v>200046</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -2379,7 +2373,7 @@
         <v>200047</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -2399,7 +2393,7 @@
         <v>200048</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -2419,7 +2413,7 @@
         <v>200049</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -2439,7 +2433,7 @@
         <v>200050</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H62">
         <v>40</v>
@@ -2459,7 +2453,7 @@
         <v>200051</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -2479,7 +2473,7 @@
         <v>200052</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -2499,7 +2493,7 @@
         <v>220001</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2519,7 +2513,7 @@
         <v>220002</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2539,7 +2533,7 @@
         <v>220003</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2559,7 +2553,7 @@
         <v>221001</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2579,7 +2573,7 @@
         <v>222001</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2599,7 +2593,7 @@
         <v>400001</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2619,7 +2613,7 @@
         <v>410001</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2639,7 +2633,7 @@
         <v>410002</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2659,7 +2653,7 @@
         <v>410003</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2679,7 +2673,7 @@
         <v>410004</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2699,7 +2693,7 @@
         <v>410005</v>
       </c>
       <c r="G75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2719,7 +2713,7 @@
         <v>410006</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2739,7 +2733,7 @@
         <v>410007</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2759,7 +2753,7 @@
         <v>410008</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2779,7 +2773,7 @@
         <v>410009</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2799,7 +2793,7 @@
         <v>410010</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2819,7 +2813,7 @@
         <v>410011</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2839,7 +2833,7 @@
         <v>410012</v>
       </c>
       <c r="G82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2859,7 +2853,7 @@
         <v>410013</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2879,7 +2873,7 @@
         <v>410014</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2899,7 +2893,7 @@
         <v>410015</v>
       </c>
       <c r="G85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2919,7 +2913,7 @@
         <v>410016</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2939,7 +2933,7 @@
         <v>410017</v>
       </c>
       <c r="G87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2959,7 +2953,7 @@
         <v>410018</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -2979,7 +2973,7 @@
         <v>410019</v>
       </c>
       <c r="G89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -2999,7 +2993,7 @@
         <v>410020</v>
       </c>
       <c r="G90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3019,7 +3013,7 @@
         <v>410021</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3039,7 +3033,7 @@
         <v>410022</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3059,7 +3053,7 @@
         <v>410023</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3079,7 +3073,7 @@
         <v>410024</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3099,7 +3093,7 @@
         <v>410025</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3119,7 +3113,7 @@
         <v>410026</v>
       </c>
       <c r="G96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3139,7 +3133,7 @@
         <v>410999</v>
       </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3159,7 +3153,7 @@
         <v>510001</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3179,7 +3173,7 @@
         <v>515001</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H99">
         <v>60</v>
@@ -3199,7 +3193,7 @@
         <v>550001</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3219,7 +3213,7 @@
         <v>550002</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3239,7 +3233,7 @@
         <v>550003</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3259,7 +3253,7 @@
         <v>550004</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3279,7 +3273,7 @@
         <v>550005</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3299,7 +3293,7 @@
         <v>550006</v>
       </c>
       <c r="G105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3319,7 +3313,7 @@
         <v>550007</v>
       </c>
       <c r="G106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3339,7 +3333,7 @@
         <v>550008</v>
       </c>
       <c r="G107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3359,7 +3353,7 @@
         <v>550009</v>
       </c>
       <c r="G108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3379,7 +3373,7 @@
         <v>550010</v>
       </c>
       <c r="G109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3399,7 +3393,7 @@
         <v>550011</v>
       </c>
       <c r="G110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3419,7 +3413,7 @@
         <v>550012</v>
       </c>
       <c r="G111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3439,7 +3433,7 @@
         <v>550013</v>
       </c>
       <c r="G112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3459,7 +3453,7 @@
         <v>550014</v>
       </c>
       <c r="G113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3479,7 +3473,7 @@
         <v>550015</v>
       </c>
       <c r="G114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3499,7 +3493,7 @@
         <v>550016</v>
       </c>
       <c r="G115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3519,7 +3513,7 @@
         <v>550017</v>
       </c>
       <c r="G116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3539,7 +3533,7 @@
         <v>550018</v>
       </c>
       <c r="G117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3559,7 +3553,7 @@
         <v>550019</v>
       </c>
       <c r="G118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3579,7 +3573,7 @@
         <v>550020</v>
       </c>
       <c r="G119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3599,7 +3593,7 @@
         <v>550021</v>
       </c>
       <c r="G120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3619,7 +3613,7 @@
         <v>620001</v>
       </c>
       <c r="G121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3639,7 +3633,7 @@
         <v>620002</v>
       </c>
       <c r="G122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3659,7 +3653,7 @@
         <v>620003</v>
       </c>
       <c r="G123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3679,7 +3673,7 @@
         <v>620004</v>
       </c>
       <c r="G124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3699,7 +3693,7 @@
         <v>620005</v>
       </c>
       <c r="G125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3719,7 +3713,7 @@
         <v>620006</v>
       </c>
       <c r="G126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3739,7 +3733,7 @@
         <v>800001</v>
       </c>
       <c r="G127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3759,7 +3753,7 @@
         <v>800002</v>
       </c>
       <c r="G128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3779,7 +3773,7 @@
         <v>810001</v>
       </c>
       <c r="G129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3799,7 +3793,7 @@
         <v>811001</v>
       </c>
       <c r="G130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3819,7 +3813,7 @@
         <v>811002</v>
       </c>
       <c r="G131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3839,7 +3833,7 @@
         <v>811003</v>
       </c>
       <c r="G132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3859,7 +3853,7 @@
         <v>820001</v>
       </c>
       <c r="G133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3879,7 +3873,7 @@
         <v>820002</v>
       </c>
       <c r="G134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3899,7 +3893,7 @@
         <v>820003</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3919,7 +3913,7 @@
         <v>820004</v>
       </c>
       <c r="G136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3939,7 +3933,7 @@
         <v>820005</v>
       </c>
       <c r="G137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3959,7 +3953,7 @@
         <v>820006</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -3979,7 +3973,7 @@
         <v>830001</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4005,17 +3999,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4033,114 +4027,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
         <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
         <v>170</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
         <v>176</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
         <v>178</v>
-      </c>
-      <c r="B9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
         <v>180</v>
-      </c>
-      <c r="B10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
         <v>182</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
         <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" t="s">
         <v>186</v>
-      </c>
-      <c r="B13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4158,13 +4152,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4176,15 +4170,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
       </c>
       <c r="C2">
         <v>49</v>
@@ -4226,13 +4220,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4243,13 +4237,13 @@
         <v>200043</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" t="s">
-        <v>198</v>
       </c>
       <c r="F2">
         <v>98</v>
@@ -4263,13 +4257,13 @@
         <v>200044</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
         <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>198</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -4286,10 +4280,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
         <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4306,10 +4300,10 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
         <v>199</v>
-      </c>
-      <c r="E5" t="s">
-        <v>200</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -4326,10 +4320,10 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -4346,10 +4340,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -4366,10 +4360,10 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -4386,10 +4380,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -4406,10 +4400,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4426,10 +4420,10 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4450,21 +4444,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>222</v>
@@ -4472,10 +4466,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -4483,10 +4477,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -4494,10 +4488,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -4505,10 +4499,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -4516,10 +4510,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4527,10 +4521,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8">
         <v>437</v>
@@ -4538,10 +4532,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9">
         <v>157</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2498D3-5A6D-43D2-A5EE-612D3C09AA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E4425-1DA0-4A99-BF25-6B43C38D61E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>Fornecimento das composições para nutrição enteral e parenteral, composições especiais e fórmulas nutricionais destinadas às pessoas com erros inatos do metabolismo relacionadas no Anexo VI da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NCM/SH, observado o art. 133 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
-    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;0711;071120;07112010;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;2008;20081;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086010;20086090;200870;20087010;20087020;20087090;20088000;20089;20089100;20089300;200897;20089710;20089790;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900</t>
-  </si>
-  <si>
     <t>Fornecimento dos alimentos destinados ao consumo humano relacionados no Anexo VII da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NCM/SH, observado o art. 135 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>Fornecimento dos produtos de higiene pessoal e limpeza relacionados no Anexo VIII da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NCM/SH, observado o art. 136 da Lei Complementar nº 214, de 2025.</t>
-  </si>
-  <si>
-    <t>0102;01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
   <si>
     <t>Fornecimento de produtos agropecuários, aquícolas, pesqueiros, florestais e extrativistas vegetais in natura, observado o art. 137 da Lei Complementar nº 214, de 2025.</t>
@@ -749,6 +743,12 @@
       </rPr>
       <t>; intimo</t>
     </r>
+  </si>
+  <si>
+    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;0711;071120;07112010;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900</t>
+  </si>
+  <si>
+    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,10 +1179,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1199,10 +1199,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1239,10 +1239,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1259,10 +1259,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1279,10 +1279,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1299,10 +1299,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1319,10 +1319,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1339,10 +1339,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1359,10 +1359,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1379,10 +1379,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1660,7 +1660,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2095,10 +2095,10 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" t="s">
         <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
       </c>
       <c r="H46">
         <v>60</v>
@@ -2118,10 +2118,10 @@
         <v>200035</v>
       </c>
       <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
         <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
       </c>
       <c r="H47">
         <v>60</v>
@@ -2141,7 +2141,7 @@
         <v>200036</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H48">
         <v>60</v>
@@ -2161,7 +2161,7 @@
         <v>200037</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H49">
         <v>60</v>
@@ -2181,13 +2181,13 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H50">
         <v>60</v>
@@ -2207,10 +2207,10 @@
         <v>200039</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H51">
         <v>60</v>
@@ -2219,7 +2219,7 @@
         <v>60</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>200040</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H52">
         <v>60</v>
@@ -2253,7 +2253,7 @@
         <v>200041</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H53">
         <v>60</v>
@@ -2273,7 +2273,7 @@
         <v>200042</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H54">
         <v>60</v>
@@ -2293,7 +2293,7 @@
         <v>200043</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H55">
         <v>60</v>
@@ -2313,7 +2313,7 @@
         <v>200044</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H56">
         <v>60</v>
@@ -2333,7 +2333,7 @@
         <v>200045</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -2353,7 +2353,7 @@
         <v>200046</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -2373,7 +2373,7 @@
         <v>200047</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -2393,7 +2393,7 @@
         <v>200048</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -2413,7 +2413,7 @@
         <v>200049</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -2433,7 +2433,7 @@
         <v>200050</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H62">
         <v>40</v>
@@ -2453,7 +2453,7 @@
         <v>200051</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -2473,7 +2473,7 @@
         <v>200052</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         <v>220001</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>220002</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>220003</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>221001</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>222001</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>400001</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>410001</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>410002</v>
       </c>
       <c r="G72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>410003</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>410004</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>410005</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>410006</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>410007</v>
       </c>
       <c r="G77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>410008</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>410009</v>
       </c>
       <c r="G79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>410010</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>410011</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>410012</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>410013</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>410014</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>410015</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>410016</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>410017</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>410018</v>
       </c>
       <c r="G88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>410019</v>
       </c>
       <c r="G89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>410020</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>410021</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>410022</v>
       </c>
       <c r="G92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>410023</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>410024</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>410025</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>410026</v>
       </c>
       <c r="G96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>410999</v>
       </c>
       <c r="G97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>510001</v>
       </c>
       <c r="G98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>515001</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H99">
         <v>60</v>
@@ -3193,7 +3193,7 @@
         <v>550001</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>550002</v>
       </c>
       <c r="G101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>550003</v>
       </c>
       <c r="G102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>550004</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>550005</v>
       </c>
       <c r="G104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>550006</v>
       </c>
       <c r="G105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>550007</v>
       </c>
       <c r="G106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>550008</v>
       </c>
       <c r="G107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>550009</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>550010</v>
       </c>
       <c r="G109" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>550011</v>
       </c>
       <c r="G110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>550012</v>
       </c>
       <c r="G111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>550013</v>
       </c>
       <c r="G112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>550014</v>
       </c>
       <c r="G113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>550015</v>
       </c>
       <c r="G114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>550016</v>
       </c>
       <c r="G115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>550017</v>
       </c>
       <c r="G116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>550018</v>
       </c>
       <c r="G117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>550019</v>
       </c>
       <c r="G118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>550020</v>
       </c>
       <c r="G119" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>550021</v>
       </c>
       <c r="G120" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>620001</v>
       </c>
       <c r="G121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>620002</v>
       </c>
       <c r="G122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>620003</v>
       </c>
       <c r="G123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>620004</v>
       </c>
       <c r="G124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>620005</v>
       </c>
       <c r="G125" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>620006</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>800001</v>
       </c>
       <c r="G127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>800002</v>
       </c>
       <c r="G128" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>810001</v>
       </c>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>811001</v>
       </c>
       <c r="G130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>811002</v>
       </c>
       <c r="G131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>811003</v>
       </c>
       <c r="G132" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>820001</v>
       </c>
       <c r="G133" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>820002</v>
       </c>
       <c r="G134" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>820003</v>
       </c>
       <c r="G135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>820004</v>
       </c>
       <c r="G136" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>820005</v>
       </c>
       <c r="G137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>820006</v>
       </c>
       <c r="G138" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>830001</v>
       </c>
       <c r="G139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -3999,17 +3999,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4027,114 +4027,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4152,13 +4152,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4170,15 +4170,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>49</v>
@@ -4190,7 +4190,7 @@
         <v>200039</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4208,6 +4208,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4220,13 +4223,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,13 +4240,13 @@
         <v>200043</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2">
         <v>98</v>
@@ -4257,13 +4260,13 @@
         <v>200044</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -4280,10 +4283,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4300,10 +4303,10 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -4320,10 +4323,10 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -4340,10 +4343,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -4360,10 +4363,10 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -4380,10 +4383,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -4400,10 +4403,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4420,10 +4423,10 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4444,21 +4447,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>222</v>
@@ -4466,10 +4469,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -4477,10 +4480,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -4488,10 +4491,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -4499,10 +4502,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -4510,10 +4513,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4521,10 +4524,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8">
         <v>437</v>
@@ -4532,10 +4535,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9">
         <v>157</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\19 - ARQUIVOS PARA COMPARTILHAMENTO INTERNO\ANDRÉ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E4425-1DA0-4A99-BF25-6B43C38D61E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336AE0E-4318-4376-B50C-3CBFA0740760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
   <si>
     <t>priority</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
+  </si>
+  <si>
+    <t>3/4;BUCHA RED;CAIXA;TIGRE;</t>
   </si>
 </sst>
 </file>
@@ -1131,14 +1134,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2007,6 +2012,9 @@
       </c>
       <c r="D42" t="s">
         <v>27</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\19 - ARQUIVOS PARA COMPARTILHAMENTO INTERNO\ANDRÉ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336AE0E-4318-4376-B50C-3CBFA0740760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99047653-1B5F-4A68-9496-9E46D28490D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,7 +1136,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99047653-1B5F-4A68-9496-9E46D28490D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E07CF7B-70C5-433A-A0D9-B587E6818615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="236">
   <si>
     <t>priority</t>
   </si>
@@ -751,7 +751,13 @@
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
   <si>
-    <t>3/4;BUCHA RED;CAIXA;TIGRE;</t>
+    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;</t>
+  </si>
+  <si>
+    <t>drenagem;bolsa;bolsas;sistema;diurese;chapa;chapas;filme;filmes;raio-x;raios-x;rx;cimento;cimentos;reconstituição óssea;reconstituicao ossea;óssea;ossea;ósseo;osseo;substituto;substitutos;enxerto;enxertos;enxerto ósseo;enxerto osseo;coletor;conector;conectores;tampa;polieletrolítico;polieletrolitico;diálise;dialise;concentrado;concentrados;conjunto;conjuntos;troca;autotransfusao;autotransfusão;transfusao;transfusão;hidrocefalia;baixo perfil;standard;eletrodo;eletrodos;endocárdico;endocardico;epicárdico;epicardico;marcapasso;temporário;temporario;espaçador;espacador;tendão;tendao;filtro;filtros;arterial;venoso;linha arterial;linha venosa;sangue;recirculação;recirculacao;cardioplegia;categute;categutes;sutura;suturas;cirúrgica;cirurgica;fio absorvível;fio absorvivel;hemostático;hemostatico;barreira antiaderente;antiaderente;laminária;laminaria;hemoconcentrador;circulação extracorpórea;circulacao extracorporea;hemodialisador;capilar;marcapasso cardíaco;marcapasso cardiaco;câmara dupla;camara dupla;multiprogramável;multiprogramavel;telemetria;oxigenador;oxigenador de bolha;oxigenador de membrana;bolha;membrana;reservatório;reservatorio;cardiotomia;rim artificial;rins artificiais;shunt;shunt lombo-peritoneal;lombo-peritoneal;lombo peritoneal;pele;substituto de pele;biológica;biologica;sintética;sintetica;tela inorgânica;tela inorganica;tela;malha;válvula;valvula;válvula para hidrocefalia;valvula hidrocefalica;hidrocefalica;ascite;fonte de irídio;fonte de iridio;irídio 192;iridio 192;radioativo;braquiterapia;stent;stent vascular;reprocessador;hemodiálise;hemodialise;implante;implantes;implante osseointegrável;implantes osseointegraveis;osseointegravel;prótese dentária;protese dentaria;prótese;protese;pilar;pilares;parafuso ósseo;parafuso osseo;cardiodesfibrilador;desfibrilador implantável;desfibrilador implantavel;espiral;espiral para embolização;embolização;embolizacao;coil;imunoglobulina;imunoglobulinas;imunoglobulina anti-rh;anti-rh;fator viii;concentrado de fator;hemoderivado;frações do sangue;fracoes do sangue;reagente;reagentes;reagente de diagnóstico;reagente de diagnostico;reagente laboratorial;materiais de referência;materiais de referencia;material de referência;material de referencia;kit diagnóstico;kit diagnostico;somatoliberina;obturacao dentaria;obturação dentária;obturacao;obturação;produto odontológico;produto odontologico;dentário;dentario;gel lubrificante;gel médico;gel medico;lubrificante;agente de ligação;agente de ligacao;bolsa de colostomia;colostomia;ileostomia;urostomia;ostomia;equipamento para ostomia;placa de ostomia;bolsa para hemodiálise;bolsa para hemodialise;bolsa médica;bolsa medica;artigo de laboratório;artigo de laboratorio;análises clínicas;analises clinicas;laboratório clínico;laboratorio clinico;acessório;acessorio;acessórios de plástico;acessorios de plastico;linha de sangue;clamp;obturador;clipe;clipes;luva;luvas;luva cirúrgica;luva cirurgica;luva de procedimento;seringa;seringas;agulha;agulhas;agulha tubular;agulha para sutura;sonda;sondas;cateter;cateteres;cânula;canula;lanceta;lancetas;vacinação;vacinacao;cautério;cauterio;instrumento médico;instrumento medico;instrumento cirúrgico;instrumento cirurgico;aparelho médico;aparelho medico;odontologia;odontológico;odontologico;broca;brocas;broca odontológica;broca odontologica;lima;limas;lima endodôntica;lima endodontica;endodontia;grampo;grampos;clipe cirúrgico;clipe cirurgico;aplicador;extrator;mesa cirúrgica;mesa cirurgica;mesa de operação;mesa de exame;cama hospitalar;leito;fotocoagulador;laser;laser oftalmológico;laser oftalmologico;bisturi elétrico;bisturi eletrico;eletrocautério;eletrocauterio;aparelho de anestesia;monitor multiparâmetros;monitor multiparametros;anestesia;autoclave;esterilização;esterilizacao;retinógrafo;retinografo;meio de cultura;meios de cultura;cultura celular;termociclador;pcr;pipetador;pipetadores;pipeta automática;pipeta automatica;pipetagem;cromatógrafo;cromatografo;cromatógrafo de fase líquida;cromatografo de fase liquida;hplc;cromatografia líquida;cromatografia liquida;sequenciador de adn;sequenciador de dna;eletroforese capilar;aparelho de eletroforese;eletroforese;analisador;analisadores;espectrofotômetro;espectrofotometro;espectrofotometria;fotômetro;fotometro;fotometria;citômetro de fluxo;citometro de fluxo;citometria de fluxo;radiações ópticas;radiacoes opticas;óptico;optico;espectrômetro de massa;espectrometro de massa;espectrometria de massa;analisador laboratorial;diagnóstico;diagnostico;micrótomo;microtomo;histologia;partes e peças;parte de analisador;peca de analisador;preservativo;camisinha;condom;profilático;profilatico;diu;dispositivo intrauterino;conservação de órgãos;conservacao de orgaos;solução de conservação;solucao de conservacao;meio de preservação;meio de preservacao;introdutor;introdutor de punção;introdutor de puncao;enxerto tubular;enxerto ptfe;ptfe;politetrafluoretileno;enxerto arterial;enxerto venoso;botão craniano;botao craniano;botão para crânio;botao para cranio;guia metálico;guia metalico;cateter duplo lumen;duplo lumen;guia de troca;angioplastia;dilatador;dilatador de cateter;introdutor de cateter;introdutor com válvula;introdutor com valvula;introdutor sem válvula;introdutor sem valvula;kit;kit cânula;kit canula;dreno;dreno para sucção;dreno para sucao;sucção;sucao;sistema de drenagem;mediastinal;mediastino;balão intra-aórtico;balao intra-aortico;intra-aórtico;intra-aortico;conjunto descartável;conjunto descartavel;descartável;descartavel</t>
+  </si>
+  <si>
+    <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
   </si>
 </sst>
 </file>
@@ -1135,14 +1141,15 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="89.140625" customWidth="1"/>
   </cols>
@@ -2013,6 +2020,9 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
+      <c r="E42" t="s">
+        <v>234</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>233</v>
       </c>
@@ -2081,6 +2091,9 @@
       </c>
       <c r="D45" t="s">
         <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>235</v>
       </c>
       <c r="G45" t="s">
         <v>61</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E07CF7B-70C5-433A-A0D9-B587E6818615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A620A6-E5C7-4346-967F-5DA0B91D01D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -751,13 +751,13 @@
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
   <si>
-    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;</t>
-  </si>
-  <si>
     <t>drenagem;bolsa;bolsas;sistema;diurese;chapa;chapas;filme;filmes;raio-x;raios-x;rx;cimento;cimentos;reconstituição óssea;reconstituicao ossea;óssea;ossea;ósseo;osseo;substituto;substitutos;enxerto;enxertos;enxerto ósseo;enxerto osseo;coletor;conector;conectores;tampa;polieletrolítico;polieletrolitico;diálise;dialise;concentrado;concentrados;conjunto;conjuntos;troca;autotransfusao;autotransfusão;transfusao;transfusão;hidrocefalia;baixo perfil;standard;eletrodo;eletrodos;endocárdico;endocardico;epicárdico;epicardico;marcapasso;temporário;temporario;espaçador;espacador;tendão;tendao;filtro;filtros;arterial;venoso;linha arterial;linha venosa;sangue;recirculação;recirculacao;cardioplegia;categute;categutes;sutura;suturas;cirúrgica;cirurgica;fio absorvível;fio absorvivel;hemostático;hemostatico;barreira antiaderente;antiaderente;laminária;laminaria;hemoconcentrador;circulação extracorpórea;circulacao extracorporea;hemodialisador;capilar;marcapasso cardíaco;marcapasso cardiaco;câmara dupla;camara dupla;multiprogramável;multiprogramavel;telemetria;oxigenador;oxigenador de bolha;oxigenador de membrana;bolha;membrana;reservatório;reservatorio;cardiotomia;rim artificial;rins artificiais;shunt;shunt lombo-peritoneal;lombo-peritoneal;lombo peritoneal;pele;substituto de pele;biológica;biologica;sintética;sintetica;tela inorgânica;tela inorganica;tela;malha;válvula;valvula;válvula para hidrocefalia;valvula hidrocefalica;hidrocefalica;ascite;fonte de irídio;fonte de iridio;irídio 192;iridio 192;radioativo;braquiterapia;stent;stent vascular;reprocessador;hemodiálise;hemodialise;implante;implantes;implante osseointegrável;implantes osseointegraveis;osseointegravel;prótese dentária;protese dentaria;prótese;protese;pilar;pilares;parafuso ósseo;parafuso osseo;cardiodesfibrilador;desfibrilador implantável;desfibrilador implantavel;espiral;espiral para embolização;embolização;embolizacao;coil;imunoglobulina;imunoglobulinas;imunoglobulina anti-rh;anti-rh;fator viii;concentrado de fator;hemoderivado;frações do sangue;fracoes do sangue;reagente;reagentes;reagente de diagnóstico;reagente de diagnostico;reagente laboratorial;materiais de referência;materiais de referencia;material de referência;material de referencia;kit diagnóstico;kit diagnostico;somatoliberina;obturacao dentaria;obturação dentária;obturacao;obturação;produto odontológico;produto odontologico;dentário;dentario;gel lubrificante;gel médico;gel medico;lubrificante;agente de ligação;agente de ligacao;bolsa de colostomia;colostomia;ileostomia;urostomia;ostomia;equipamento para ostomia;placa de ostomia;bolsa para hemodiálise;bolsa para hemodialise;bolsa médica;bolsa medica;artigo de laboratório;artigo de laboratorio;análises clínicas;analises clinicas;laboratório clínico;laboratorio clinico;acessório;acessorio;acessórios de plástico;acessorios de plastico;linha de sangue;clamp;obturador;clipe;clipes;luva;luvas;luva cirúrgica;luva cirurgica;luva de procedimento;seringa;seringas;agulha;agulhas;agulha tubular;agulha para sutura;sonda;sondas;cateter;cateteres;cânula;canula;lanceta;lancetas;vacinação;vacinacao;cautério;cauterio;instrumento médico;instrumento medico;instrumento cirúrgico;instrumento cirurgico;aparelho médico;aparelho medico;odontologia;odontológico;odontologico;broca;brocas;broca odontológica;broca odontologica;lima;limas;lima endodôntica;lima endodontica;endodontia;grampo;grampos;clipe cirúrgico;clipe cirurgico;aplicador;extrator;mesa cirúrgica;mesa cirurgica;mesa de operação;mesa de exame;cama hospitalar;leito;fotocoagulador;laser;laser oftalmológico;laser oftalmologico;bisturi elétrico;bisturi eletrico;eletrocautério;eletrocauterio;aparelho de anestesia;monitor multiparâmetros;monitor multiparametros;anestesia;autoclave;esterilização;esterilizacao;retinógrafo;retinografo;meio de cultura;meios de cultura;cultura celular;termociclador;pcr;pipetador;pipetadores;pipeta automática;pipeta automatica;pipetagem;cromatógrafo;cromatografo;cromatógrafo de fase líquida;cromatografo de fase liquida;hplc;cromatografia líquida;cromatografia liquida;sequenciador de adn;sequenciador de dna;eletroforese capilar;aparelho de eletroforese;eletroforese;analisador;analisadores;espectrofotômetro;espectrofotometro;espectrofotometria;fotômetro;fotometro;fotometria;citômetro de fluxo;citometro de fluxo;citometria de fluxo;radiações ópticas;radiacoes opticas;óptico;optico;espectrômetro de massa;espectrometro de massa;espectrometria de massa;analisador laboratorial;diagnóstico;diagnostico;micrótomo;microtomo;histologia;partes e peças;parte de analisador;peca de analisador;preservativo;camisinha;condom;profilático;profilatico;diu;dispositivo intrauterino;conservação de órgãos;conservacao de orgaos;solução de conservação;solucao de conservacao;meio de preservação;meio de preservacao;introdutor;introdutor de punção;introdutor de puncao;enxerto tubular;enxerto ptfe;ptfe;politetrafluoretileno;enxerto arterial;enxerto venoso;botão craniano;botao craniano;botão para crânio;botao para cranio;guia metálico;guia metalico;cateter duplo lumen;duplo lumen;guia de troca;angioplastia;dilatador;dilatador de cateter;introdutor de cateter;introdutor com válvula;introdutor com valvula;introdutor sem válvula;introdutor sem valvula;kit;kit cânula;kit canula;dreno;dreno para sucção;dreno para sucao;sucção;sucao;sistema de drenagem;mediastinal;mediastino;balão intra-aórtico;balao intra-aortico;intra-aórtico;intra-aortico;conjunto descartável;conjunto descartavel;descartável;descartavel</t>
   </si>
   <si>
     <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
+  </si>
+  <si>
+    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1141,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -2093,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G45" t="s">
         <v>61</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A620A6-E5C7-4346-967F-5DA0B91D01D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D43912-D91E-4E79-8832-5385D659090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="238">
   <si>
     <t>priority</t>
   </si>
@@ -757,7 +757,13 @@
     <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
   </si>
   <si>
-    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor</t>
+    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica</t>
+  </si>
+  <si>
+    <t>Barra;cadeira de rodas;propulsão;surdos;implante;coclear;cocleares</t>
+  </si>
+  <si>
+    <t>essenciais;</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1147,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,6 +2055,9 @@
       <c r="D43" t="s">
         <v>32</v>
       </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
       <c r="G43" t="s">
         <v>59</v>
       </c>
@@ -2206,6 +2215,9 @@
       </c>
       <c r="E50" t="s">
         <v>229</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
       </c>
       <c r="G50" t="s">
         <v>67</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D43912-D91E-4E79-8832-5385D659090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4931A3-92F9-47AC-AC8C-0122628495E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -757,13 +757,13 @@
     <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
   </si>
   <si>
-    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica</t>
-  </si>
-  <si>
     <t>Barra;cadeira de rodas;propulsão;surdos;implante;coclear;cocleares</t>
   </si>
   <si>
     <t>essenciais;</t>
+  </si>
+  <si>
+    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica;cotovelo</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2030,7 @@
         <v>233</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -2056,7 +2056,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -2217,7 +2217,7 @@
         <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G50" t="s">
         <v>67</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4931A3-92F9-47AC-AC8C-0122628495E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93877A48-05B6-4A99-9122-E9694833E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Fornecimento de tampões higiênicos, absorventes higiênicos internos ou externos, descartáveis ou reutilizáveis, calcinhas absorventes e coletores menstruais, observado o art. 147 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
-    <t>04072;04072100;04072900;0701;07011000;07019000;0702;07020000;0703;070310;0703101;07031011;07031019;0703102;07031021;07031029;070320;07032010;07032090;070390;07039010;07039090;0704;07041000;07042000;07049000;0705;07051;07051100;07051900;07052;07052100;07052900;0706;07061000;07069000;07070000;0708;07081000;07082000;07089000;0709;07092000;07093000;07094000;07095100;07095200;07095300;07095400;07095500;07095600;07095900;07096000;07097000;07099;07099100;07099200;07099300;070999;0709991;07099911;07099919;07099990;0710;07101000;07102;07102100;07102200;07102900;07103000;07104000;07109000;0714;07141000;07142000;07143000;07144000;07145000;07149000;08011;08011100;08011200;08011900;08012;08012100;08012200;08013;08013100;08013200;0803;08031000;08039000;0804;080410;08041010;08041020;080420;08042010;08042020;08043000;08044000;080450;08045010;08045020;08045030;0805;08051000;08052;08052100;08052200;08052900;08054000;08055000;08059000;0806;08061000;08062000;0807;08071;08071100;08071900;08072000;0808;08081000;08083000;08084000;0809;08091000;08092;08092100;08092900;080930;08093010;08093020;08094000;0810;08101000;08102000;08103000;08104000;08105000;08106000;08107000;081090;0810901;08109011;08109012;08109013;08109014;08109015;08109016;08109017;08109090;0811;08111000;08112000;08119000</t>
-  </si>
-  <si>
     <t>Fornecimento dos produtos hortícolas, frutas e ovos, relacionados no Anexo XV da Lei Complementar nº 214 , de 2025, com a especificação das respectivas classificações da NCM/SH e desde que não cozidos, observado o art. 148 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
@@ -745,9 +742,6 @@
     </r>
   </si>
   <si>
-    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;0711;071120;07112010;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900</t>
-  </si>
-  <si>
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
   <si>
@@ -764,6 +758,12 @@
   </si>
   <si>
     <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica;cotovelo</t>
+  </si>
+  <si>
+    <t>04072;04072100;04072900;0701;07011000;07019000;0702;07020000;0703;070310;0703101;07031011;07031019;0703102;07031021;07031029;070320;07032010;07032090;070390;07039010;07039090;0704;07041000;07042000;07049000;0705;07051;07051100;07051900;07052;07052100;07052900;0706;07061000;07069000;07070000;0708;07081000;07082000;07089000;0709;07092000;07093000;07094000;07095100;07095200;07095300;07095400;07095500;07095600;07095900;07096000;07097000;07099;07099100;07099200;07099300;070999;0709991;07099911;07099919;07099990;0710;07101000;07102;07102100;07102200;07102900;07103000;07104000;07109000;0714;07141000;07142000;07143000;07144000;07145000;07149000;08011100;08011200;08011900;08012;08012100;08031000;08039000;0804;080410;08041010;08042010;08042020;08043000;08044000;080450;08045010;08045020;08045030;0805;08051000;08052;08052100;08052200;08052900;08054000;08055000;08059000;0806;08061000;08071100;08071900;08072000;0808;08081000;08083000;08084000;0809;08091000;08092;08092100;08092900;080930;08093010;08093020;08094000;0810;08101000;08102000;08103000;08104000;08105000;08106000;08107000;081090;0810901;08109011;08109012;08109013;08109014;08109015;08109016;08109017;08109090;0811;08111000;08112000;08119000</t>
+  </si>
+  <si>
+    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,10 +1197,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1217,10 +1217,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1237,10 +1237,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1257,10 +1257,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1277,10 +1277,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1297,10 +1297,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1317,10 +1317,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1337,10 +1337,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1357,10 +1357,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1377,10 +1377,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1397,10 +1397,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1678,7 +1678,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -1701,10 +1701,10 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
         <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -1724,7 +1724,7 @@
         <v>200015</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -1744,7 +1744,7 @@
         <v>200016</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -1764,7 +1764,7 @@
         <v>200017</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -1784,7 +1784,7 @@
         <v>200018</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -1804,7 +1804,7 @@
         <v>200019</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -1824,7 +1824,7 @@
         <v>200020</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -1844,7 +1844,7 @@
         <v>200021</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -1864,7 +1864,7 @@
         <v>200022</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -1884,7 +1884,7 @@
         <v>200023</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -1904,7 +1904,7 @@
         <v>200024</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -1924,7 +1924,7 @@
         <v>200025</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37">
         <v>60</v>
@@ -1944,7 +1944,7 @@
         <v>200026</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38">
         <v>80</v>
@@ -1964,7 +1964,7 @@
         <v>200027</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39">
         <v>70</v>
@@ -1984,7 +1984,7 @@
         <v>200028</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40">
         <v>60</v>
@@ -2004,7 +2004,7 @@
         <v>200029</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41">
         <v>60</v>
@@ -2027,13 +2027,13 @@
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42">
         <v>60</v>
@@ -2056,10 +2056,10 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>60</v>
@@ -2079,7 +2079,7 @@
         <v>200032</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44">
         <v>60</v>
@@ -2102,10 +2102,10 @@
         <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45">
         <v>60</v>
@@ -2125,10 +2125,10 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46">
         <v>60</v>
@@ -2148,10 +2148,10 @@
         <v>200035</v>
       </c>
       <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" t="s">
         <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
       </c>
       <c r="H47">
         <v>60</v>
@@ -2171,7 +2171,7 @@
         <v>200036</v>
       </c>
       <c r="G48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48">
         <v>60</v>
@@ -2191,7 +2191,7 @@
         <v>200037</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49">
         <v>60</v>
@@ -2211,16 +2211,16 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50">
         <v>60</v>
@@ -2240,19 +2240,19 @@
         <v>200039</v>
       </c>
       <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
         <v>68</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51">
+        <v>60</v>
+      </c>
+      <c r="I51">
+        <v>60</v>
+      </c>
+      <c r="J51" t="s">
         <v>69</v>
-      </c>
-      <c r="H51">
-        <v>60</v>
-      </c>
-      <c r="I51">
-        <v>60</v>
-      </c>
-      <c r="J51" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>200040</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H52">
         <v>60</v>
@@ -2286,7 +2286,7 @@
         <v>200041</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H53">
         <v>60</v>
@@ -2306,7 +2306,7 @@
         <v>200042</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H54">
         <v>60</v>
@@ -2326,7 +2326,7 @@
         <v>200043</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H55">
         <v>60</v>
@@ -2346,7 +2346,7 @@
         <v>200044</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H56">
         <v>60</v>
@@ -2366,7 +2366,7 @@
         <v>200045</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -2386,7 +2386,7 @@
         <v>200046</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -2406,7 +2406,7 @@
         <v>200047</v>
       </c>
       <c r="G59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -2426,7 +2426,7 @@
         <v>200048</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -2446,7 +2446,7 @@
         <v>200049</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -2466,7 +2466,7 @@
         <v>200050</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62">
         <v>40</v>
@@ -2486,7 +2486,7 @@
         <v>200051</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -2506,7 +2506,7 @@
         <v>200052</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -2526,7 +2526,7 @@
         <v>220001</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>220002</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>220003</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>221001</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>222001</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>400001</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>410001</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>410002</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>410003</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>410004</v>
       </c>
       <c r="G74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>410005</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>410006</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>410007</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>410008</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410009</v>
       </c>
       <c r="G79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>410010</v>
       </c>
       <c r="G80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>410011</v>
       </c>
       <c r="G81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>410012</v>
       </c>
       <c r="G82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>410013</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>410014</v>
       </c>
       <c r="G84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>410015</v>
       </c>
       <c r="G85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>410016</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>410017</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>410018</v>
       </c>
       <c r="G88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>410019</v>
       </c>
       <c r="G89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>410020</v>
       </c>
       <c r="G90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>410021</v>
       </c>
       <c r="G91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>410022</v>
       </c>
       <c r="G92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>410023</v>
       </c>
       <c r="G93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>410024</v>
       </c>
       <c r="G94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>410025</v>
       </c>
       <c r="G95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>410026</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>410999</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>510001</v>
       </c>
       <c r="G98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>515001</v>
       </c>
       <c r="G99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H99">
         <v>60</v>
@@ -3226,7 +3226,7 @@
         <v>550001</v>
       </c>
       <c r="G100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>550002</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>550003</v>
       </c>
       <c r="G102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>550004</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>550005</v>
       </c>
       <c r="G104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>550006</v>
       </c>
       <c r="G105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>550007</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>550008</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>550009</v>
       </c>
       <c r="G108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>550010</v>
       </c>
       <c r="G109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>550011</v>
       </c>
       <c r="G110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>550012</v>
       </c>
       <c r="G111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>550013</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>550014</v>
       </c>
       <c r="G113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>550015</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>550016</v>
       </c>
       <c r="G115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>550017</v>
       </c>
       <c r="G116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>550018</v>
       </c>
       <c r="G117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>550019</v>
       </c>
       <c r="G118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>550020</v>
       </c>
       <c r="G119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>550021</v>
       </c>
       <c r="G120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>620001</v>
       </c>
       <c r="G121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>620002</v>
       </c>
       <c r="G122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>620003</v>
       </c>
       <c r="G123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>620004</v>
       </c>
       <c r="G124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>620005</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>620006</v>
       </c>
       <c r="G126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>800001</v>
       </c>
       <c r="G127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>800002</v>
       </c>
       <c r="G128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>810001</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>811001</v>
       </c>
       <c r="G130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>811002</v>
       </c>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>811003</v>
       </c>
       <c r="G132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>820001</v>
       </c>
       <c r="G133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>820002</v>
       </c>
       <c r="G134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>820003</v>
       </c>
       <c r="G135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>820004</v>
       </c>
       <c r="G136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>820005</v>
       </c>
       <c r="G137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>820006</v>
       </c>
       <c r="G138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>830001</v>
       </c>
       <c r="G139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4032,17 +4032,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4060,114 +4060,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
         <v>173</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
         <v>177</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
         <v>179</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
         <v>181</v>
-      </c>
-      <c r="B12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
         <v>183</v>
-      </c>
-      <c r="B13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
         <v>185</v>
-      </c>
-      <c r="B14" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4185,13 +4185,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4203,15 +4203,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
         <v>191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
       </c>
       <c r="C2">
         <v>49</v>
@@ -4223,7 +4223,7 @@
         <v>200039</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4256,13 +4256,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4273,13 +4273,13 @@
         <v>200043</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
         <v>194</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
       </c>
       <c r="F2">
         <v>98</v>
@@ -4293,13 +4293,13 @@
         <v>200044</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
         <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>195</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -4316,10 +4316,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
         <v>196</v>
-      </c>
-      <c r="E4" t="s">
-        <v>197</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4333,13 +4333,13 @@
         <v>200033</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
         <v>196</v>
-      </c>
-      <c r="E5" t="s">
-        <v>197</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -4356,10 +4356,10 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -4376,10 +4376,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -4393,13 +4393,13 @@
         <v>200031</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -4416,10 +4416,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -4436,10 +4436,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4453,13 +4453,13 @@
         <v>200031</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4480,21 +4480,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2">
         <v>222</v>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>437</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9">
         <v>157</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93877A48-05B6-4A99-9122-E9694833E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC59370D-B650-4742-9574-6A94BBAE3EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Fornecimento ou importação de tratores, máquinas e implementos agrícolas, destinados a produtor rural não contribuinte, e de veículos de transporte de carga destinados a transportador autônomo de carga pessoa física não contribuinte, observado o art. 110 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
-    <t>0201;02011000;020120;02012010;02012020;02012090;02013000;0202;02021000;020220;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;0302;03021100;03021300;03021400;03021900;03022;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;030291;03029110;03029190;03029200;03029900;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044200;03044300;03044400;03044500;03044600;03044700;03044800;030449;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047100;03047200;03047300;03047400;03047500;03047900;03048100;03048200;03048300;03048400;030485;03048510;03048520;03048600;03048700;030488;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
-  </si>
-  <si>
     <t>Vendas de produtos destinados à alimentação humana relacionados no Anexo I da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NCM/SH, que compõem a Cesta Básica Nacional de Alimentos, criada nos termos do art. 8º da Emenda Constitucional nº 132, de 20 de dezembro de 2023, observado o art. 125 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
@@ -764,6 +761,9 @@
   </si>
   <si>
     <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
+  </si>
+  <si>
+    <t>0201;02011000;020120;02012010;02012020;02012090;02013000;0202;02021000;020220;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;0302;03021100;03021300;03021400;03021900;03022;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;030291;03029110;03029190;03029200;03029900;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044200;03044300;03044400;03044500;03044600;03044700;03044800;030449;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047100;03047200;03047300;03047400;03047500;03047900;03048300;03048400;030485;03048510;03048520;03048600;03048700;030488;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,10 +1197,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1217,10 +1217,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1237,10 +1237,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1257,10 +1257,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1277,10 +1277,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1297,10 +1297,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1317,10 +1317,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1337,10 +1337,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1357,10 +1357,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1377,10 +1377,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1397,10 +1397,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1463,10 +1463,10 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" t="s">
         <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -1486,10 +1486,10 @@
         <v>200004</v>
       </c>
       <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
         <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -1509,7 +1509,7 @@
         <v>200005</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -1529,7 +1529,7 @@
         <v>200006</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1549,10 +1549,10 @@
         <v>200007</v>
       </c>
       <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -1572,7 +1572,7 @@
         <v>200008</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -1592,10 +1592,10 @@
         <v>200009</v>
       </c>
       <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -1615,7 +1615,7 @@
         <v>200010</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1635,7 +1635,7 @@
         <v>200011</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -1655,7 +1655,7 @@
         <v>200012</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -1678,10 +1678,10 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1701,10 +1701,10 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -1724,7 +1724,7 @@
         <v>200015</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -1744,7 +1744,7 @@
         <v>200016</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -1764,7 +1764,7 @@
         <v>200017</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -1784,7 +1784,7 @@
         <v>200018</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -1804,7 +1804,7 @@
         <v>200019</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -1824,7 +1824,7 @@
         <v>200020</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -1844,7 +1844,7 @@
         <v>200021</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -1864,7 +1864,7 @@
         <v>200022</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -1884,7 +1884,7 @@
         <v>200023</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -1904,7 +1904,7 @@
         <v>200024</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -1924,7 +1924,7 @@
         <v>200025</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37">
         <v>60</v>
@@ -1944,7 +1944,7 @@
         <v>200026</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38">
         <v>80</v>
@@ -1964,7 +1964,7 @@
         <v>200027</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39">
         <v>70</v>
@@ -1984,7 +1984,7 @@
         <v>200028</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H40">
         <v>60</v>
@@ -2004,7 +2004,7 @@
         <v>200029</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41">
         <v>60</v>
@@ -2024,16 +2024,16 @@
         <v>200030</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H42">
         <v>60</v>
@@ -2053,13 +2053,13 @@
         <v>200031</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43">
         <v>60</v>
@@ -2079,7 +2079,7 @@
         <v>200032</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H44">
         <v>60</v>
@@ -2099,13 +2099,13 @@
         <v>200033</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45">
         <v>60</v>
@@ -2125,10 +2125,10 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46">
         <v>60</v>
@@ -2148,10 +2148,10 @@
         <v>200035</v>
       </c>
       <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
         <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
       </c>
       <c r="H47">
         <v>60</v>
@@ -2171,7 +2171,7 @@
         <v>200036</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48">
         <v>60</v>
@@ -2191,7 +2191,7 @@
         <v>200037</v>
       </c>
       <c r="G49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49">
         <v>60</v>
@@ -2211,16 +2211,16 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50">
         <v>60</v>
@@ -2240,10 +2240,10 @@
         <v>200039</v>
       </c>
       <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" t="s">
         <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
       </c>
       <c r="H51">
         <v>60</v>
@@ -2252,7 +2252,7 @@
         <v>60</v>
       </c>
       <c r="J51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>200040</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H52">
         <v>60</v>
@@ -2286,7 +2286,7 @@
         <v>200041</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H53">
         <v>60</v>
@@ -2306,7 +2306,7 @@
         <v>200042</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>60</v>
@@ -2326,7 +2326,7 @@
         <v>200043</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55">
         <v>60</v>
@@ -2346,7 +2346,7 @@
         <v>200044</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56">
         <v>60</v>
@@ -2366,7 +2366,7 @@
         <v>200045</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -2386,7 +2386,7 @@
         <v>200046</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -2406,7 +2406,7 @@
         <v>200047</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -2426,7 +2426,7 @@
         <v>200048</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -2446,7 +2446,7 @@
         <v>200049</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -2466,7 +2466,7 @@
         <v>200050</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H62">
         <v>40</v>
@@ -2486,7 +2486,7 @@
         <v>200051</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -2506,7 +2506,7 @@
         <v>200052</v>
       </c>
       <c r="G64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -2526,7 +2526,7 @@
         <v>220001</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>220002</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>220003</v>
       </c>
       <c r="G67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>221001</v>
       </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>222001</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>400001</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>410001</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>410002</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>410003</v>
       </c>
       <c r="G73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>410004</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>410005</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>410006</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>410007</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>410008</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410009</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>410010</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>410011</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>410012</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>410013</v>
       </c>
       <c r="G83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>410014</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>410015</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>410016</v>
       </c>
       <c r="G86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>410017</v>
       </c>
       <c r="G87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>410018</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>410019</v>
       </c>
       <c r="G89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>410020</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>410021</v>
       </c>
       <c r="G91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>410022</v>
       </c>
       <c r="G92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>410023</v>
       </c>
       <c r="G93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>410024</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>410025</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>410026</v>
       </c>
       <c r="G96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>410999</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>510001</v>
       </c>
       <c r="G98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>515001</v>
       </c>
       <c r="G99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99">
         <v>60</v>
@@ -3226,7 +3226,7 @@
         <v>550001</v>
       </c>
       <c r="G100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>550002</v>
       </c>
       <c r="G101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>550003</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>550004</v>
       </c>
       <c r="G103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>550005</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>550006</v>
       </c>
       <c r="G105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>550007</v>
       </c>
       <c r="G106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>550008</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>550009</v>
       </c>
       <c r="G108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>550010</v>
       </c>
       <c r="G109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>550011</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>550012</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>550013</v>
       </c>
       <c r="G112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>550014</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>550015</v>
       </c>
       <c r="G114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>550016</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>550017</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>550018</v>
       </c>
       <c r="G117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>550019</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>550020</v>
       </c>
       <c r="G119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>550021</v>
       </c>
       <c r="G120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>620001</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>620002</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>620003</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>620004</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>620005</v>
       </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>620006</v>
       </c>
       <c r="G126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>800001</v>
       </c>
       <c r="G127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>800002</v>
       </c>
       <c r="G128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>810001</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>811001</v>
       </c>
       <c r="G130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>811002</v>
       </c>
       <c r="G131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>811003</v>
       </c>
       <c r="G132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>820001</v>
       </c>
       <c r="G133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>820002</v>
       </c>
       <c r="G134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>820003</v>
       </c>
       <c r="G135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>820004</v>
       </c>
       <c r="G136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>820005</v>
       </c>
       <c r="G137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>820006</v>
       </c>
       <c r="G138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>830001</v>
       </c>
       <c r="G139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4032,17 +4032,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4060,114 +4060,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
         <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
         <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
         <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
         <v>172</v>
-      </c>
-      <c r="B8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
         <v>174</v>
-      </c>
-      <c r="B9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
         <v>176</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
         <v>178</v>
-      </c>
-      <c r="B11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
         <v>180</v>
-      </c>
-      <c r="B12" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
         <v>182</v>
-      </c>
-      <c r="B13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
         <v>184</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4185,13 +4185,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4203,15 +4203,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
       </c>
       <c r="C2">
         <v>49</v>
@@ -4223,7 +4223,7 @@
         <v>200039</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4256,13 +4256,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4273,13 +4273,13 @@
         <v>200043</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" t="s">
-        <v>194</v>
       </c>
       <c r="F2">
         <v>98</v>
@@ -4293,13 +4293,13 @@
         <v>200044</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
         <v>193</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -4313,13 +4313,13 @@
         <v>200011</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
         <v>195</v>
-      </c>
-      <c r="E4" t="s">
-        <v>196</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4333,13 +4333,13 @@
         <v>200033</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
         <v>195</v>
-      </c>
-      <c r="E5" t="s">
-        <v>196</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -4353,13 +4353,13 @@
         <v>200007</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -4373,13 +4373,13 @@
         <v>200008</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -4393,13 +4393,13 @@
         <v>200031</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -4413,13 +4413,13 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -4433,13 +4433,13 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4453,13 +4453,13 @@
         <v>200031</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4480,21 +4480,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>222</v>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8">
         <v>437</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9">
         <v>157</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC59370D-B650-4742-9574-6A94BBAE3EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BFFB7-9A7A-4263-8AB0-6521F3E5DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
     <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
   </si>
   <si>
-    <t>0201;02011000;020120;02012010;02012020;02012090;02013000;0202;02021000;020220;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;0302;03021100;03021300;03021400;03021900;03022;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;030291;03029110;03029190;03029200;03029900;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044200;03044300;03044400;03044500;03044600;03044700;03044800;030449;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047100;03047200;03047300;03047400;03047500;03047900;03048300;03048400;030485;03048510;03048520;03048600;03048700;030488;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
+    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;0302;03021100;03021300;03021400;03021900;03022;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;030291;03029110;03029190;03029200;03029900;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044200;03044300;03044400;03044500;03044600;03044700;03044800;030449;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047100;03047200;03047300;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048700;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
   </si>
 </sst>
 </file>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84BFFB7-9A7A-4263-8AB0-6521F3E5DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD67D83-9E7F-4DBA-AB0F-1E05513484CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="239">
   <si>
     <t>priority</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;0302;03021100;03021300;03021400;03021900;03022;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;030291;03029110;03029190;03029200;03029900;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044200;03044300;03044400;03044500;03044600;03044700;03044800;030449;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047100;03047200;03047300;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048700;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
+  </si>
+  <si>
+    <t>Salmão; salmao; salmonideos</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1150,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1467,9 @@
       </c>
       <c r="D15" t="s">
         <v>237</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD67D83-9E7F-4DBA-AB0F-1E05513484CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE88450-7EBB-4447-8173-A8008DA8B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,10 +763,10 @@
     <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
   </si>
   <si>
-    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;0302;03021100;03021300;03021400;03021900;03022;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;030291;03029110;03029190;03029200;03029900;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044200;03044300;03044400;03044500;03044600;03044700;03044800;030449;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047100;03047200;03047300;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048700;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
-  </si>
-  <si>
-    <t>Salmão; salmao; salmonideos</t>
+    <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
+  </si>
+  <si>
+    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,10 +1466,10 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" t="s">
         <v>237</v>
-      </c>
-      <c r="F15" t="s">
-        <v>238</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE88450-7EBB-4447-8173-A8008DA8B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0FE8C-B277-451E-A8A4-9E9A65093148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0FE8C-B277-451E-A8A4-9E9A65093148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167B118-EB3A-4D4D-9717-DB5B34AF9F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
   <si>
     <t>priority</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
+  </si>
+  <si>
+    <t>19012010[pao;pão;frânces];19012010[pao;pão;frânces];19059090[pão;pao;frânces]</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1153,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +1470,9 @@
       </c>
       <c r="D15" t="s">
         <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
       </c>
       <c r="F15" t="s">
         <v>237</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167B118-EB3A-4D4D-9717-DB5B34AF9F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F092F7B-46B4-4699-8E58-37592E9DFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,8 +723,41 @@
     <t>Biofertilizante; Biofertilizantes; Biofertilizante líquido; Biofertilizante liquido; Biofertilizante sólido; Biofertilizante solido; Biofertilizante organomineral; Biofertilizante organo mineral; Biofertilizante foliar; Biofertilizante para solo; Biofertilizante para pastagem; Adubo biológico; Adubo biologico; Fertilizante biológico; Fertilizante biologico; Inoculante biofertilizante; Fertilizante; Fertilizantes; Adubo; Adubos; Adubo químico; Adubo quimico; Adubo mineral; Fertilizante mineral; Fertilizante organomineral; Fertilizante organico; Adubo organomineral; Adubo organico; NPK; Adubo NPK; NPK 04-14-08; NPK 04-30-10; NPK 20-00-20; Ureia; Ureia agricola; Nitrato de amônio; Nitrato de amonio; Nitrato de cálcio; Nitrato de calcio; Superfosfato simples; Superfosfato triplo; MAP; DAP; Cloreto de potássio; Cloreto de potassio; KCl; Sulfato de amônio; Sulfato de amonio; Fosfato monoamônico; Fosfato monoamonico; Fosfato diamônico; Fosfato diamonico; Micronutrientes agrícolas; Mistura de fertilizantes; Formulação de adubo; Corretivo de solo; Corretivos de solo; Condicionador de solo; Condicionadores de solo; Remineralizador de solo; Remineralizadores de solo; Substrato para plantas; Substratos para plantas; Substrato agrícola; Substrato hortícola; Calcário agrícola; Calcario agricola; Calcário dolomítico; Calcario dolomitico; Calcário calcítico; Calcario calcitico; Gesso agrícola; Gesso agricola; Fosfato natural reativo; Enxofre agrícola; Enxofre agricola; Rocha moída; Rocha moida; Pó de rocha; Turfa; Condicionador orgânico de solo; Condicionador organico de solo; Inoculante; Inoculantes; Inoculante para soja; Inoculante para feijão; Inoculante para milho; Inoculante para pastagem; Inoculante rizobiano; Rizóbio; Rizobio; Rhizobium; Bradyrhizobium; Azospirillum; Microrganismos para uso agrícola; Microorganismos para uso agricola; Meios de cultura; Meio de cultura; Bactérias benéficas; Bacterias beneficas; Fungos benéficos; Fungos beneficos; Bioprotetor; Bioinsumo microbiano; Bioestimulante; Bioestimulantes; Bioestimulante agrícola; Bioestimulante agricola; Bioinsumo; Bioinsumos; Bioinsumo para controle fitossanitário; Bioinsumo para controle fitossanitario; Extrato de algas; Extrato de algas marinhas; Extrato vegetal; Aminoácidos para plantas; Aminoacidos para plantas; Hormônio vegetal; Hormônio de crescimento vegetal; Regulador de crescimento vegetal; Estimulante de enraizamento; Enraizador; Indutor de resistência; Indutor de resistencia; Biodefensivo; Biodefensivos; Agente biológico de controle; Agente biologico de controle; Inseticida biológico; Inseticida biologico; Fungicida biológico; Fungicida biologico; Nematicida biológico; Nematicida biologico; Bactericida biológico; Bactericida biologico; Feromônios para controle de pragas; Feromonios para controle de pragas; Defensivo agrícola; Defensivo agricola; Defensivos agrícolas; Defensivos agricolas; Inseticida; Inseticidas; Fungicida; Fungicidas; Herbicida; Herbicidas; Formicida; Formicidas; Parasiticida; Parasiticidas; Germicida; Germicidas; Acaricida; Acaricidas; Nematicida; Nematicidas; Raticida; Raticidas; Desfolhante; Desfolhantes; Dessecante; Dessecantes; Espalhante adesivo; Espalhante-adesivo; Espalhante; Aderente agrícola; Estimulador de crescimento; Inibidor de crescimento; Regulador de crescimento; Reguladores de crescimento; Produto fitossanitário; Produto fitossanitario; Agrotóxico; Agrotoxico; Pesticida; Pesticidas; Calcário; Calcario; Calcário agrícola; Calcario agricola; Casca de coco triturada; Casca de coco moída; Casca de coco moida; Fibra de coco; Fibras de coco; Turfa agrícola; Turfa agricola; Torta vegetal; Tortas vegetais; Torta de mamona; Torta de algodão; Torta de algodao; Bagaços vegetais; Bagaço de cana; Bagaco de cana; Bagaço de frutas; Resíduos vegetais; Residuos vegetais; Resíduos agroindustriais orgânicos; Residuos agroindustriais organicos; Serragem; Serragens; Serragem de madeira; Resíduos de madeira; Residuos de madeira; Casca de arroz; Cascas de arroz; Cascas de café; Cascas de cafe; Borra de carnaúba; Borra de carnauba; Ossos moídos; Ossos moidos; Farinha de osso; Cinzas vegetais; Cinza vegetal; Resíduos da indústria de celulose; Residuos da industria de celulose; Dregs; Grits; Vermiculita; Vermiculita expandida; Argila expandida; Argilas expandidas; Palha de arroz; Palhas de cereais; Casca de grãos; Casca de graos; Casca de produtos vegetais; Fibras vegetais; Silicatos de potássio; Silicatos de potassio; Silicato de magnésio; Silicato de magnesio; Resinas naturais; Oleorresinas naturais; Suco vegetal concentrado; Extrato vegetal concentrado; Aminoácidos; Aminoacidos; Microrganismos mortos; Microorganismos mortos; Óleos essenciais; Oleos essenciais; Argila; Argilas; Terras minerais; Carvão vegetal; Carvao vegetal; Pastas mecânicas de madeira; Pasta mecânica de madeira; Pasta mecanica de madeira; Ácido nítrico; Acido nitrico; Ácido sulfúrico; Acido sulfurico; Ácido fosfórico; Acido fosforico; Ácido clorídrico; Acido cloridrico; Ácido fosforoso; Acido fosforoso; Ácido acético; Acido acetico; Hidróxido de sódio; Hidroxido de sodio; Soda cáustica; Soda caustica; Carbonato dissódico; Carbonato dissodico; Carbonato de sódio; Carbonato de sodio; Ácidos para fertilizantes; Acidos para fertilizantes; Reagentes para fabricação de fertilizantes; Enzimas preparadas para decomposição de matéria orgânica; Enzimas para decomposicao de materia organica; Enzimas para compostagem; Enzimas para esterco; Enzimas para resíduos vegetais; Enzimas para residuos vegetais; Enzimas agrícolas; Enzimas agricolas; Semente genética; Semente genetica; Semente básica; Semente basica; Semente nativa in natura; Semente certificada C1; Semente certificada C2; Semente não certificada S1; Semente nao certificada S1; Semente não certificada S2; Semente nao certificada S2; Semente de cultivar local; Semente crioula; Semente tradicional; Sementes de milho; Sementes de soja; Sementes de trigo; Sementes de arroz; Sementes de feijão; Sementes de feijao; Sementes de pastagem; Sementes forrageiras; Sementes de sorgo; Sementes de girassol; Mudas de plantas; Muda de planta; Mudas de hortaliças; Mudas de hortaliças; Mudas de árvores frutíferas; Mudas de arvores frutiferas; Muda de eucalipto; Muda de pinus; Mudas florestais; Material propagativo de plantas; Material propagativo de fungos; Micélio de fungos; Micelio de fungos; Inóculo de fungos; Inoculo de fungos; Vacina veterinária; Vacina veterinaria; Vacinas veterinárias; Soros veterinários; Medicamentos veterinários; Medicamentos veterinarios; Vacina para bovinos; Vacina para suínos; Vacina para suinos; Vacina para aves de corte; Vacina para aves de postura; Vacina para ovinos; Vacina para caprinos; Soro hiperimune; Fármaco veterinário injetável; Farmaco veterinario injetavel; Aves de um dia; Pintos de um dia; Pintainhos; Pintos de corte; Pintos de postura; Pintos de frango; Frangos de um dia; Aves recém-nascidas; Aves recem nascidas; Embriões congelados; Embrioes congelados; Embrião bovino; Embriao bovino; Embrião suíno; Embriao suino; Sêmen congelado; Semen congelado; Sêmen bovino; Semen bovino; Sêmen suíno; Semen suino; Sêmen ovino; Semen ovino; Reprodutor de raça pura; Reprodutores de raça pura; Touros de raça pura; Matrizes puras; Matrizes de animais puros de origem; Animais com registro genealógico; Animais com registro genealogico; Ovos fertilizados; Ovo fertilizado; Ovos férteis; Ovos férteis para incubação; Ovos fertis para incubacao; Girinos; Alevinos; Alevinos de peixe; Alevinos de tilápia; Alevinos de tilapia; Alevinos de tambaqui; Alevinos de pacu; Ração para animais; Racao para animais; Rações para bovinos; Racoes para bovinos; Ração para suínos; Racao para suinos; Ração para aves; Racao para aves; Ração para peixes; Racao para peixes; Ração para ovinos; Ração para caprinos; Concentrado para animais; Concentrado proteico; Suplemento mineral; Suplemento vitamínico mineral; Suplemento vitaminico mineral; Núcleo para ração; Nucleo para racao; Premix para ração; Premix para racao; Aditivos para ração; Aditivos para racao; Melhorador de desempenho animal; Sementes para ração animal; Sementes para racao animal; Cereais para alimentação animal; Cereais para alimentacao animal; Milho moído para ração; Milho moido para racao; Milho em grão para ração; Milho em grao para racao; Trigo para ração; Sorgo para ração; Sorgo para racao; Farelo de soja; Farelo de trigo; Farelo de algodão; Farelo de algodao; Farelo de arroz; Farelo de milho; Farelos vegetais; Tortas de oleaginosas; Torta de soja; Torta de algodão; Bagaço de malte; Bagaço de cervejaria; Resíduos de usina de açúcar e álcool; Residuos de usina de acucar e alcool; Resíduos de indústria alimentícia; Residuos de industria alimenticia; Alho em pó; Alho em po; Sal mineralizado; Sal mineral; Sal proteinado; Farinha de peixe; Farinhas de peixe; Farinha de ostra; Farinha de carne; Farinha de osso; Farinha de penas; Farinha de pena; Farinha de sangue; Farinha de vísceras; Farinha de visceras; Calcário calcítico; Calcario calcitico; Gorduras animais; Óleos animais; Oleos animais; Resíduos de óleo vegetal; Residuos de oleo vegetal; Óleo residual de fritura; Oleo residual de fritura; DL-Metionina; DL Metionina; DL-Metionina análogos; DL Metionina analogos; Serviços agronômicos; Servicos agronomicos; Consultoria agronômica; Consultoria agronomica; Assistência técnica agrícola; Assistencia tecnica agricola; Assistência agronômica; Assistencia agronomica; Elaboração de projetos agrícolas; Elaboracao de projetos agricolas; Serviços de técnico agrícola; Serviços de tecnico agricola; Serviços agropecuários; Servicos agropecuarios; Serviços em agroecologia; Servicos em agroecologia; Consultoria em agroecologia; Serviços veterinários para produção animal; Servicos veterinarios para producao animal; Atendimento veterinário em fazenda; Atendimento veterinario em fazenda; Exames clínicos de rebanho; Exames clinicos de rebanho; Manejo sanitário; Manejo sanitario; Serviços de zootecnista; Servicos de zootecnista; Consultoria em zootecnia; Planejamento nutricional animal; Planejamento de lotação; Serviços de inseminação artificial; Servicos de inseminacao artificial; Inseminação de bovinos; Inseminacao de bovinos; Fertilização de animais de criação; Fertilizacao de animais de criacao; Transferência de embriões; Transferencia de embrioes; Serviços de engenharia florestal; Servicos de engenharia florestal; Projetos florestais; Inventário florestal; Inventario florestal; Manejo florestal; Serviços de pulverização; Servicos de pulverizacao; Pulverização aérea; Pulverizacao aerea; Pulverização costal; Pulverizacao costal; Controle de pragas; Controle fitossanitário; Controle fitossanitario; Serviços de semeadura; Servicos de semeadura; Serviços de adubação; Servicos de adubacao; Mistura de adubos; Reparação de solo; Reparacao de solo; Plantio mecanizado; Plantio manual; Colheita mecanizada; Colheita manual; Serviços de projetos para irrigação; Servicos de projetos para irrigacao; Projeto de irrigação; Projeto de irrigacao; Projeto de fertirrigação; Projeto de fertirrigacao; Serviços de análise de solo; Servicos de analise de solo; Análise laboratorial de sementes; Analise laboratorial de sementes; Análise de água de produção; Analise de agua de producao; Análise bromatológica; Analise bromatologica; Análise de sanidade animal; Analise de sanidade animal; Licenciamento de direitos sobre cultivares; Cessão de direitos sobre cultivares; Cessao de direitos sobre cultivares; Royalties de cultivares; Melhoramento genético de animais; Melhoramento genetico de animais; Melhoramento genético de plantas; Melhoramento genetico de plantas; Serviços de biotecnologia agrícola; Servicos de biotecnologia agricola; Vinhaça; Vinhaca; Vinhaça de cana; Vinhaca de cana; Resíduo líquido de destilaria; Residuo liquido de destilaria; Subproduto de usina de etanol; Subproduto de usina de açucar e álcool; Subproduto de usina de acucar e alcool</t>
   </si>
   <si>
+    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
+  </si>
+  <si>
+    <t>drenagem;bolsa;bolsas;sistema;diurese;chapa;chapas;filme;filmes;raio-x;raios-x;rx;cimento;cimentos;reconstituição óssea;reconstituicao ossea;óssea;ossea;ósseo;osseo;substituto;substitutos;enxerto;enxertos;enxerto ósseo;enxerto osseo;coletor;conector;conectores;tampa;polieletrolítico;polieletrolitico;diálise;dialise;concentrado;concentrados;conjunto;conjuntos;troca;autotransfusao;autotransfusão;transfusao;transfusão;hidrocefalia;baixo perfil;standard;eletrodo;eletrodos;endocárdico;endocardico;epicárdico;epicardico;marcapasso;temporário;temporario;espaçador;espacador;tendão;tendao;filtro;filtros;arterial;venoso;linha arterial;linha venosa;sangue;recirculação;recirculacao;cardioplegia;categute;categutes;sutura;suturas;cirúrgica;cirurgica;fio absorvível;fio absorvivel;hemostático;hemostatico;barreira antiaderente;antiaderente;laminária;laminaria;hemoconcentrador;circulação extracorpórea;circulacao extracorporea;hemodialisador;capilar;marcapasso cardíaco;marcapasso cardiaco;câmara dupla;camara dupla;multiprogramável;multiprogramavel;telemetria;oxigenador;oxigenador de bolha;oxigenador de membrana;bolha;membrana;reservatório;reservatorio;cardiotomia;rim artificial;rins artificiais;shunt;shunt lombo-peritoneal;lombo-peritoneal;lombo peritoneal;pele;substituto de pele;biológica;biologica;sintética;sintetica;tela inorgânica;tela inorganica;tela;malha;válvula;valvula;válvula para hidrocefalia;valvula hidrocefalica;hidrocefalica;ascite;fonte de irídio;fonte de iridio;irídio 192;iridio 192;radioativo;braquiterapia;stent;stent vascular;reprocessador;hemodiálise;hemodialise;implante;implantes;implante osseointegrável;implantes osseointegraveis;osseointegravel;prótese dentária;protese dentaria;prótese;protese;pilar;pilares;parafuso ósseo;parafuso osseo;cardiodesfibrilador;desfibrilador implantável;desfibrilador implantavel;espiral;espiral para embolização;embolização;embolizacao;coil;imunoglobulina;imunoglobulinas;imunoglobulina anti-rh;anti-rh;fator viii;concentrado de fator;hemoderivado;frações do sangue;fracoes do sangue;reagente;reagentes;reagente de diagnóstico;reagente de diagnostico;reagente laboratorial;materiais de referência;materiais de referencia;material de referência;material de referencia;kit diagnóstico;kit diagnostico;somatoliberina;obturacao dentaria;obturação dentária;obturacao;obturação;produto odontológico;produto odontologico;dentário;dentario;gel lubrificante;gel médico;gel medico;lubrificante;agente de ligação;agente de ligacao;bolsa de colostomia;colostomia;ileostomia;urostomia;ostomia;equipamento para ostomia;placa de ostomia;bolsa para hemodiálise;bolsa para hemodialise;bolsa médica;bolsa medica;artigo de laboratório;artigo de laboratorio;análises clínicas;analises clinicas;laboratório clínico;laboratorio clinico;acessório;acessorio;acessórios de plástico;acessorios de plastico;linha de sangue;clamp;obturador;clipe;clipes;luva;luvas;luva cirúrgica;luva cirurgica;luva de procedimento;seringa;seringas;agulha;agulhas;agulha tubular;agulha para sutura;sonda;sondas;cateter;cateteres;cânula;canula;lanceta;lancetas;vacinação;vacinacao;cautério;cauterio;instrumento médico;instrumento medico;instrumento cirúrgico;instrumento cirurgico;aparelho médico;aparelho medico;odontologia;odontológico;odontologico;broca;brocas;broca odontológica;broca odontologica;lima;limas;lima endodôntica;lima endodontica;endodontia;grampo;grampos;clipe cirúrgico;clipe cirurgico;aplicador;extrator;mesa cirúrgica;mesa cirurgica;mesa de operação;mesa de exame;cama hospitalar;leito;fotocoagulador;laser;laser oftalmológico;laser oftalmologico;bisturi elétrico;bisturi eletrico;eletrocautério;eletrocauterio;aparelho de anestesia;monitor multiparâmetros;monitor multiparametros;anestesia;autoclave;esterilização;esterilizacao;retinógrafo;retinografo;meio de cultura;meios de cultura;cultura celular;termociclador;pcr;pipetador;pipetadores;pipeta automática;pipeta automatica;pipetagem;cromatógrafo;cromatografo;cromatógrafo de fase líquida;cromatografo de fase liquida;hplc;cromatografia líquida;cromatografia liquida;sequenciador de adn;sequenciador de dna;eletroforese capilar;aparelho de eletroforese;eletroforese;analisador;analisadores;espectrofotômetro;espectrofotometro;espectrofotometria;fotômetro;fotometro;fotometria;citômetro de fluxo;citometro de fluxo;citometria de fluxo;radiações ópticas;radiacoes opticas;óptico;optico;espectrômetro de massa;espectrometro de massa;espectrometria de massa;analisador laboratorial;diagnóstico;diagnostico;micrótomo;microtomo;histologia;partes e peças;parte de analisador;peca de analisador;preservativo;camisinha;condom;profilático;profilatico;diu;dispositivo intrauterino;conservação de órgãos;conservacao de orgaos;solução de conservação;solucao de conservacao;meio de preservação;meio de preservacao;introdutor;introdutor de punção;introdutor de puncao;enxerto tubular;enxerto ptfe;ptfe;politetrafluoretileno;enxerto arterial;enxerto venoso;botão craniano;botao craniano;botão para crânio;botao para cranio;guia metálico;guia metalico;cateter duplo lumen;duplo lumen;guia de troca;angioplastia;dilatador;dilatador de cateter;introdutor de cateter;introdutor com válvula;introdutor com valvula;introdutor sem válvula;introdutor sem valvula;kit;kit cânula;kit canula;dreno;dreno para sucção;dreno para sucao;sucção;sucao;sistema de drenagem;mediastinal;mediastino;balão intra-aórtico;balao intra-aortico;intra-aórtico;intra-aortico;conjunto descartável;conjunto descartavel;descartável;descartavel</t>
+  </si>
+  <si>
+    <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
+  </si>
+  <si>
+    <t>Barra;cadeira de rodas;propulsão;surdos;implante;coclear;cocleares</t>
+  </si>
+  <si>
+    <t>essenciais;</t>
+  </si>
+  <si>
+    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica;cotovelo</t>
+  </si>
+  <si>
+    <t>04072;04072100;04072900;0701;07011000;07019000;0702;07020000;0703;070310;0703101;07031011;07031019;0703102;07031021;07031029;070320;07032010;07032090;070390;07039010;07039090;0704;07041000;07042000;07049000;0705;07051;07051100;07051900;07052;07052100;07052900;0706;07061000;07069000;07070000;0708;07081000;07082000;07089000;0709;07092000;07093000;07094000;07095100;07095200;07095300;07095400;07095500;07095600;07095900;07096000;07097000;07099;07099100;07099200;07099300;070999;0709991;07099911;07099919;07099990;0710;07101000;07102;07102100;07102200;07102900;07103000;07104000;07109000;0714;07141000;07142000;07143000;07144000;07145000;07149000;08011100;08011200;08011900;08012;08012100;08031000;08039000;0804;080410;08041010;08042010;08042020;08043000;08044000;080450;08045010;08045020;08045030;0805;08051000;08052;08052100;08052200;08052900;08054000;08055000;08059000;0806;08061000;08071100;08071900;08072000;0808;08081000;08083000;08084000;0809;08091000;08092;08092100;08092900;080930;08093010;08093020;08094000;0810;08101000;08102000;08103000;08104000;08105000;08106000;08107000;081090;0810901;08109011;08109012;08109013;08109014;08109015;08109016;08109017;08109090;0811;08111000;08112000;08119000</t>
+  </si>
+  <si>
+    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
+  </si>
+  <si>
+    <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
+  </si>
+  <si>
+    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
+  </si>
+  <si>
+    <t>19012010[pao;pão;frânces];19012090[pao;pão;frânces];19059090[pão;pao;frânces];11029000[aveia];11041200[aveia];11042200[aveia];11062000[farinha;mandioca];21069090[infantil];25010020[sal];25010090[sal]</t>
+  </si>
+  <si>
     <r>
-      <t>abs; absorvente; tampao; tampoes; coletores; menstural; menstruais; interno; protetor; diario</t>
+      <t>96190000[abs;absorvente;tampao;tampoes;coletores;menstural;menstruais;interno;protetor;diario;</t>
     </r>
     <r>
       <rPr>
@@ -735,41 +768,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>; intimo</t>
+      <t>intimo]</t>
     </r>
-  </si>
-  <si>
-    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
-  </si>
-  <si>
-    <t>drenagem;bolsa;bolsas;sistema;diurese;chapa;chapas;filme;filmes;raio-x;raios-x;rx;cimento;cimentos;reconstituição óssea;reconstituicao ossea;óssea;ossea;ósseo;osseo;substituto;substitutos;enxerto;enxertos;enxerto ósseo;enxerto osseo;coletor;conector;conectores;tampa;polieletrolítico;polieletrolitico;diálise;dialise;concentrado;concentrados;conjunto;conjuntos;troca;autotransfusao;autotransfusão;transfusao;transfusão;hidrocefalia;baixo perfil;standard;eletrodo;eletrodos;endocárdico;endocardico;epicárdico;epicardico;marcapasso;temporário;temporario;espaçador;espacador;tendão;tendao;filtro;filtros;arterial;venoso;linha arterial;linha venosa;sangue;recirculação;recirculacao;cardioplegia;categute;categutes;sutura;suturas;cirúrgica;cirurgica;fio absorvível;fio absorvivel;hemostático;hemostatico;barreira antiaderente;antiaderente;laminária;laminaria;hemoconcentrador;circulação extracorpórea;circulacao extracorporea;hemodialisador;capilar;marcapasso cardíaco;marcapasso cardiaco;câmara dupla;camara dupla;multiprogramável;multiprogramavel;telemetria;oxigenador;oxigenador de bolha;oxigenador de membrana;bolha;membrana;reservatório;reservatorio;cardiotomia;rim artificial;rins artificiais;shunt;shunt lombo-peritoneal;lombo-peritoneal;lombo peritoneal;pele;substituto de pele;biológica;biologica;sintética;sintetica;tela inorgânica;tela inorganica;tela;malha;válvula;valvula;válvula para hidrocefalia;valvula hidrocefalica;hidrocefalica;ascite;fonte de irídio;fonte de iridio;irídio 192;iridio 192;radioativo;braquiterapia;stent;stent vascular;reprocessador;hemodiálise;hemodialise;implante;implantes;implante osseointegrável;implantes osseointegraveis;osseointegravel;prótese dentária;protese dentaria;prótese;protese;pilar;pilares;parafuso ósseo;parafuso osseo;cardiodesfibrilador;desfibrilador implantável;desfibrilador implantavel;espiral;espiral para embolização;embolização;embolizacao;coil;imunoglobulina;imunoglobulinas;imunoglobulina anti-rh;anti-rh;fator viii;concentrado de fator;hemoderivado;frações do sangue;fracoes do sangue;reagente;reagentes;reagente de diagnóstico;reagente de diagnostico;reagente laboratorial;materiais de referência;materiais de referencia;material de referência;material de referencia;kit diagnóstico;kit diagnostico;somatoliberina;obturacao dentaria;obturação dentária;obturacao;obturação;produto odontológico;produto odontologico;dentário;dentario;gel lubrificante;gel médico;gel medico;lubrificante;agente de ligação;agente de ligacao;bolsa de colostomia;colostomia;ileostomia;urostomia;ostomia;equipamento para ostomia;placa de ostomia;bolsa para hemodiálise;bolsa para hemodialise;bolsa médica;bolsa medica;artigo de laboratório;artigo de laboratorio;análises clínicas;analises clinicas;laboratório clínico;laboratorio clinico;acessório;acessorio;acessórios de plástico;acessorios de plastico;linha de sangue;clamp;obturador;clipe;clipes;luva;luvas;luva cirúrgica;luva cirurgica;luva de procedimento;seringa;seringas;agulha;agulhas;agulha tubular;agulha para sutura;sonda;sondas;cateter;cateteres;cânula;canula;lanceta;lancetas;vacinação;vacinacao;cautério;cauterio;instrumento médico;instrumento medico;instrumento cirúrgico;instrumento cirurgico;aparelho médico;aparelho medico;odontologia;odontológico;odontologico;broca;brocas;broca odontológica;broca odontologica;lima;limas;lima endodôntica;lima endodontica;endodontia;grampo;grampos;clipe cirúrgico;clipe cirurgico;aplicador;extrator;mesa cirúrgica;mesa cirurgica;mesa de operação;mesa de exame;cama hospitalar;leito;fotocoagulador;laser;laser oftalmológico;laser oftalmologico;bisturi elétrico;bisturi eletrico;eletrocautério;eletrocauterio;aparelho de anestesia;monitor multiparâmetros;monitor multiparametros;anestesia;autoclave;esterilização;esterilizacao;retinógrafo;retinografo;meio de cultura;meios de cultura;cultura celular;termociclador;pcr;pipetador;pipetadores;pipeta automática;pipeta automatica;pipetagem;cromatógrafo;cromatografo;cromatógrafo de fase líquida;cromatografo de fase liquida;hplc;cromatografia líquida;cromatografia liquida;sequenciador de adn;sequenciador de dna;eletroforese capilar;aparelho de eletroforese;eletroforese;analisador;analisadores;espectrofotômetro;espectrofotometro;espectrofotometria;fotômetro;fotometro;fotometria;citômetro de fluxo;citometro de fluxo;citometria de fluxo;radiações ópticas;radiacoes opticas;óptico;optico;espectrômetro de massa;espectrometro de massa;espectrometria de massa;analisador laboratorial;diagnóstico;diagnostico;micrótomo;microtomo;histologia;partes e peças;parte de analisador;peca de analisador;preservativo;camisinha;condom;profilático;profilatico;diu;dispositivo intrauterino;conservação de órgãos;conservacao de orgaos;solução de conservação;solucao de conservacao;meio de preservação;meio de preservacao;introdutor;introdutor de punção;introdutor de puncao;enxerto tubular;enxerto ptfe;ptfe;politetrafluoretileno;enxerto arterial;enxerto venoso;botão craniano;botao craniano;botão para crânio;botao para cranio;guia metálico;guia metalico;cateter duplo lumen;duplo lumen;guia de troca;angioplastia;dilatador;dilatador de cateter;introdutor de cateter;introdutor com válvula;introdutor com valvula;introdutor sem válvula;introdutor sem valvula;kit;kit cânula;kit canula;dreno;dreno para sucção;dreno para sucao;sucção;sucao;sistema de drenagem;mediastinal;mediastino;balão intra-aórtico;balao intra-aortico;intra-aórtico;intra-aortico;conjunto descartável;conjunto descartavel;descartável;descartavel</t>
-  </si>
-  <si>
-    <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
-  </si>
-  <si>
-    <t>Barra;cadeira de rodas;propulsão;surdos;implante;coclear;cocleares</t>
-  </si>
-  <si>
-    <t>essenciais;</t>
-  </si>
-  <si>
-    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica;cotovelo</t>
-  </si>
-  <si>
-    <t>04072;04072100;04072900;0701;07011000;07019000;0702;07020000;0703;070310;0703101;07031011;07031019;0703102;07031021;07031029;070320;07032010;07032090;070390;07039010;07039090;0704;07041000;07042000;07049000;0705;07051;07051100;07051900;07052;07052100;07052900;0706;07061000;07069000;07070000;0708;07081000;07082000;07089000;0709;07092000;07093000;07094000;07095100;07095200;07095300;07095400;07095500;07095600;07095900;07096000;07097000;07099;07099100;07099200;07099300;070999;0709991;07099911;07099919;07099990;0710;07101000;07102;07102100;07102200;07102900;07103000;07104000;07109000;0714;07141000;07142000;07143000;07144000;07145000;07149000;08011100;08011200;08011900;08012;08012100;08031000;08039000;0804;080410;08041010;08042010;08042020;08043000;08044000;080450;08045010;08045020;08045030;0805;08051000;08052;08052100;08052200;08052900;08054000;08055000;08059000;0806;08061000;08071100;08071900;08072000;0808;08081000;08083000;08084000;0809;08091000;08092;08092100;08092900;080930;08093010;08093020;08094000;0810;08101000;08102000;08103000;08104000;08105000;08106000;08107000;081090;0810901;08109011;08109012;08109013;08109014;08109015;08109016;08109017;08109090;0811;08111000;08112000;08119000</t>
-  </si>
-  <si>
-    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
-  </si>
-  <si>
-    <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
-  </si>
-  <si>
-    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03023100;03023200;03023300;03023400;03023500;03023600;03023900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03031100;03031200;03031300;03031400;03031900;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03034100;03034200;03034300;03034400;03034500;03034600;03034900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;030391;03039110;03039190;03039200;030399;03039910;03039920;03039990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044100;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045200;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
-  </si>
-  <si>
-    <t>19012010[pao;pão;frânces];19012010[pao;pão;frânces];19059090[pão;pao;frânces]</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1153,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,13 +1469,13 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" t="s">
         <v>238</v>
       </c>
-      <c r="E15" t="s">
-        <v>239</v>
-      </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1690,7 +1690,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -1713,7 +1713,7 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -2039,10 +2039,10 @@
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G42" t="s">
         <v>56</v>
@@ -2068,7 +2068,7 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
         <v>57</v>
@@ -2114,7 +2114,7 @@
         <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
         <v>60</v>
@@ -2223,13 +2223,13 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E50" t="s">
         <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
         <v>65</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F092F7B-46B4-4699-8E58-37592E9DFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC153EA-DD65-4404-9D5A-3EBBE5961628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
   <si>
     <t>priority</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Venda de dispositivos médicos com a especificação das respectivas classificações da NCM/SH previstas no Anexo XII da Lei Complementar nº 214, de 2025, observado o art. 144 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
-    <t>28444390;30021221;30021222;30021223;30021229;30049099;30059090;300610;30061090;30063021;30064012;30064020;30067000;30069110;30069190;37011010;37011029;37021010;37021020;38210000;38221;38249989;391740;39269030;39269040;39269050;40141000;40151;84198110;84198999;84199040;84212911;84212990;84798912;84798999;90182010;901831;901832;90183910;9018392;90183929;90183930;9018399;90183991;90183999;9018491;90184920;90185090;90189010;90189021;90189040;90189095;90189099;90211010;90211020;90212900;90215000;90219011;90219012;90219019;90219080;90219089;90219091;90219099;90272012;90272021;90272029;902730;90275020;90275050;90275090;90278100;90278999;90279010;9027909;940290</t>
-  </si>
-  <si>
     <t>Venda de dispositivos médicos com a especificação das respectivas classificações da NCM/SH previstas no Anexo IV da Lei Complementar nº 214, de 2025, quando adquiridos por órgãos da administração pública direta, autarquias e fundações públicas, observado o art. 144 da Lei Complementar nº 214, de 2025.</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>Fornecimento dos dispositivos de acessibilidade próprios para pessoas com deficiência relacionados no Anexo XIII da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NCM/SH, observado o art. 145 da Lei Complementar nº 214, de 2025.</t>
-  </si>
-  <si>
-    <t>66020000;84253110;84289090;84433222;84701000;84702900;84716053;84716090;84718000;84729099;85171;85437099;87082999;87089910;90172000;90251990;91021110;91021190;91029100;91031000;91051100</t>
   </si>
   <si>
     <t>Fornecimento dos dispositivos de acessibilidade próprios para pessoas com deficiência relacionados no Anexo V da Lei Complementar nº 214, de 2025, com a especificação das respectivas classificações da NCM/SH, quando adquiridos por órgãos da administração pública direta, autarquias, fundações públicas e entidades imunes, observado o art. 145 da Lei Complementar nº 214, de 2025.</t>
@@ -726,34 +720,13 @@
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
   <si>
-    <t>drenagem;bolsa;bolsas;sistema;diurese;chapa;chapas;filme;filmes;raio-x;raios-x;rx;cimento;cimentos;reconstituição óssea;reconstituicao ossea;óssea;ossea;ósseo;osseo;substituto;substitutos;enxerto;enxertos;enxerto ósseo;enxerto osseo;coletor;conector;conectores;tampa;polieletrolítico;polieletrolitico;diálise;dialise;concentrado;concentrados;conjunto;conjuntos;troca;autotransfusao;autotransfusão;transfusao;transfusão;hidrocefalia;baixo perfil;standard;eletrodo;eletrodos;endocárdico;endocardico;epicárdico;epicardico;marcapasso;temporário;temporario;espaçador;espacador;tendão;tendao;filtro;filtros;arterial;venoso;linha arterial;linha venosa;sangue;recirculação;recirculacao;cardioplegia;categute;categutes;sutura;suturas;cirúrgica;cirurgica;fio absorvível;fio absorvivel;hemostático;hemostatico;barreira antiaderente;antiaderente;laminária;laminaria;hemoconcentrador;circulação extracorpórea;circulacao extracorporea;hemodialisador;capilar;marcapasso cardíaco;marcapasso cardiaco;câmara dupla;camara dupla;multiprogramável;multiprogramavel;telemetria;oxigenador;oxigenador de bolha;oxigenador de membrana;bolha;membrana;reservatório;reservatorio;cardiotomia;rim artificial;rins artificiais;shunt;shunt lombo-peritoneal;lombo-peritoneal;lombo peritoneal;pele;substituto de pele;biológica;biologica;sintética;sintetica;tela inorgânica;tela inorganica;tela;malha;válvula;valvula;válvula para hidrocefalia;valvula hidrocefalica;hidrocefalica;ascite;fonte de irídio;fonte de iridio;irídio 192;iridio 192;radioativo;braquiterapia;stent;stent vascular;reprocessador;hemodiálise;hemodialise;implante;implantes;implante osseointegrável;implantes osseointegraveis;osseointegravel;prótese dentária;protese dentaria;prótese;protese;pilar;pilares;parafuso ósseo;parafuso osseo;cardiodesfibrilador;desfibrilador implantável;desfibrilador implantavel;espiral;espiral para embolização;embolização;embolizacao;coil;imunoglobulina;imunoglobulinas;imunoglobulina anti-rh;anti-rh;fator viii;concentrado de fator;hemoderivado;frações do sangue;fracoes do sangue;reagente;reagentes;reagente de diagnóstico;reagente de diagnostico;reagente laboratorial;materiais de referência;materiais de referencia;material de referência;material de referencia;kit diagnóstico;kit diagnostico;somatoliberina;obturacao dentaria;obturação dentária;obturacao;obturação;produto odontológico;produto odontologico;dentário;dentario;gel lubrificante;gel médico;gel medico;lubrificante;agente de ligação;agente de ligacao;bolsa de colostomia;colostomia;ileostomia;urostomia;ostomia;equipamento para ostomia;placa de ostomia;bolsa para hemodiálise;bolsa para hemodialise;bolsa médica;bolsa medica;artigo de laboratório;artigo de laboratorio;análises clínicas;analises clinicas;laboratório clínico;laboratorio clinico;acessório;acessorio;acessórios de plástico;acessorios de plastico;linha de sangue;clamp;obturador;clipe;clipes;luva;luvas;luva cirúrgica;luva cirurgica;luva de procedimento;seringa;seringas;agulha;agulhas;agulha tubular;agulha para sutura;sonda;sondas;cateter;cateteres;cânula;canula;lanceta;lancetas;vacinação;vacinacao;cautério;cauterio;instrumento médico;instrumento medico;instrumento cirúrgico;instrumento cirurgico;aparelho médico;aparelho medico;odontologia;odontológico;odontologico;broca;brocas;broca odontológica;broca odontologica;lima;limas;lima endodôntica;lima endodontica;endodontia;grampo;grampos;clipe cirúrgico;clipe cirurgico;aplicador;extrator;mesa cirúrgica;mesa cirurgica;mesa de operação;mesa de exame;cama hospitalar;leito;fotocoagulador;laser;laser oftalmológico;laser oftalmologico;bisturi elétrico;bisturi eletrico;eletrocautério;eletrocauterio;aparelho de anestesia;monitor multiparâmetros;monitor multiparametros;anestesia;autoclave;esterilização;esterilizacao;retinógrafo;retinografo;meio de cultura;meios de cultura;cultura celular;termociclador;pcr;pipetador;pipetadores;pipeta automática;pipeta automatica;pipetagem;cromatógrafo;cromatografo;cromatógrafo de fase líquida;cromatografo de fase liquida;hplc;cromatografia líquida;cromatografia liquida;sequenciador de adn;sequenciador de dna;eletroforese capilar;aparelho de eletroforese;eletroforese;analisador;analisadores;espectrofotômetro;espectrofotometro;espectrofotometria;fotômetro;fotometro;fotometria;citômetro de fluxo;citometro de fluxo;citometria de fluxo;radiações ópticas;radiacoes opticas;óptico;optico;espectrômetro de massa;espectrometro de massa;espectrometria de massa;analisador laboratorial;diagnóstico;diagnostico;micrótomo;microtomo;histologia;partes e peças;parte de analisador;peca de analisador;preservativo;camisinha;condom;profilático;profilatico;diu;dispositivo intrauterino;conservação de órgãos;conservacao de orgaos;solução de conservação;solucao de conservacao;meio de preservação;meio de preservacao;introdutor;introdutor de punção;introdutor de puncao;enxerto tubular;enxerto ptfe;ptfe;politetrafluoretileno;enxerto arterial;enxerto venoso;botão craniano;botao craniano;botão para crânio;botao para cranio;guia metálico;guia metalico;cateter duplo lumen;duplo lumen;guia de troca;angioplastia;dilatador;dilatador de cateter;introdutor de cateter;introdutor com válvula;introdutor com valvula;introdutor sem válvula;introdutor sem valvula;kit;kit cânula;kit canula;dreno;dreno para sucção;dreno para sucao;sucção;sucao;sistema de drenagem;mediastinal;mediastino;balão intra-aórtico;balao intra-aortico;intra-aórtico;intra-aortico;conjunto descartável;conjunto descartavel;descartável;descartavel</t>
-  </si>
-  <si>
-    <t>acetato;acido;ácido;aminoácido;aminoacido;aminoácidos;aminoacidos;vitamina;vitaminas;minerais;elemento traço;elementos traço;elemento traco;elementos traco;eletrólito;eletrólitos;eletrólito;eletrólitos;eletrólito;eletrólitos;nutrição;nutricao;nutrição parenteral;nutricao parenteral;npt;solução;solucao;solução injetável;solucao injetavel;solução parenteral;solucao parenteral;preparação intravenosa;preparacao intravenosa;injetável;injetavel;parenteral;dextroalfatocoferol;acetato de dextroalfatocoferol;tocoferol;acetato de tocoferol;vitamina e;acetato de lisina;lisina;acetato de potássio;acetato de potassio;potássio;potassio;acetato de sódio;acetato de sodio;sódio;sodio;acetato de zinco;zinco;acetiltirosina;tirosina;ácido acético;acido acetico;ácido ascórbico;acido ascorbico;vitamina c;ácido aspártico;acido aspartico;ácido cítrico;acido citrico;ácido fólico;acido folico;vitamina b9;ácido glutâmico;acido glutamico;ácido málico;acido malico;ácido selenioso;acido selenioso;selênio;selenio;água para injeção;agua para injecao;água injetável;agua injetavel;veículo injetável;veiculo injetavel;alanilglutamina;alanina;albumina humana;albumina;plasma expandidor;arginina;asparagina;bicarbonato de sódio;bicarbonato de sodio;biotina;vitamina b7;cianocobalamina;vitamina b12;cobalamina;cistina;cloreto crômico;cloreto cromico;cromo;cloreto de cálcio;cloreto de calcio;cálcio;calcio;cloreto de magnésio;cloreto de magnesio;magnésio;magnesio;cloreto de manganês;cloreto de manganes;manganês;manganes;cloreto de potássio;cloreto de potassio;cloreto de sódio;cloreto de sodio;soro fisiológico;soro fisiologico;cloreto de zinco;cloridrato de piridoxina;piridoxina;vitamina b6;cloridrato de tiamina;tiamina;vitamina b1;cocarboxilase;colecalciferol;vitamina d3;ergocalciferol;vitamina d2;fenilalanina;fitomenadiona;vitamina k1;fórmula para dieta isenta de fenilalanina;formula para dieta isenta de fenilalanina;dieta isenta de fenilalanina;fenilcetonúria;fenilcetonuria;fórmula para dieta isenta de metionina;formula para dieta isenta de metionina;metionina restrita;fórmula para dieta isenta de lisina;formula para dieta isenta de lisina;fórmula para dieta isenta de leucina;formula para dieta isenta de leucina;fórmula para dieta isenta de aminoácidos não essenciais;formula para dieta isenta de aminoacidos nao essenciais;dieta especial;dieta metabólica;dieta metabolica;erro inato do metabolismo;fórmula para dieta cetogênica;formula para dieta cetogenica;dieta cetogênica;dieta cetogenica;cetogênica;cetogenica;fórmula hiperlipídica;formula hiperlipidica;hiperlipídica;hiperlipidica;suplementação de triglicerídios de cadeia média;suplementacao de trigliceridios de cadeia media;triglicerídeos de cadeia média;triglicerideos de cadeia media;tcms;triheptanoína;triheptanoina;preparação lipídica;preparacao lipidica;preparação líquida de trioleato de glicerol;preparacao liquida de trioleato de glicerol;trioleato de glicerol;trierucato de glicerol;emulsão lipídica;emulsao lipidica;fosfato de potássio;fosfato de potassio;fosfato de potássio dibásico;fosfato de potassio dibasico;fosfato de potássio monobásico;fosfato de potassio monobasico;fosfato de sódio;fosfato de sodio;fosfato de sódio monobásico;fosfato de sodio monobasico;fosfato de tiamina;fosfato sódico de riboflavina;fosfato sodico de riboflavina;riboflavina fosfato;frutose;glicerofosfato de sódio;glicerofosfato de sodio;glicina;gliconato de cálcio;gliconato de calcio;glicose;dextrose;histidina;icodextrina;solução de icodextrina;solucao de icodextrina;iodeto de potássio;iodeto de potassio;iodo;isoleucina;lecitina de ovo;lecitina;leucina;levovalina;valina;lisina base;metionina;nicotinamida;vitamina pp;vitamina b3;palmitato de retinol;retinol;vitamina a;prolina;riboflavina;vitamina b2;selenito de sódio;selenito de sodio;serina;sorbitol;sulfato de magnésio;sulfato de magnesio;sulfato de zinco;taurina;treonina;triglicerídeos;triglicerideos;lipídio;lipidio;gordura;carboidrato;carboidratos;açúcar;acucar;monossacarídeo;monossacarideo;dissacarídeo;dissacarideo;fórmula nutricional;formula nutricional;fórmula enteral;formula enteral;fórmula metabólica;formula metabolica;mistura de aminoácidos;mistura de aminoacidos;mistura de vitaminas;mistura de minerais;solução de eletrólitos;solucao de eletrolitos;eletrólitos parenterais;eletrólitos enterais</t>
-  </si>
-  <si>
-    <t>Barra;cadeira de rodas;propulsão;surdos;implante;coclear;cocleares</t>
-  </si>
-  <si>
     <t>essenciais;</t>
   </si>
   <si>
-    <t>3/4;BUCHA RED;CAIXA;TIGRE;Amanco;Distribuicao;Chupeta;Esgoto;combustivel;hidraulico;verniz;limpeza;sold;condor;scotch;blukit;condor;termostatica;cotovelo</t>
-  </si>
-  <si>
-    <t>04072;04072100;04072900;0701;07011000;07019000;0702;07020000;0703;070310;0703101;07031011;07031019;0703102;07031021;07031029;070320;07032010;07032090;070390;07039010;07039090;0704;07041000;07042000;07049000;0705;07051;07051100;07051900;07052;07052100;07052900;0706;07061000;07069000;07070000;0708;07081000;07082000;07089000;0709;07092000;07093000;07094000;07095100;07095200;07095300;07095400;07095500;07095600;07095900;07096000;07097000;07099;07099100;07099200;07099300;070999;0709991;07099911;07099919;07099990;0710;07101000;07102;07102100;07102200;07102900;07103000;07104000;07109000;0714;07141000;07142000;07143000;07144000;07145000;07149000;08011100;08011200;08011900;08012;08012100;08031000;08039000;0804;080410;08041010;08042010;08042020;08043000;08044000;080450;08045010;08045020;08045030;0805;08051000;08052;08052100;08052200;08052900;08054000;08055000;08059000;0806;08061000;08071100;08071900;08072000;0808;08081000;08083000;08084000;0809;08091000;08092;08092100;08092900;080930;08093010;08093020;08094000;0810;08101000;08102000;08103000;08104000;08105000;08106000;08107000;081090;0810901;08109011;08109012;08109013;08109014;08109015;08109016;08109017;08109090;0811;08111000;08112000;08119000</t>
-  </si>
-  <si>
-    <t>03061;03061110;03061190;03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;030743;03075100;03075200;03079100;03079200;04032000;04039000;04090000;07112020;07112090;07114000;07115;07115100;07115900;07119000;0812;08121000;08129000;08140000;110100;1102;11022000;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042300;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;15132120;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
-  </si>
-  <si>
     <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
   </si>
   <si>
     <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
-  </si>
-  <si>
-    <t>19012010[pao;pão;frânces];19012090[pao;pão;frânces];19059090[pão;pao;frânces];11029000[aveia];11041200[aveia];11042200[aveia];11062000[farinha;mandioca];21069090[infantil];25010020[sal];25010090[sal]</t>
   </si>
   <si>
     <r>
@@ -770,6 +743,39 @@
       </rPr>
       <t>intimo]</t>
     </r>
+  </si>
+  <si>
+    <t>30049099[cloreto;suxametônio]</t>
+  </si>
+  <si>
+    <t>28444390[irídio;iridio;fonte;192];30021221[Imunoglobina;rh;sangue];30021223[fator VIII];30049099[ósseo;enxerto;diálise;polieletrolíticos];30059090[pele;substituto;cm2];30061090[categues;esterelizado;esterelizados;esterelizada;esterelizadas;hemostático;hemostáticos;barreira;antiaderente;tela inorgânica];30063021[somatoliberina];30064020[cimento;óssea;ósseo;osseo;reconstituição];30067000[gel;preparação em gel;preparacao em gel;lubrificante;lubrificante medico;exame;ultrassom];30069190[ostomia];38249989[conservação];39174010[conector Y;Y;tampa];39174090[conector Y;Y;tampa];39269040[coletor;drenagem;externa];40151100[cirurgica;cirurgicas;cirurgicos;cirúrgicas;cirúrgica;cirúrgicos;cirúrgico;cirurgico;procedimento;procedimentos];40151900[cirurgica;cirurgicas;cirurgicos;cirúrgicas;cirúrgica;cirúrgicos;cirúrgico;cirurgico;procedimento;procedimentos];40151200[cirurgica;cirurgicas;cirurgicos;cirúrgicas;cirúrgica;cirúrgicos;cirúrgico;cirurgico;procedimento;procedimentos];84198999[termociclador];84199040[termociclador];84212911[hemodialisador;capilar];84212990[arterial;venoso;filtro linha;recirculação;cardioplegia];84798912[pipetador;pipetadores;laboratorial;laboratoriais];84798999[hemodialise;hemodiálise;reprocessador];90182010[fotocoagulador];90183929[guia metálico;cateter;dilatador;guia;angioplastia;dreno;mediastinal;drenagem];90185090[retinógrafo;retinografo];90189099[sistema para drenagem;sistema drenagem;drenagem;conjunto intermediário;conjunto intermediario;medição contínua da diurese;medicao continua da diurese;medição contínua;medicao continua;diurese;diurese contínua;diurese continua;oxigenador;oxigenador de bolha;oxigenador bolha;bolha;oxigenador de membrana;oxigenador membrana;membrana;circulação extracorpórea;circulacao extracorporea;circulação extra-corpórea;circulacao extra-corporea;cec;tubos;reservatório;reservatorio;reservatório de cardiotomia;reservatorio de cardiotomia;cardiotomia;reservatório para cardioplegia;reservatorio para cardioplegia;cardioplegia;tubo sem filtro;sem filtro;aparelho de anestesia;aparelho anestesia;anestesia;anestésico;anestesico;monitor multiparâmetros;monitor multiparametros;monitor multiparamétrico;monitor multiparametrico;dispositivo intrauterino;dispositivo intra-uterino;dispositivo intra uterino;diu;iud;contraceptivo intrauterino;contraceptivo intra-uterino;conjunto descartável;conjunto descartavel;balão intra-aórtico;balao intra-aortico;balão intraaórtico;balao intraaortico;balão aórtico;balao aortico;iabp;outros instrumentos;outros aparelhos;instrumentos médicos;instrumentos medicos;aparelhos médicos;aparelhos medicos;medicina;cirurgia;odontologia];90211010[implante;implantes;implante dentário;implante dentaria;implante dentario;implante osseointegrável;implante osseointegravel;osseointegrável;osseointegravel;parafuso;parafusos;parafuso de implante;parafuso ósseo;parafuso osseo;parafuso para implante;prótese dentária;protese dentaria;protese dentária;prótese sobre implante;protese sobre implante];90211020[componente;componentes;componente para implante;componentes para implante;componente protético;componente protetico;componente protético para implante;componente protetico para implante;tampa de proteção;tampa de protecao;tampa protetora;montador de implante;montadores de implante;conjunto de implante;conjuntos de implante;pilar;pilares;pilar cicatrizador;pilar de cicatrização;pilar de cicatrizacao;cicatrizador;pilar conector;pilar de transferência;pilar de transferencia;pilar temporário;pilar temporario;cilindro;cilindros;acessório;acessorio;acessórios;acessorios;acessório para implante;acessorio para implante];90212900[implante;implantes;implante dentário;implante dentaria;implante dentario;implante osseointegrável;implante osseointegravel;osseointegrável;osseointegravel;parafuso;parafusos;parafuso de implante;prótese dentária;protese dentaria;protese dentária;prótese sobre implante;protese sobre implante;componente;componentes;componente para implante;componente protético;componente protetico;pilar;pilares;pilar cicatrizador;pilar de transferência;pilar de transferencia;pilar temporário;pilar temporario;cilindro;cilindros;acessório;acessorio;acessórios;acessorios;acessório para implante;acessorio para implante];90215000[marcapasso; dupla;telemtria];90219011[implantável];90219012[stent;vascular;embolização];90219019[coclear;cocleares];90219089[hidrocefalia];90219091[endocárdico;epicárdico;eletrodo;indutor];90219099[introdutor;implante;punção;endocárdico;enxerto;artertial;venoso];90272012[cromatógrafo];</t>
+  </si>
+  <si>
+    <t>28444390;30021221;30021222;30021223;30021229;30049099;30059090;300610;30061090;30063021;30064012;30064020;30067000;30069110;30069190;37011010;37011029;37021010;37021020;38210000;38221100;38221200;38221300;38221910;38221920;38221930;38221940;38221990;38249989;39174010;39174090;39269030;39269040;39269050;40141000;40151100;40151900;40151200;84198110;84198999;84199040;84212911;84212990;84798912;84798999;90182010;90183111;90183190;901832;90183910;90183921;90183922;90183929;90183930;90183991;90183999;90184911;90184912;90184919;90184920;90185090;90189010;90189021;90189040;90189095;90189099;90211010;90211020;90212900;90215000;90219011;90219012;90219019;90219080;90219089;90219091;90219099;90272012;90272021;90272029;90273011;90273019;90273020;90275020;90275050;90275090;90278100;90278999;90279010;90279091;90279093;90279099;90279092;94029010;94029020;94029090</t>
+  </si>
+  <si>
+    <t>04072;04072100;04072900;06012000;06021000;06022000;06029000;06031100;06031300;06031400;06039000;06041000;06042000;06049100;06049000;0701;07011000;07019000;0702;07020000;0703;070310;0703101;07031011;07031019;0703102;07031021;07031029;070320;07032010;07032090;070390;07039010;07039090;0704;07041000;07042000;07049000;0705;07051;07051100;07051900;07052;07052100;07052900;0706;07061000;07069000;07070000;0708;07081000;07082000;07089000;0709;07092000;07093000;07094000;07096000;07097000;07099;07099100;07099200;07099300;070999;0709991;07099911;07099919;07099990;0710;07101000;07102;07102100;07102200;07102900;07103000;07104000;07109000;0714;07141000;07142000;07143000;07144000;07145000;07149000;08011100;08011200;08011900;08031000;08039000;0804;080410;08041010;08042010;08042020;08043000;08044000;080450;08045010;08045020;08045030;0805;08051000;08052;08052100;08052200;08052900;08054000;08055000;08059000;0806;08061000;08071100;08071900;08072000;0808;08081000;08083000;08084000;0809;08091000;08092;08092100;08092900;080930;08093010;08093020;08094000;0810;08101000;08102000;08103000;08104000;08105000;08106000;08107000;081090;0810901;08109011;08109012;08109013;08109014;08109015;08109016;08109017;08109090;0811;08111000;08112000;08119000</t>
+  </si>
+  <si>
+    <t>66020000;84253110;84289090;84433222;84701000;84702900;84716053;84716090;84718000;84729099;85171100;85171910;85171920;85171999;85171300;85437099;87082999;87089910;90172000;90251990;91021110;91021190;91029100;91031000;91051100</t>
+  </si>
+  <si>
+    <t>84253110[cadeira;rodas];84289090[cadeira;rodas];84701000[voz];84702900[voz];84716053[olhos;deficientes];84716090[braille;braile;cego];84718000[voz;sintetizador];84729099[braille;braile];85171100[deficiencia;auditiva;auditivo];85171910[deficiencia;auditiva;auditivo];85171920[deficiencia;auditiva;auditivo];85171999[deficiencia;auditiva;auditivo];85171300[deficiencia;auditiva;auditivo];85437099[braille,braile];87082999[empunhadura;empunhaduras;manopla;manoplas;pegador;alça de apoio;alca de apoio;comando manual;comandos do painel;deslocamento de comandos;deslocamento de comando;extensor de comando;extensor de comandos;plataforma giratória;plataforma giratoria;plataforma de assento giratória;plataforma de assento giratoria;assento giratório;assento giratorio;giro do assento;dispositivo giratório;dispositivo giratorio;trilho elétrico;trilho electrico;trilho motorizado;trilho de assento;trilho de banco;deslocamento do assento;assento dianteiro;assento frontal;rampa;rampa veicular;rampa para cadeira de rodas;rampa de cadeira de rodas;cadeira de rodas;acessibilidade;veículo adaptado;veiculo adaptado;adaptação veicular;adaptacao veicular;partes;acessórios;acessorios];87089910[comando de embreagem manual;comando embreagem manual;embreagem manual;embreagem;embreagens;clutch;comando de freio manual;comando freio manual;freio manual;freios manuais;comando de acelerador manual;comando acelerador manual;acelerador manual;acelerador de mão;acelerador de mao;acelerador manual veicular;inversão do pedal do acelerador;inversao do pedal do acelerador;inversão pedal acelerador;inversao pedal acelerador;pedal invertido;pedal do acelerador invertido;prolongamento de pedais;prolongamento de pedal;prolongamento pedal;prolongador de pedal;prolongadores de pedais;extensor de pedal;extensores de pedal;extensor de pedais;pedal acelerador;pedal de freio;pedal de embreagem;pedais;adaptação veicular;adaptacao veicular;veículo adaptado;veiculo adaptado;partes;acessórios;acessorios];90172000[braille;braile];90251990[voz;deficientes;auditivos];91021110[braille;braile];91021190[braille;braile];91029100[braille;braile];91031000[vibratório;vibrador;luminoso;braille;braile];91051100[vibratório;vibrador;luminoso;braille;braile]</t>
+  </si>
+  <si>
+    <t>90219019[implantes;cocleares]</t>
+  </si>
+  <si>
+    <t>lagosta;lagostim</t>
+  </si>
+  <si>
+    <t>19012010[pao;pão;frânces];19012090[pao;pão;frânces];19059090[pão;pao;frânces];11029000[aveia];11041200[aveia];11041900[aveia];11042200[aveia];11062000[farinha;mandioca];21069090[infantil];25010020[sal];25010090[sal]</t>
+  </si>
+  <si>
+    <t>03061200;03061400;030616;03061610;03061690;030617;03061710;03061790;030619;03061910;03061990;03063;03063200;03063300;03063500;03063600;030639;03063990;03073100;03073200;03074200;03074320;03074310;03075100;03075200;03079100;03079200;04032000;04039000;04090000;11010020;1102;11029000;12024200;11031100;11031900;11041;11041200;11041900;11042;11042200;11042900;1105;11051000;11052000;1106;11061000;11062000;11081200;1208;12081000;12089000;150790;1507901;15079011;15079019;15079090;1508;15081000;15089000;1511;15111000;15119000;1512;15121;151211;15121110;15121120;151219;1512191;15121911;15121919;15121920;15122;15122100;151229;15122910;15122990;1513;15131;15131100;15131900;15132;151321;1513211;15132111;15132119;151329;1513291;15132911;15132919;15132920;1514;15141;15141100;151419;15141910;15141990;15149;15149100;151499;15149910;15149990;1515;15151;15151100;15151900;15152;15152100;151529;15152910;15152990;15153000;15155000;15156000;151590;15159010;1515902;15159021;15159022;15159090;19022000;19023000;19059010;20021000;20029000;2004;20041000;20049000;2005;20051000;20052000;20054000;20055;20055100;20055900;20056000;20057000;20058000;20059;20059100;20059900;20081100;20081900;200820;20082010;20082090;20083000;200840;20084010;20084090;20085000;200860;20086090;20089900;2009;20091;20091100;20091200;20091900;20092;20092100;20092900;20093;20093100;20093900;20094;20094100;20094900;20095000;20096;20096100;20096900;20097;20097100;20097900;20098;20098100;200989;2009891;20098911;20098912;20098913;20098919;2009892;20098921;20098922;20098990;20099000;22029900;08012200;08013200</t>
+  </si>
+  <si>
+    <t>15131900[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];15132911[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];17023011[glicose;glucose;dextrose;açúcar de uva;acucar de uva];17025000[frutose;levulose;açúcar de frutas;acucar de frutas];20021000[água para injeção;agua para injecao;water for injection;wfi;água apirogênica;agua apirogenica];21069090[fórmula para dieta;formula para dieta;fórmula metabólica;formula metabolica;dieta isenta;aminoácidos;aminoacidos;fenilalanina;metionina;lisina;triptofano;leucina;isoleucina;valina;dieta cetogênica;dieta cetogenica];22029900[fórmula hiperlipídica;formula hiperlipidica;triglicerídeos de cadeia média;triglicerideos de cadeia media;triheptanoína;triheptanoina;trioleato de glicerol;trierucato de glicerol;preparação líquida;preparacao liquida];25010090[cloreto de sódio;cloreto de sodio;sal;sal comum;sal de cozinha];28111990[ácido selenioso;acido selenioso;selenioso;ácido de selênio;acido de selenio];28272010[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28272090[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28273110[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273190[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273993[cloreto crômico;cloreto cromico;cromo;sal de cromo];28273995[cloreto de manganês;cloreto de manganes;manganês;manganes;sal de manganes];28273998[cloreto de zinco;sal de zinco];28332100[sulfato de magnésio;sulfato de magnesio;sal de epsom;epsom];28332970[sulfato de zinco;znso4;sal de zinco];28352200[fosfato de sódio;fosfato de sodio;fosfato monossódico;fosfato monosodico;monobásico;monobasico];28352400[fosfato de potássio;fosfato de potassio;fosfato potássico;fosfato potassico;monobásico;monobasico;dibásico;dibasico];28363000[bicarbonato de sódio;bicarbonato de sodio;bicarbonato;soda];28429000[selenito de sódio;selenito de sodio;sal de selênio;selênio;selenio];29152100[ácido acético;acido acetico;acético;acetico;ácido etanóico;acido etanoico];29152910[acetato de sódio;acetato de sodio;acetato;sódio;sodio];29152990[acetato de potássio;acetato de potassio;acetato de zinco;acetato;potássio;potassio;zinco];29181400[ácido cítrico;acido citrico;cítrico;citrico;citric acid];29181610[gliconato de cálcio;gliconato de calcio;sal de cálcio;sal de calcio];29181990[ácido málico;acido malico;malato;malic acid];29199090[glicerofosfato de sódio;glicerofosfato de sodio;fosfato de glicerol sódico;glicerofosfato sódico;glicerofosfato sodico];29224110[lisina;l-lisina;aminoácido;aminoacido];29224190[acetato de lisina;lisina;acetato];29224210[ácido glutâmico;acido glutamico;glutamato;glutamic acid];29224910[glicina;glycine;aminoácido;aminoacido];29224990[ácido aspártico;acido aspartico;alanilglutamina;alanina;asparagina;fenilalanina;isoleucina;leucina;levovalina;prolina;taurina;aminoácido;aminoacido];29225039[tirosina;tirosine;acetiltirosina;acetil tirosina;aminoácido;aminoacido];29225099[serina;treonina;aminoácido;aminoacido];29232000[lecitina de ovo;lecitina;fosfolipídeo;fosfolipideo];29252919[arginina;l-arginina;aminoácido;aminoacido];29304010[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29304090[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29309039[cistina;cystine;aminoácido sulfurado;aminoacido sulfurado];29332992[histidina;l-histidina;aminoácido;aminoacido];29362113[palmitato de retinol;vitamina a;retinol palmitato;vitamina a palmitato];29362210[cloridrato de tiamina;tiamina cloridrato;vitamina b1];29362290[cocarboxilase;co-carboxilase;fosfato de tiamina;tiamina fosfato;vitamina b1];29362310[riboflavina;vitamina b2];29362320[fosfato de riboflavina;fosfato sódico de riboflavina;riboflavina fosfato;vitamina b2];29362520[cloridrato de piridoxina;piridoxina cloridrato;vitamina b6];29362610[cianocobalamina;vitamina b12];29362710[ácido ascórbico;acido ascorbico;vitamina c];29362811[tocoferol;alfa-tocoferol;alfa tocoferol;vitamina e];29362812[acetato de dextroalfatocoferol;dextroalfatocoferol;acetato de tocoferol;acetato de vitamina e;vitamina e];29362911[ácido fólico;acido folico;folato;vitamina b9;folic acid];29362921[colecalciferol;vitamina d3;vitamina d];29362929[ergocalciferol;vitamina d2;vitamina d];29362931[biotina;vitamina b7;vitamina h];29362940[fitomenadiona;vitamina k1;vitamina k];29362952[nicotinamida;niacinamida;vitamina b3;vitamina pp];30021236[albumina humana;albumina;human albumin;fração de plasma;fracao de plasma];31042010[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];31042090[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];35051000[icodextrina;amido modificado;solução de diálise peritoneal;solução de dialise peritoneal;dialisato]</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1159,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1209,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1223,10 +1229,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1243,10 +1249,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1263,10 +1269,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1283,10 +1289,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1303,10 +1309,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1323,10 +1329,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1343,10 +1349,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1363,10 +1369,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1383,10 +1389,10 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1403,10 +1409,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1469,13 +1475,13 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1521,7 +1527,7 @@
         <v>200005</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -1541,7 +1547,7 @@
         <v>200006</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1561,10 +1567,13 @@
         <v>200007</v>
       </c>
       <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" t="s">
         <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -1584,7 +1593,7 @@
         <v>200008</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -1604,10 +1613,13 @@
         <v>200009</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -1627,7 +1639,7 @@
         <v>200010</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1647,7 +1659,7 @@
         <v>200011</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -1667,7 +1679,7 @@
         <v>200012</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -1690,10 +1702,10 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1716,7 +1728,7 @@
         <v>234</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -1736,7 +1748,7 @@
         <v>200015</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -1756,7 +1768,7 @@
         <v>200016</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -1776,7 +1788,7 @@
         <v>200017</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -1796,7 +1808,7 @@
         <v>200018</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -1816,7 +1828,7 @@
         <v>200019</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -1836,7 +1848,7 @@
         <v>200020</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -1856,7 +1868,7 @@
         <v>200021</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -1876,7 +1888,7 @@
         <v>200022</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -1896,7 +1908,7 @@
         <v>200023</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -1916,7 +1928,7 @@
         <v>200024</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -1936,7 +1948,7 @@
         <v>200025</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37">
         <v>60</v>
@@ -1956,7 +1968,7 @@
         <v>200026</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H38">
         <v>80</v>
@@ -1976,7 +1988,7 @@
         <v>200027</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39">
         <v>70</v>
@@ -1996,7 +2008,7 @@
         <v>200028</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H40">
         <v>60</v>
@@ -2016,7 +2028,7 @@
         <v>200029</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H41">
         <v>60</v>
@@ -2036,16 +2048,14 @@
         <v>200030</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>233</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42">
         <v>60</v>
@@ -2065,13 +2075,13 @@
         <v>200031</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H43">
         <v>60</v>
@@ -2091,7 +2101,7 @@
         <v>200032</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H44">
         <v>60</v>
@@ -2111,13 +2121,13 @@
         <v>200033</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H45">
         <v>60</v>
@@ -2137,10 +2147,13 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H46">
         <v>60</v>
@@ -2160,10 +2173,10 @@
         <v>200035</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H47">
         <v>60</v>
@@ -2183,7 +2196,7 @@
         <v>200036</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H48">
         <v>60</v>
@@ -2203,7 +2216,7 @@
         <v>200037</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H49">
         <v>60</v>
@@ -2223,16 +2236,16 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" t="s">
         <v>227</v>
       </c>
-      <c r="F50" t="s">
-        <v>232</v>
-      </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H50">
         <v>60</v>
@@ -2252,10 +2265,10 @@
         <v>200039</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H51">
         <v>60</v>
@@ -2264,7 +2277,7 @@
         <v>60</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2278,7 +2291,7 @@
         <v>200040</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H52">
         <v>60</v>
@@ -2298,7 +2311,7 @@
         <v>200041</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H53">
         <v>60</v>
@@ -2318,7 +2331,7 @@
         <v>200042</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H54">
         <v>60</v>
@@ -2338,7 +2351,7 @@
         <v>200043</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H55">
         <v>60</v>
@@ -2358,7 +2371,7 @@
         <v>200044</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H56">
         <v>60</v>
@@ -2378,7 +2391,7 @@
         <v>200045</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -2398,7 +2411,7 @@
         <v>200046</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -2418,7 +2431,7 @@
         <v>200047</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H59">
         <v>40</v>
@@ -2438,7 +2451,7 @@
         <v>200048</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H60">
         <v>40</v>
@@ -2458,7 +2471,7 @@
         <v>200049</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H61">
         <v>40</v>
@@ -2478,7 +2491,7 @@
         <v>200050</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H62">
         <v>40</v>
@@ -2498,7 +2511,7 @@
         <v>200051</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H63">
         <v>40</v>
@@ -2518,7 +2531,7 @@
         <v>200052</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H64">
         <v>30</v>
@@ -2538,7 +2551,7 @@
         <v>220001</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2558,7 +2571,7 @@
         <v>220002</v>
       </c>
       <c r="G66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2578,7 +2591,7 @@
         <v>220003</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2598,7 +2611,7 @@
         <v>221001</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2618,7 +2631,7 @@
         <v>222001</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2638,7 +2651,7 @@
         <v>400001</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2658,7 +2671,7 @@
         <v>410001</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2678,7 +2691,7 @@
         <v>410002</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2698,7 +2711,7 @@
         <v>410003</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2718,7 +2731,7 @@
         <v>410004</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2738,7 +2751,7 @@
         <v>410005</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2758,7 +2771,7 @@
         <v>410006</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2778,7 +2791,7 @@
         <v>410007</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2798,7 +2811,7 @@
         <v>410008</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2818,7 +2831,7 @@
         <v>410009</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2838,7 +2851,7 @@
         <v>410010</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2858,7 +2871,7 @@
         <v>410011</v>
       </c>
       <c r="G81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2878,7 +2891,7 @@
         <v>410012</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2898,7 +2911,7 @@
         <v>410013</v>
       </c>
       <c r="G83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2918,7 +2931,7 @@
         <v>410014</v>
       </c>
       <c r="G84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2938,7 +2951,7 @@
         <v>410015</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2958,7 +2971,7 @@
         <v>410016</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2978,7 +2991,7 @@
         <v>410017</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -2998,7 +3011,7 @@
         <v>410018</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3018,7 +3031,7 @@
         <v>410019</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3038,7 +3051,7 @@
         <v>410020</v>
       </c>
       <c r="G90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3058,7 +3071,7 @@
         <v>410021</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3078,7 +3091,7 @@
         <v>410022</v>
       </c>
       <c r="G92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3098,7 +3111,7 @@
         <v>410023</v>
       </c>
       <c r="G93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3118,7 +3131,7 @@
         <v>410024</v>
       </c>
       <c r="G94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3138,7 +3151,7 @@
         <v>410025</v>
       </c>
       <c r="G95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3158,7 +3171,7 @@
         <v>410026</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3178,7 +3191,7 @@
         <v>410999</v>
       </c>
       <c r="G97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3198,7 +3211,7 @@
         <v>510001</v>
       </c>
       <c r="G98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3218,7 +3231,7 @@
         <v>515001</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H99">
         <v>60</v>
@@ -3238,7 +3251,7 @@
         <v>550001</v>
       </c>
       <c r="G100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3258,7 +3271,7 @@
         <v>550002</v>
       </c>
       <c r="G101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3278,7 +3291,7 @@
         <v>550003</v>
       </c>
       <c r="G102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3298,7 +3311,7 @@
         <v>550004</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3318,7 +3331,7 @@
         <v>550005</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3338,7 +3351,7 @@
         <v>550006</v>
       </c>
       <c r="G105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3358,7 +3371,7 @@
         <v>550007</v>
       </c>
       <c r="G106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3378,7 +3391,7 @@
         <v>550008</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3398,7 +3411,7 @@
         <v>550009</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3418,7 +3431,7 @@
         <v>550010</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3438,7 +3451,7 @@
         <v>550011</v>
       </c>
       <c r="G110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3458,7 +3471,7 @@
         <v>550012</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3478,7 +3491,7 @@
         <v>550013</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3498,7 +3511,7 @@
         <v>550014</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3518,7 +3531,7 @@
         <v>550015</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3538,7 +3551,7 @@
         <v>550016</v>
       </c>
       <c r="G115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3558,7 +3571,7 @@
         <v>550017</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3578,7 +3591,7 @@
         <v>550018</v>
       </c>
       <c r="G117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3598,7 +3611,7 @@
         <v>550019</v>
       </c>
       <c r="G118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3618,7 +3631,7 @@
         <v>550020</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3638,7 +3651,7 @@
         <v>550021</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3658,7 +3671,7 @@
         <v>620001</v>
       </c>
       <c r="G121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3678,7 +3691,7 @@
         <v>620002</v>
       </c>
       <c r="G122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3698,7 +3711,7 @@
         <v>620003</v>
       </c>
       <c r="G123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3718,7 +3731,7 @@
         <v>620004</v>
       </c>
       <c r="G124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3738,7 +3751,7 @@
         <v>620005</v>
       </c>
       <c r="G125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3758,7 +3771,7 @@
         <v>620006</v>
       </c>
       <c r="G126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -3778,7 +3791,7 @@
         <v>800001</v>
       </c>
       <c r="G127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3798,7 +3811,7 @@
         <v>800002</v>
       </c>
       <c r="G128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -3818,7 +3831,7 @@
         <v>810001</v>
       </c>
       <c r="G129" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -3838,7 +3851,7 @@
         <v>811001</v>
       </c>
       <c r="G130" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3858,7 +3871,7 @@
         <v>811002</v>
       </c>
       <c r="G131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3878,7 +3891,7 @@
         <v>811003</v>
       </c>
       <c r="G132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3898,7 +3911,7 @@
         <v>820001</v>
       </c>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3918,7 +3931,7 @@
         <v>820002</v>
       </c>
       <c r="G134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3938,7 +3951,7 @@
         <v>820003</v>
       </c>
       <c r="G135" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3958,7 +3971,7 @@
         <v>820004</v>
       </c>
       <c r="G136" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3978,7 +3991,7 @@
         <v>820005</v>
       </c>
       <c r="G137" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3998,7 +4011,7 @@
         <v>820006</v>
       </c>
       <c r="G138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4018,7 +4031,7 @@
         <v>830001</v>
       </c>
       <c r="G139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4044,17 +4057,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4072,114 +4085,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4197,13 +4210,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4215,15 +4228,15 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>49</v>
@@ -4235,7 +4248,7 @@
         <v>200039</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4268,13 +4281,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,13 +4298,13 @@
         <v>200043</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2">
         <v>98</v>
@@ -4305,13 +4318,13 @@
         <v>200044</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -4325,13 +4338,13 @@
         <v>200011</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4345,13 +4358,13 @@
         <v>200033</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F5">
         <v>64</v>
@@ -4365,13 +4378,13 @@
         <v>200007</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -4385,13 +4398,13 @@
         <v>200008</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -4405,13 +4418,13 @@
         <v>200031</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -4425,13 +4438,13 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -4445,13 +4458,13 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4465,13 +4478,13 @@
         <v>200031</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4492,21 +4505,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2">
         <v>222</v>
@@ -4514,10 +4527,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>68</v>
@@ -4525,10 +4538,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>76</v>
@@ -4536,10 +4549,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -4547,10 +4560,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -4558,10 +4571,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -4569,10 +4582,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8">
         <v>437</v>
@@ -4580,10 +4593,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9">
         <v>157</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC153EA-DD65-4404-9D5A-3EBBE5961628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D9D89-20AF-49A8-969E-2738F62F59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="241">
   <si>
     <t>priority</t>
   </si>
@@ -714,13 +714,7 @@
     <t>011005</t>
   </si>
   <si>
-    <t>Biofertilizante; Biofertilizantes; Biofertilizante líquido; Biofertilizante liquido; Biofertilizante sólido; Biofertilizante solido; Biofertilizante organomineral; Biofertilizante organo mineral; Biofertilizante foliar; Biofertilizante para solo; Biofertilizante para pastagem; Adubo biológico; Adubo biologico; Fertilizante biológico; Fertilizante biologico; Inoculante biofertilizante; Fertilizante; Fertilizantes; Adubo; Adubos; Adubo químico; Adubo quimico; Adubo mineral; Fertilizante mineral; Fertilizante organomineral; Fertilizante organico; Adubo organomineral; Adubo organico; NPK; Adubo NPK; NPK 04-14-08; NPK 04-30-10; NPK 20-00-20; Ureia; Ureia agricola; Nitrato de amônio; Nitrato de amonio; Nitrato de cálcio; Nitrato de calcio; Superfosfato simples; Superfosfato triplo; MAP; DAP; Cloreto de potássio; Cloreto de potassio; KCl; Sulfato de amônio; Sulfato de amonio; Fosfato monoamônico; Fosfato monoamonico; Fosfato diamônico; Fosfato diamonico; Micronutrientes agrícolas; Mistura de fertilizantes; Formulação de adubo; Corretivo de solo; Corretivos de solo; Condicionador de solo; Condicionadores de solo; Remineralizador de solo; Remineralizadores de solo; Substrato para plantas; Substratos para plantas; Substrato agrícola; Substrato hortícola; Calcário agrícola; Calcario agricola; Calcário dolomítico; Calcario dolomitico; Calcário calcítico; Calcario calcitico; Gesso agrícola; Gesso agricola; Fosfato natural reativo; Enxofre agrícola; Enxofre agricola; Rocha moída; Rocha moida; Pó de rocha; Turfa; Condicionador orgânico de solo; Condicionador organico de solo; Inoculante; Inoculantes; Inoculante para soja; Inoculante para feijão; Inoculante para milho; Inoculante para pastagem; Inoculante rizobiano; Rizóbio; Rizobio; Rhizobium; Bradyrhizobium; Azospirillum; Microrganismos para uso agrícola; Microorganismos para uso agricola; Meios de cultura; Meio de cultura; Bactérias benéficas; Bacterias beneficas; Fungos benéficos; Fungos beneficos; Bioprotetor; Bioinsumo microbiano; Bioestimulante; Bioestimulantes; Bioestimulante agrícola; Bioestimulante agricola; Bioinsumo; Bioinsumos; Bioinsumo para controle fitossanitário; Bioinsumo para controle fitossanitario; Extrato de algas; Extrato de algas marinhas; Extrato vegetal; Aminoácidos para plantas; Aminoacidos para plantas; Hormônio vegetal; Hormônio de crescimento vegetal; Regulador de crescimento vegetal; Estimulante de enraizamento; Enraizador; Indutor de resistência; Indutor de resistencia; Biodefensivo; Biodefensivos; Agente biológico de controle; Agente biologico de controle; Inseticida biológico; Inseticida biologico; Fungicida biológico; Fungicida biologico; Nematicida biológico; Nematicida biologico; Bactericida biológico; Bactericida biologico; Feromônios para controle de pragas; Feromonios para controle de pragas; Defensivo agrícola; Defensivo agricola; Defensivos agrícolas; Defensivos agricolas; Inseticida; Inseticidas; Fungicida; Fungicidas; Herbicida; Herbicidas; Formicida; Formicidas; Parasiticida; Parasiticidas; Germicida; Germicidas; Acaricida; Acaricidas; Nematicida; Nematicidas; Raticida; Raticidas; Desfolhante; Desfolhantes; Dessecante; Dessecantes; Espalhante adesivo; Espalhante-adesivo; Espalhante; Aderente agrícola; Estimulador de crescimento; Inibidor de crescimento; Regulador de crescimento; Reguladores de crescimento; Produto fitossanitário; Produto fitossanitario; Agrotóxico; Agrotoxico; Pesticida; Pesticidas; Calcário; Calcario; Calcário agrícola; Calcario agricola; Casca de coco triturada; Casca de coco moída; Casca de coco moida; Fibra de coco; Fibras de coco; Turfa agrícola; Turfa agricola; Torta vegetal; Tortas vegetais; Torta de mamona; Torta de algodão; Torta de algodao; Bagaços vegetais; Bagaço de cana; Bagaco de cana; Bagaço de frutas; Resíduos vegetais; Residuos vegetais; Resíduos agroindustriais orgânicos; Residuos agroindustriais organicos; Serragem; Serragens; Serragem de madeira; Resíduos de madeira; Residuos de madeira; Casca de arroz; Cascas de arroz; Cascas de café; Cascas de cafe; Borra de carnaúba; Borra de carnauba; Ossos moídos; Ossos moidos; Farinha de osso; Cinzas vegetais; Cinza vegetal; Resíduos da indústria de celulose; Residuos da industria de celulose; Dregs; Grits; Vermiculita; Vermiculita expandida; Argila expandida; Argilas expandidas; Palha de arroz; Palhas de cereais; Casca de grãos; Casca de graos; Casca de produtos vegetais; Fibras vegetais; Silicatos de potássio; Silicatos de potassio; Silicato de magnésio; Silicato de magnesio; Resinas naturais; Oleorresinas naturais; Suco vegetal concentrado; Extrato vegetal concentrado; Aminoácidos; Aminoacidos; Microrganismos mortos; Microorganismos mortos; Óleos essenciais; Oleos essenciais; Argila; Argilas; Terras minerais; Carvão vegetal; Carvao vegetal; Pastas mecânicas de madeira; Pasta mecânica de madeira; Pasta mecanica de madeira; Ácido nítrico; Acido nitrico; Ácido sulfúrico; Acido sulfurico; Ácido fosfórico; Acido fosforico; Ácido clorídrico; Acido cloridrico; Ácido fosforoso; Acido fosforoso; Ácido acético; Acido acetico; Hidróxido de sódio; Hidroxido de sodio; Soda cáustica; Soda caustica; Carbonato dissódico; Carbonato dissodico; Carbonato de sódio; Carbonato de sodio; Ácidos para fertilizantes; Acidos para fertilizantes; Reagentes para fabricação de fertilizantes; Enzimas preparadas para decomposição de matéria orgânica; Enzimas para decomposicao de materia organica; Enzimas para compostagem; Enzimas para esterco; Enzimas para resíduos vegetais; Enzimas para residuos vegetais; Enzimas agrícolas; Enzimas agricolas; Semente genética; Semente genetica; Semente básica; Semente basica; Semente nativa in natura; Semente certificada C1; Semente certificada C2; Semente não certificada S1; Semente nao certificada S1; Semente não certificada S2; Semente nao certificada S2; Semente de cultivar local; Semente crioula; Semente tradicional; Sementes de milho; Sementes de soja; Sementes de trigo; Sementes de arroz; Sementes de feijão; Sementes de feijao; Sementes de pastagem; Sementes forrageiras; Sementes de sorgo; Sementes de girassol; Mudas de plantas; Muda de planta; Mudas de hortaliças; Mudas de hortaliças; Mudas de árvores frutíferas; Mudas de arvores frutiferas; Muda de eucalipto; Muda de pinus; Mudas florestais; Material propagativo de plantas; Material propagativo de fungos; Micélio de fungos; Micelio de fungos; Inóculo de fungos; Inoculo de fungos; Vacina veterinária; Vacina veterinaria; Vacinas veterinárias; Soros veterinários; Medicamentos veterinários; Medicamentos veterinarios; Vacina para bovinos; Vacina para suínos; Vacina para suinos; Vacina para aves de corte; Vacina para aves de postura; Vacina para ovinos; Vacina para caprinos; Soro hiperimune; Fármaco veterinário injetável; Farmaco veterinario injetavel; Aves de um dia; Pintos de um dia; Pintainhos; Pintos de corte; Pintos de postura; Pintos de frango; Frangos de um dia; Aves recém-nascidas; Aves recem nascidas; Embriões congelados; Embrioes congelados; Embrião bovino; Embriao bovino; Embrião suíno; Embriao suino; Sêmen congelado; Semen congelado; Sêmen bovino; Semen bovino; Sêmen suíno; Semen suino; Sêmen ovino; Semen ovino; Reprodutor de raça pura; Reprodutores de raça pura; Touros de raça pura; Matrizes puras; Matrizes de animais puros de origem; Animais com registro genealógico; Animais com registro genealogico; Ovos fertilizados; Ovo fertilizado; Ovos férteis; Ovos férteis para incubação; Ovos fertis para incubacao; Girinos; Alevinos; Alevinos de peixe; Alevinos de tilápia; Alevinos de tilapia; Alevinos de tambaqui; Alevinos de pacu; Ração para animais; Racao para animais; Rações para bovinos; Racoes para bovinos; Ração para suínos; Racao para suinos; Ração para aves; Racao para aves; Ração para peixes; Racao para peixes; Ração para ovinos; Ração para caprinos; Concentrado para animais; Concentrado proteico; Suplemento mineral; Suplemento vitamínico mineral; Suplemento vitaminico mineral; Núcleo para ração; Nucleo para racao; Premix para ração; Premix para racao; Aditivos para ração; Aditivos para racao; Melhorador de desempenho animal; Sementes para ração animal; Sementes para racao animal; Cereais para alimentação animal; Cereais para alimentacao animal; Milho moído para ração; Milho moido para racao; Milho em grão para ração; Milho em grao para racao; Trigo para ração; Sorgo para ração; Sorgo para racao; Farelo de soja; Farelo de trigo; Farelo de algodão; Farelo de algodao; Farelo de arroz; Farelo de milho; Farelos vegetais; Tortas de oleaginosas; Torta de soja; Torta de algodão; Bagaço de malte; Bagaço de cervejaria; Resíduos de usina de açúcar e álcool; Residuos de usina de acucar e alcool; Resíduos de indústria alimentícia; Residuos de industria alimenticia; Alho em pó; Alho em po; Sal mineralizado; Sal mineral; Sal proteinado; Farinha de peixe; Farinhas de peixe; Farinha de ostra; Farinha de carne; Farinha de osso; Farinha de penas; Farinha de pena; Farinha de sangue; Farinha de vísceras; Farinha de visceras; Calcário calcítico; Calcario calcitico; Gorduras animais; Óleos animais; Oleos animais; Resíduos de óleo vegetal; Residuos de oleo vegetal; Óleo residual de fritura; Oleo residual de fritura; DL-Metionina; DL Metionina; DL-Metionina análogos; DL Metionina analogos; Serviços agronômicos; Servicos agronomicos; Consultoria agronômica; Consultoria agronomica; Assistência técnica agrícola; Assistencia tecnica agricola; Assistência agronômica; Assistencia agronomica; Elaboração de projetos agrícolas; Elaboracao de projetos agricolas; Serviços de técnico agrícola; Serviços de tecnico agricola; Serviços agropecuários; Servicos agropecuarios; Serviços em agroecologia; Servicos em agroecologia; Consultoria em agroecologia; Serviços veterinários para produção animal; Servicos veterinarios para producao animal; Atendimento veterinário em fazenda; Atendimento veterinario em fazenda; Exames clínicos de rebanho; Exames clinicos de rebanho; Manejo sanitário; Manejo sanitario; Serviços de zootecnista; Servicos de zootecnista; Consultoria em zootecnia; Planejamento nutricional animal; Planejamento de lotação; Serviços de inseminação artificial; Servicos de inseminacao artificial; Inseminação de bovinos; Inseminacao de bovinos; Fertilização de animais de criação; Fertilizacao de animais de criacao; Transferência de embriões; Transferencia de embrioes; Serviços de engenharia florestal; Servicos de engenharia florestal; Projetos florestais; Inventário florestal; Inventario florestal; Manejo florestal; Serviços de pulverização; Servicos de pulverizacao; Pulverização aérea; Pulverizacao aerea; Pulverização costal; Pulverizacao costal; Controle de pragas; Controle fitossanitário; Controle fitossanitario; Serviços de semeadura; Servicos de semeadura; Serviços de adubação; Servicos de adubacao; Mistura de adubos; Reparação de solo; Reparacao de solo; Plantio mecanizado; Plantio manual; Colheita mecanizada; Colheita manual; Serviços de projetos para irrigação; Servicos de projetos para irrigacao; Projeto de irrigação; Projeto de irrigacao; Projeto de fertirrigação; Projeto de fertirrigacao; Serviços de análise de solo; Servicos de analise de solo; Análise laboratorial de sementes; Analise laboratorial de sementes; Análise de água de produção; Analise de agua de producao; Análise bromatológica; Analise bromatologica; Análise de sanidade animal; Analise de sanidade animal; Licenciamento de direitos sobre cultivares; Cessão de direitos sobre cultivares; Cessao de direitos sobre cultivares; Royalties de cultivares; Melhoramento genético de animais; Melhoramento genetico de animais; Melhoramento genético de plantas; Melhoramento genetico de plantas; Serviços de biotecnologia agrícola; Servicos de biotecnologia agricola; Vinhaça; Vinhaca; Vinhaça de cana; Vinhaca de cana; Resíduo líquido de destilaria; Residuo liquido de destilaria; Subproduto de usina de etanol; Subproduto de usina de açucar e álcool; Subproduto de usina de acucar e alcool</t>
-  </si>
-  <si>
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
-  </si>
-  <si>
-    <t>essenciais;</t>
   </si>
   <si>
     <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
@@ -776,6 +770,9 @@
   </si>
   <si>
     <t>15131900[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];15132911[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];17023011[glicose;glucose;dextrose;açúcar de uva;acucar de uva];17025000[frutose;levulose;açúcar de frutas;acucar de frutas];20021000[água para injeção;agua para injecao;water for injection;wfi;água apirogênica;agua apirogenica];21069090[fórmula para dieta;formula para dieta;fórmula metabólica;formula metabolica;dieta isenta;aminoácidos;aminoacidos;fenilalanina;metionina;lisina;triptofano;leucina;isoleucina;valina;dieta cetogênica;dieta cetogenica];22029900[fórmula hiperlipídica;formula hiperlipidica;triglicerídeos de cadeia média;triglicerideos de cadeia media;triheptanoína;triheptanoina;trioleato de glicerol;trierucato de glicerol;preparação líquida;preparacao liquida];25010090[cloreto de sódio;cloreto de sodio;sal;sal comum;sal de cozinha];28111990[ácido selenioso;acido selenioso;selenioso;ácido de selênio;acido de selenio];28272010[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28272090[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28273110[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273190[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273993[cloreto crômico;cloreto cromico;cromo;sal de cromo];28273995[cloreto de manganês;cloreto de manganes;manganês;manganes;sal de manganes];28273998[cloreto de zinco;sal de zinco];28332100[sulfato de magnésio;sulfato de magnesio;sal de epsom;epsom];28332970[sulfato de zinco;znso4;sal de zinco];28352200[fosfato de sódio;fosfato de sodio;fosfato monossódico;fosfato monosodico;monobásico;monobasico];28352400[fosfato de potássio;fosfato de potassio;fosfato potássico;fosfato potassico;monobásico;monobasico;dibásico;dibasico];28363000[bicarbonato de sódio;bicarbonato de sodio;bicarbonato;soda];28429000[selenito de sódio;selenito de sodio;sal de selênio;selênio;selenio];29152100[ácido acético;acido acetico;acético;acetico;ácido etanóico;acido etanoico];29152910[acetato de sódio;acetato de sodio;acetato;sódio;sodio];29152990[acetato de potássio;acetato de potassio;acetato de zinco;acetato;potássio;potassio;zinco];29181400[ácido cítrico;acido citrico;cítrico;citrico;citric acid];29181610[gliconato de cálcio;gliconato de calcio;sal de cálcio;sal de calcio];29181990[ácido málico;acido malico;malato;malic acid];29199090[glicerofosfato de sódio;glicerofosfato de sodio;fosfato de glicerol sódico;glicerofosfato sódico;glicerofosfato sodico];29224110[lisina;l-lisina;aminoácido;aminoacido];29224190[acetato de lisina;lisina;acetato];29224210[ácido glutâmico;acido glutamico;glutamato;glutamic acid];29224910[glicina;glycine;aminoácido;aminoacido];29224990[ácido aspártico;acido aspartico;alanilglutamina;alanina;asparagina;fenilalanina;isoleucina;leucina;levovalina;prolina;taurina;aminoácido;aminoacido];29225039[tirosina;tirosine;acetiltirosina;acetil tirosina;aminoácido;aminoacido];29225099[serina;treonina;aminoácido;aminoacido];29232000[lecitina de ovo;lecitina;fosfolipídeo;fosfolipideo];29252919[arginina;l-arginina;aminoácido;aminoacido];29304010[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29304090[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29309039[cistina;cystine;aminoácido sulfurado;aminoacido sulfurado];29332992[histidina;l-histidina;aminoácido;aminoacido];29362113[palmitato de retinol;vitamina a;retinol palmitato;vitamina a palmitato];29362210[cloridrato de tiamina;tiamina cloridrato;vitamina b1];29362290[cocarboxilase;co-carboxilase;fosfato de tiamina;tiamina fosfato;vitamina b1];29362310[riboflavina;vitamina b2];29362320[fosfato de riboflavina;fosfato sódico de riboflavina;riboflavina fosfato;vitamina b2];29362520[cloridrato de piridoxina;piridoxina cloridrato;vitamina b6];29362610[cianocobalamina;vitamina b12];29362710[ácido ascórbico;acido ascorbico;vitamina c];29362811[tocoferol;alfa-tocoferol;alfa tocoferol;vitamina e];29362812[acetato de dextroalfatocoferol;dextroalfatocoferol;acetato de tocoferol;acetato de vitamina e;vitamina e];29362911[ácido fólico;acido folico;folato;vitamina b9;folic acid];29362921[colecalciferol;vitamina d3;vitamina d];29362929[ergocalciferol;vitamina d2;vitamina d];29362931[biotina;vitamina b7;vitamina h];29362940[fitomenadiona;vitamina k1;vitamina k];29362952[nicotinamida;niacinamida;vitamina b3;vitamina pp];30021236[albumina humana;albumina;human albumin;fração de plasma;fracao de plasma];31042010[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];31042090[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];35051000[icodextrina;amido modificado;solução de diálise peritoneal;solução de dialise peritoneal;dialisato]</t>
+  </si>
+  <si>
+    <t>010221[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022110[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022190[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];0102291[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022911[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022919[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022990[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];010231[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023110[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023190[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];0102391[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023911[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023919[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023990[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01029000[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01031000[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01039100[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01039200[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01041011[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01041019[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01041090[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01042010[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01042090[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01051110[Aves de um dia;Pintos de um dia;Pintainhos];01051190[Aves de um dia;Pintos de um dia;Pintainhos];01051200[Aves de um dia;Pintos de um dia;Pintainhos];01051300[Aves de um dia;Pintos de um dia;Pintainhos];01051400[Aves de um dia;Pintos de um dia;Pintainhos];01051500[Aves de um dia;Pintos de um dia;Pintainhos];01069000[Girinos;Alevinos;Alevinos de peixe];02101100[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02101200[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02101900[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02102000[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109100[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109200[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109300[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109911[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109919[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109920[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109930[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109940[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109990[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];03091000[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];03099000[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];04071100[Ovos fertilizados;Ovos férteis;Ovos férteis para incubação];04071900[Ovos fertilizados;Ovos férteis;Ovos férteis para incubação];05061000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];05069000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];05111000[Embriões congelados;Sêmen congelado;Sêmen bovino];07129010[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];101112[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];12011000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];12112000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12113000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12114000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12115000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12116000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12119010[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12119090[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12130000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];13019090[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];1302199[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];14019000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];14049090[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];21022000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23011010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23011090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23012010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23012090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23021000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23023010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23023090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23024000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23025000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23031000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Vinhaça;Vinhaça de cana;Resíduo líquido de destilaria];23032000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Vinhaça;Vinhaça de cana;Resíduo líquido de destilaria];23033000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Vinhaça;Vinhaça de cana;Resíduo líquido de destilaria];23040010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23040090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23050000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23061000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23062000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23063010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23063090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23064100[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23064900[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23065000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23066000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23069010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23069090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23080000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23099010[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099020[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099030[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099040[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099050[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099060[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099090[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];25010011[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25010019[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25010020[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25010090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25030010[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25030090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25101010[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25101090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25102010[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25102090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25210000[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];27030000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];28020000[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28061020[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28070010[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28080010[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28092011[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28092019[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28111920[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28151100[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28151200[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28362010[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28362090[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28399010[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];28399050[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29152100[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];29224110[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224190[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224210[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224220[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224910[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224920[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224931[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224932[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224940[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224951[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224952[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224959[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224961[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224962[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224963[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224964[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224969[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224990[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29304010[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];29304090[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];30021211[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021212[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021213[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021214[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021215[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021216[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021219[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021221[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021222[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021223[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021224[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021229[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021231[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021232[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021233[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021234[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021235[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021236[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021239[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021510[Vacina veterinária;Soro veterinário;Medicamento veterinário];30021520[Vacina veterinária;Soro veterinário;Medicamento veterinário];30021590[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024210[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024220[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024230[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024240[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024250[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024260[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024270[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024280[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024290[Vacina veterinária;Soro veterinário;Medicamento veterinário];30029000[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30041011[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041012[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041013[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041014[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041015[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041019[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041020[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042011[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042019[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042021[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042029[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042031[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042032[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042039[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042041[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042049[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042051[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042052[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042059[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042061[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042062[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042063[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042069[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042071[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042072[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042073[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042079[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042091[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042092[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042093[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042094[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042095[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042099[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043100[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043210[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043220[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043290[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043911[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043912[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043913[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043914[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043915[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043916[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043917[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043918[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043919[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043921[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043922[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043923[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043924[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043925[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043926[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043927[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043928[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043929[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043931[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043932[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043933[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043934[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043935[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043936[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043937[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043939[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043981[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043982[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043991[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043992[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043994[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043999[Vacina veterinária;Soro veterinário;Medicamento veterinário];30044100[Vacina veterinária;Soro veterinário;Medicamento veterinário];30044200[Vacina veterinária;Soro veterinário;Medicamento veterinário];30044300[Vacina veterinária;Soro veterinár</t>
   </si>
 </sst>
 </file>
@@ -1156,11 +1153,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,13 +1473,13 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1570,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
@@ -1616,7 +1614,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -1702,7 +1700,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
@@ -1725,7 +1723,7 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
@@ -2048,10 +2046,10 @@
         <v>200030</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" t="s">
@@ -2075,10 +2073,10 @@
         <v>200031</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G43" t="s">
         <v>55</v>
@@ -2124,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
         <v>57</v>
@@ -2147,10 +2145,10 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
         <v>58</v>
@@ -2236,13 +2234,10 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
-      </c>
-      <c r="F50" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>63</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D9D89-20AF-49A8-969E-2738F62F59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837418B-9D20-4924-8A88-221172EC23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,7 +772,7 @@
     <t>15131900[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];15132911[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];17023011[glicose;glucose;dextrose;açúcar de uva;acucar de uva];17025000[frutose;levulose;açúcar de frutas;acucar de frutas];20021000[água para injeção;agua para injecao;water for injection;wfi;água apirogênica;agua apirogenica];21069090[fórmula para dieta;formula para dieta;fórmula metabólica;formula metabolica;dieta isenta;aminoácidos;aminoacidos;fenilalanina;metionina;lisina;triptofano;leucina;isoleucina;valina;dieta cetogênica;dieta cetogenica];22029900[fórmula hiperlipídica;formula hiperlipidica;triglicerídeos de cadeia média;triglicerideos de cadeia media;triheptanoína;triheptanoina;trioleato de glicerol;trierucato de glicerol;preparação líquida;preparacao liquida];25010090[cloreto de sódio;cloreto de sodio;sal;sal comum;sal de cozinha];28111990[ácido selenioso;acido selenioso;selenioso;ácido de selênio;acido de selenio];28272010[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28272090[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28273110[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273190[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273993[cloreto crômico;cloreto cromico;cromo;sal de cromo];28273995[cloreto de manganês;cloreto de manganes;manganês;manganes;sal de manganes];28273998[cloreto de zinco;sal de zinco];28332100[sulfato de magnésio;sulfato de magnesio;sal de epsom;epsom];28332970[sulfato de zinco;znso4;sal de zinco];28352200[fosfato de sódio;fosfato de sodio;fosfato monossódico;fosfato monosodico;monobásico;monobasico];28352400[fosfato de potássio;fosfato de potassio;fosfato potássico;fosfato potassico;monobásico;monobasico;dibásico;dibasico];28363000[bicarbonato de sódio;bicarbonato de sodio;bicarbonato;soda];28429000[selenito de sódio;selenito de sodio;sal de selênio;selênio;selenio];29152100[ácido acético;acido acetico;acético;acetico;ácido etanóico;acido etanoico];29152910[acetato de sódio;acetato de sodio;acetato;sódio;sodio];29152990[acetato de potássio;acetato de potassio;acetato de zinco;acetato;potássio;potassio;zinco];29181400[ácido cítrico;acido citrico;cítrico;citrico;citric acid];29181610[gliconato de cálcio;gliconato de calcio;sal de cálcio;sal de calcio];29181990[ácido málico;acido malico;malato;malic acid];29199090[glicerofosfato de sódio;glicerofosfato de sodio;fosfato de glicerol sódico;glicerofosfato sódico;glicerofosfato sodico];29224110[lisina;l-lisina;aminoácido;aminoacido];29224190[acetato de lisina;lisina;acetato];29224210[ácido glutâmico;acido glutamico;glutamato;glutamic acid];29224910[glicina;glycine;aminoácido;aminoacido];29224990[ácido aspártico;acido aspartico;alanilglutamina;alanina;asparagina;fenilalanina;isoleucina;leucina;levovalina;prolina;taurina;aminoácido;aminoacido];29225039[tirosina;tirosine;acetiltirosina;acetil tirosina;aminoácido;aminoacido];29225099[serina;treonina;aminoácido;aminoacido];29232000[lecitina de ovo;lecitina;fosfolipídeo;fosfolipideo];29252919[arginina;l-arginina;aminoácido;aminoacido];29304010[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29304090[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29309039[cistina;cystine;aminoácido sulfurado;aminoacido sulfurado];29332992[histidina;l-histidina;aminoácido;aminoacido];29362113[palmitato de retinol;vitamina a;retinol palmitato;vitamina a palmitato];29362210[cloridrato de tiamina;tiamina cloridrato;vitamina b1];29362290[cocarboxilase;co-carboxilase;fosfato de tiamina;tiamina fosfato;vitamina b1];29362310[riboflavina;vitamina b2];29362320[fosfato de riboflavina;fosfato sódico de riboflavina;riboflavina fosfato;vitamina b2];29362520[cloridrato de piridoxina;piridoxina cloridrato;vitamina b6];29362610[cianocobalamina;vitamina b12];29362710[ácido ascórbico;acido ascorbico;vitamina c];29362811[tocoferol;alfa-tocoferol;alfa tocoferol;vitamina e];29362812[acetato de dextroalfatocoferol;dextroalfatocoferol;acetato de tocoferol;acetato de vitamina e;vitamina e];29362911[ácido fólico;acido folico;folato;vitamina b9;folic acid];29362921[colecalciferol;vitamina d3;vitamina d];29362929[ergocalciferol;vitamina d2;vitamina d];29362931[biotina;vitamina b7;vitamina h];29362940[fitomenadiona;vitamina k1;vitamina k];29362952[nicotinamida;niacinamida;vitamina b3;vitamina pp];30021236[albumina humana;albumina;human albumin;fração de plasma;fracao de plasma];31042010[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];31042090[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];35051000[icodextrina;amido modificado;solução de diálise peritoneal;solução de dialise peritoneal;dialisato]</t>
   </si>
   <si>
-    <t>010221[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022110[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022190[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];0102291[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022911[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022919[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01022990[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];010231[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023110[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023190[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];0102391[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023911[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023919[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01023990[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01029000[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01031000[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01039100[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01039200[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01041011[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01041019[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01041090[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01042010[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01042090[Reprodutor de raça pura;Reprodutores de raça pura;Matrizes puras];01051110[Aves de um dia;Pintos de um dia;Pintainhos];01051190[Aves de um dia;Pintos de um dia;Pintainhos];01051200[Aves de um dia;Pintos de um dia;Pintainhos];01051300[Aves de um dia;Pintos de um dia;Pintainhos];01051400[Aves de um dia;Pintos de um dia;Pintainhos];01051500[Aves de um dia;Pintos de um dia;Pintainhos];01069000[Girinos;Alevinos;Alevinos de peixe];02101100[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02101200[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02101900[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02102000[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109100[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109200[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109300[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109911[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109919[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109920[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109930[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109940[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];02109990[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];03091000[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];03099000[Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];04071100[Ovos fertilizados;Ovos férteis;Ovos férteis para incubação];04071900[Ovos fertilizados;Ovos férteis;Ovos férteis para incubação];05061000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];05069000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];05111000[Embriões congelados;Sêmen congelado;Sêmen bovino];07129010[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];101112[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];12011000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];12112000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12113000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12114000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12115000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12116000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12119010[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12119090[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato de algas;Extrato vegetal];12130000[Semente para plantio;Semente certificada;Semente genética;Sementes de pastagem;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];13019090[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];1302199[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];14019000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];14049090[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];21022000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23011010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23011090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23012010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23012090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23021000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23023010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23023090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23024000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23025000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23031000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Vinhaça;Vinhaça de cana;Resíduo líquido de destilaria];23032000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Vinhaça;Vinhaça de cana;Resíduo líquido de destilaria];23033000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Vinhaça;Vinhaça de cana;Resíduo líquido de destilaria];23040010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23040090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23050000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23061000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23062000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23063010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23063090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23064100[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23064900[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23065000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23066000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23069010[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23069090[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23080000[Farelo de soja;Farelo de trigo;Torta de soja;Bagaço de malte;Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];23099010[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099020[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099030[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099040[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099050[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099060[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];23099090[Ração para animais;Concentrado para animais;Suplemento mineral;Premix para ração;Sementes para ração animal;Cereais para alimentação animal;Milho moído para ração];25010011[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25010019[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25010020[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25010090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];25030010[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25030090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25101010[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25101090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25102010[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25102090[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];25210000[Corretivo de solo;Condicionador de solo;Remineralizador de solo;Substrato para plantas;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];27030000[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];28020000[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28061020[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28070010[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28080010[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28092011[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28092019[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28111920[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28151100[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28151200[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28362010[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28362090[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];28399010[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];28399050[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29152100[Ácido para fertilizantes;Ácido nítrico;Ácido sulfúrico;Ácido fosfórico;Hidróxido de sódio;Carbonato de sódio];29224110[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224190[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224210[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224220[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224910[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224920[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224931[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224932[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224940[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224951[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224952[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224959[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224961[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224962[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224963[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224964[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224969[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29224990[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais];29304010[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];29304090[Matéria-prima para fertilizante;Resíduos vegetais;Fibra de coco;Serragem de madeira;Borra de carnaúba;Vermiculita;Argila expandida;Cinzas vegetais;Alho em pó;Sal mineralizado;Farinha de peixe;Farinha de carne;Farinha de osso;Gorduras animais;Óleos animais;DL-Metionina];30021211[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021212[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021213[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021214[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021215[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021216[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021219[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021221[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021222[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021223[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021224[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021229[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021231[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021232[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021233[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021234[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021235[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021236[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021239[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30021510[Vacina veterinária;Soro veterinário;Medicamento veterinário];30021520[Vacina veterinária;Soro veterinário;Medicamento veterinário];30021590[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024210[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024220[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024230[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024240[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024250[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024260[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024270[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024280[Vacina veterinária;Soro veterinário;Medicamento veterinário];30024290[Vacina veterinária;Soro veterinário;Medicamento veterinário];30029000[Inoculante;Inoculantes;Microrganismos para uso agrícola;Meios de cultura;Vacina veterinária;Soro veterinário;Medicamento veterinário];30041011[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041012[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041013[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041014[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041015[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041019[Vacina veterinária;Soro veterinário;Medicamento veterinário];30041020[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042011[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042019[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042021[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042029[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042031[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042032[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042039[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042041[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042049[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042051[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042052[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042059[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042061[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042062[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042063[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042069[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042071[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042072[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042073[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042079[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042091[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042092[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042093[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042094[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042095[Vacina veterinária;Soro veterinário;Medicamento veterinário];30042099[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043100[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043210[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043220[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043290[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043911[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043912[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043913[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043914[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043915[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043916[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043917[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043918[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043919[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043921[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043922[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043923[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043924[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043925[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043926[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043927[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043928[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043929[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043931[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043932[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043933[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043934[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043935[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043936[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043937[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043939[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043981[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043982[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043991[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043992[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043994[Vacina veterinária;Soro veterinário;Medicamento veterinário];30043999[Vacina veterinária;Soro veterinário;Medicamento veterinário];30044100[Vacina veterinária;Soro veterinário;Medicamento veterinário];30044200[Vacina veterinária;Soro veterinário;Medicamento veterinário];30044300[Vacina veterinária;Soro veterinár</t>
+    <t>010221[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022110[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022190[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];0102291[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022911[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022919[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022990[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];010231[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023110[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023190[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];0102391[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023911[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023919[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023990[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01029000[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01031000[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01039100[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01039200[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01041011[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01041019[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01041090[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01042010[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01042090[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01051110[Aves;Pintos;Pintainhos];01051190[Aves;Pintos;Pintainhos];01051200[Aves;Pintos;Pintainhos];01051300[Aves;Pintos;Pintainhos];01051400[Aves;Pintos;Pintainhos];01051500[Aves;Pintos;Pintainhos];01069000[Girinos;Alevinos;peixe];02101100[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02101200[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02101900[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02102000[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109100[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109200[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109300[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109911[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109919[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109920[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109930[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109940[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109990[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];03091000[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];03099000[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];04071100[Ovos;fertilizados;férteis;ferteis;incubação;incubacao];04071900[Ovos;fertilizados;férteis;ferteis;incubação;incubacao];05061000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];05069000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];05111000[Embriões;embrioes;congelados;Sêmen;semen;congelado;bovino];07129010[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];101112[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido];12011000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];12112000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12113000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12114000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12115000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;r;ação;acao;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12116000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12119010[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12119090[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12130000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];13019090[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];1302199[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];14019000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];14049090[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];21022000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23011010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23011090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23012010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23012090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23021000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23023010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23023090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23024000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23025000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23031000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúба;carnauба;Vermiculita;Argila;expandida;Cinzas;Vinhaça;vinhaca;cana;Resíduo;residuo;líquido;liquido;destilaria];23032000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Vinhaça;vinhaca;cana;Resíduo;residuo;líquido;liquido;destilaria];23033000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Vinhaça;vinhaca;cana;Resíduo;residuo;líquido;liquido;destilaria];23040010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23040090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23050000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23061000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23062000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23063010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23063090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúба;carnauба;Vermiculita;Argila;expandida;Cinzas];23064100[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23064900[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23065000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23066000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23069010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23069090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúба;carnauба;Vermiculita;Argila;expandida;Cinzas];23080000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23099010[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099020[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099030[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099040[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099050[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099060[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099090[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];25010011[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25010019[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25010020[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25010090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25030010[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25030090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25101010[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25101090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25102010[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25102090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25210000[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];27030000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];28020000[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28061020[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28070010[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28080010[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28092011[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28092019[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28111920[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28151100[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28151200[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28362010[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28362090[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28399010[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];28399050[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29152100[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];29224110[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224190[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224210[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224220[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224910[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224920[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224931[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224932[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224940[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224951[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224952[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224959[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224961[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224962[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224963[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224964[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224969[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224990[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29304010[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];29304090[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];30021211[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021212[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021213[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021214[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021215[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021216[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021219[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021221[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021222[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021223[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021224[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021229[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021231[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021232[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021233[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021234[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021235[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021236[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021239[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021510[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021520[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021590[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024210[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024220[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024230[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024240[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024250[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024260[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024270[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024280[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024290[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30029000[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041011[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041012[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041013[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041014[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041015[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041019[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041020[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042011[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042019[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042021[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042029[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042031[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042032[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042039[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042041[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042049[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042051[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042052[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042059[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042061[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042062[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042063[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042069[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042071[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042072[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042073[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042079[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042091[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042092[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042093[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042094[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042095[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042099[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043100[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043210[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043220[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043290[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043911[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043912[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043913[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043914[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043915[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043916[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043917[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043918[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043919[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043921[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043922[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043923[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043924[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043925[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043926[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043927[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043928[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043929[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043931[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043932[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043933[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043934[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043935[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043936[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043937[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043939[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043981[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043982[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043991[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043992[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043994[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;</t>
   </si>
 </sst>
 </file>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837418B-9D20-4924-8A88-221172EC23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD8674-750A-449A-AAEA-075F122CD6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
   <si>
     <t>priority</t>
   </si>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>15131900[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];15132911[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];17023011[glicose;glucose;dextrose;açúcar de uva;acucar de uva];17025000[frutose;levulose;açúcar de frutas;acucar de frutas];20021000[água para injeção;agua para injecao;water for injection;wfi;água apirogênica;agua apirogenica];21069090[fórmula para dieta;formula para dieta;fórmula metabólica;formula metabolica;dieta isenta;aminoácidos;aminoacidos;fenilalanina;metionina;lisina;triptofano;leucina;isoleucina;valina;dieta cetogênica;dieta cetogenica];22029900[fórmula hiperlipídica;formula hiperlipidica;triglicerídeos de cadeia média;triglicerideos de cadeia media;triheptanoína;triheptanoina;trioleato de glicerol;trierucato de glicerol;preparação líquida;preparacao liquida];25010090[cloreto de sódio;cloreto de sodio;sal;sal comum;sal de cozinha];28111990[ácido selenioso;acido selenioso;selenioso;ácido de selênio;acido de selenio];28272010[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28272090[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28273110[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273190[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273993[cloreto crômico;cloreto cromico;cromo;sal de cromo];28273995[cloreto de manganês;cloreto de manganes;manganês;manganes;sal de manganes];28273998[cloreto de zinco;sal de zinco];28332100[sulfato de magnésio;sulfato de magnesio;sal de epsom;epsom];28332970[sulfato de zinco;znso4;sal de zinco];28352200[fosfato de sódio;fosfato de sodio;fosfato monossódico;fosfato monosodico;monobásico;monobasico];28352400[fosfato de potássio;fosfato de potassio;fosfato potássico;fosfato potassico;monobásico;monobasico;dibásico;dibasico];28363000[bicarbonato de sódio;bicarbonato de sodio;bicarbonato;soda];28429000[selenito de sódio;selenito de sodio;sal de selênio;selênio;selenio];29152100[ácido acético;acido acetico;acético;acetico;ácido etanóico;acido etanoico];29152910[acetato de sódio;acetato de sodio;acetato;sódio;sodio];29152990[acetato de potássio;acetato de potassio;acetato de zinco;acetato;potássio;potassio;zinco];29181400[ácido cítrico;acido citrico;cítrico;citrico;citric acid];29181610[gliconato de cálcio;gliconato de calcio;sal de cálcio;sal de calcio];29181990[ácido málico;acido malico;malato;malic acid];29199090[glicerofosfato de sódio;glicerofosfato de sodio;fosfato de glicerol sódico;glicerofosfato sódico;glicerofosfato sodico];29224110[lisina;l-lisina;aminoácido;aminoacido];29224190[acetato de lisina;lisina;acetato];29224210[ácido glutâmico;acido glutamico;glutamato;glutamic acid];29224910[glicina;glycine;aminoácido;aminoacido];29224990[ácido aspártico;acido aspartico;alanilglutamina;alanina;asparagina;fenilalanina;isoleucina;leucina;levovalina;prolina;taurina;aminoácido;aminoacido];29225039[tirosina;tirosine;acetiltirosina;acetil tirosina;aminoácido;aminoacido];29225099[serina;treonina;aminoácido;aminoacido];29232000[lecitina de ovo;lecitina;fosfolipídeo;fosfolipideo];29252919[arginina;l-arginina;aminoácido;aminoacido];29304010[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29304090[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29309039[cistina;cystine;aminoácido sulfurado;aminoacido sulfurado];29332992[histidina;l-histidina;aminoácido;aminoacido];29362113[palmitato de retinol;vitamina a;retinol palmitato;vitamina a palmitato];29362210[cloridrato de tiamina;tiamina cloridrato;vitamina b1];29362290[cocarboxilase;co-carboxilase;fosfato de tiamina;tiamina fosfato;vitamina b1];29362310[riboflavina;vitamina b2];29362320[fosfato de riboflavina;fosfato sódico de riboflavina;riboflavina fosfato;vitamina b2];29362520[cloridrato de piridoxina;piridoxina cloridrato;vitamina b6];29362610[cianocobalamina;vitamina b12];29362710[ácido ascórbico;acido ascorbico;vitamina c];29362811[tocoferol;alfa-tocoferol;alfa tocoferol;vitamina e];29362812[acetato de dextroalfatocoferol;dextroalfatocoferol;acetato de tocoferol;acetato de vitamina e;vitamina e];29362911[ácido fólico;acido folico;folato;vitamina b9;folic acid];29362921[colecalciferol;vitamina d3;vitamina d];29362929[ergocalciferol;vitamina d2;vitamina d];29362931[biotina;vitamina b7;vitamina h];29362940[fitomenadiona;vitamina k1;vitamina k];29362952[nicotinamida;niacinamida;vitamina b3;vitamina pp];30021236[albumina humana;albumina;human albumin;fração de plasma;fracao de plasma];31042010[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];31042090[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];35051000[icodextrina;amido modificado;solução de diálise peritoneal;solução de dialise peritoneal;dialisato]</t>
-  </si>
-  <si>
-    <t>010221[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022110[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022190[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];0102291[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022911[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022919[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01022990[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];010231[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023110[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023190[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];0102391[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023911[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023919[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01023990[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01029000[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01031000[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01039100[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01039200[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01041011[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01041019[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01041090[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01042010[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01042090[Reprodutor;raça;raca;pura;Reprodutores;Matrizes;puras];01051110[Aves;Pintos;Pintainhos];01051190[Aves;Pintos;Pintainhos];01051200[Aves;Pintos;Pintainhos];01051300[Aves;Pintos;Pintainhos];01051400[Aves;Pintos;Pintainhos];01051500[Aves;Pintos;Pintainhos];01069000[Girinos;Alevinos;peixe];02101100[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02101200[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02101900[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02102000[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109100[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109200[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109300[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109911[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109919[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109920[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109930[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109940[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];02109990[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];03091000[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];03099000[Sementes;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];04071100[Ovos;fertilizados;férteis;ferteis;incubação;incubacao];04071900[Ovos;fertilizados;férteis;ferteis;incubação;incubacao];05061000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];05069000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];05111000[Embriões;embrioes;congelados;Sêmen;semen;congelado;bovino];07129010[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Óleos;oleos;DL-Metionina];101112[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido];12011000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];12112000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12113000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12114000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12115000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;r;ação;acao;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12116000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12119010[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12119090[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Bioestimulante;Bioestimulantes;Bioinsumo;Extrato;algas;vegetal];12130000[Semente;plantio;certificada;genética;genetica;Sementes;pastagem;ração;racao;animal;Animal;Animais;Cereais;alimentação;alimentacao;Milho;moído;moido;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];13019090[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];1302199[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];14019000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];14049090[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];21022000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23011010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23011090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23012010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23012090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23021000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23023010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23023090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23024000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23025000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23031000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúба;carnauба;Vermiculita;Argila;expandida;Cinzas;Vinhaça;vinhaca;cana;Resíduo;residuo;líquido;liquido;destilaria];23032000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Vinhaça;vinhaca;cana;Resíduo;residuo;líquido;liquido;destilaria];23033000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Vinhaça;vinhaca;cana;Resíduo;residuo;líquido;liquido;destilaria];23040010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23040090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23050000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23061000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23062000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23063010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23063090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúба;carnauба;Vermiculita;Argila;expandida;Cinzas];23064100[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23064900[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23065000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23066000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23069010[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23069090[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúба;carnauба;Vermiculita;Argila;expandida;Cinzas];23080000[Farelo;soja;trigo;Torta;Bagaço;bagaco;malte;Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];23099010[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099020[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099030[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099040[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099050[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099060[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];23099090[Ração;racao;animais;Animal;Animais;Concentrado;Suplemento;mineral;Premix;ração;Sementes;animal;Cereais;alimentação;alimentacao;Milho;moído;moido];25010011[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25010019[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25010020[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25010090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];25030010[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25030090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25101010[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25101090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25102010[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25102090[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];25210000[Corretivo;solo;Condicionador;Remineralizador;Substrato;plantas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];27030000[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];28020000[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28061020[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28070010[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28080010[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28092011[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28092019[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28111920[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28151100[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28151200[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28362010[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28362090[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];28399010[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];28399050[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29152100[Ácido;acido;fertilizantes;nítrico;nitrico;sulfúrico;sulfurico;fosfórico;fosforico;Hidróxido;hidroxido;sódio;sodio;Carbonato];29224110[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224190[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224210[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224220[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224910[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224920[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224931[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224932[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224940[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224951[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224952[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224959[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224961[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224962[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224963[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224964[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224969[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29224990[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas];29304010[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];29304090[Matéria-prima;materia-prima;fertilizante;Resíduos;residuos;vegetais;Fibra;coco;Serragem;madeira;Borra;carnaúba;carnauba;Vermiculita;Argila;expandida;Cinzas;Alho;pó;po;Sal;mineralizado;Farinha;peixe;carne;osso;Gorduras;animais;Animal;Animais;Óleos;oleos;DL-Metionina];30021211[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021212[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021213[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021214[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021215[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021216[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021219[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021221[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021222[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021223[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021224[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021229[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021231[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021232[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021233[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021234[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021235[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021236[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021239[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021510[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021520[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30021590[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024210[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024220[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024230[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024240[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024250[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024260[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024270[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024280[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30024290[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30029000[Inoculante;Inoculantes;Microrganismos;uso;agrícola;agricola;Meios;cultura;Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041011[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041012[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041013[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041014[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041015[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041019[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30041020[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042011[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042019[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042021[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042029[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042031[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042032[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042039[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042041[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042049[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042051[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042052[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042059[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042061[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042062[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042063[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042069[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042071[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042072[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042073[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042079[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042091[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042092[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042093[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042094[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042095[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30042099[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043100[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043210[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043220[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043290[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043911[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043912[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043913[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043914[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043915[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043916[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043917[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043918[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043919[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043921[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043922[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043923[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043924[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043925[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043926[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043927[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043928[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043929[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043931[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043932[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043933[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043934[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043935[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043936[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043937[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043939[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043981[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043982[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043991[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043992[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;Medicamento];30043994[Vacina;veterinária;veterinaria;Soro;veterinário;veterinario;</t>
   </si>
 </sst>
 </file>
@@ -2236,9 +2233,6 @@
       <c r="D50" t="s">
         <v>225</v>
       </c>
-      <c r="E50" t="s">
-        <v>240</v>
-      </c>
       <c r="G50" t="s">
         <v>63</v>
       </c>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD8674-750A-449A-AAEA-075F122CD6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B891124-450D-4772-88F6-E69B38E14A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="241">
   <si>
     <t>priority</t>
   </si>
@@ -712,9 +712,6 @@
   </si>
   <si>
     <t>011005</t>
-  </si>
-  <si>
-    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012</t>
   </si>
   <si>
     <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
@@ -770,6 +767,12 @@
   </si>
   <si>
     <t>15131900[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];15132911[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];17023011[glicose;glucose;dextrose;açúcar de uva;acucar de uva];17025000[frutose;levulose;açúcar de frutas;acucar de frutas];20021000[água para injeção;agua para injecao;water for injection;wfi;água apirogênica;agua apirogenica];21069090[fórmula para dieta;formula para dieta;fórmula metabólica;formula metabolica;dieta isenta;aminoácidos;aminoacidos;fenilalanina;metionina;lisina;triptofano;leucina;isoleucina;valina;dieta cetogênica;dieta cetogenica];22029900[fórmula hiperlipídica;formula hiperlipidica;triglicerídeos de cadeia média;triglicerideos de cadeia media;triheptanoína;triheptanoina;trioleato de glicerol;trierucato de glicerol;preparação líquida;preparacao liquida];25010090[cloreto de sódio;cloreto de sodio;sal;sal comum;sal de cozinha];28111990[ácido selenioso;acido selenioso;selenioso;ácido de selênio;acido de selenio];28272010[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28272090[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28273110[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273190[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273993[cloreto crômico;cloreto cromico;cromo;sal de cromo];28273995[cloreto de manganês;cloreto de manganes;manganês;manganes;sal de manganes];28273998[cloreto de zinco;sal de zinco];28332100[sulfato de magnésio;sulfato de magnesio;sal de epsom;epsom];28332970[sulfato de zinco;znso4;sal de zinco];28352200[fosfato de sódio;fosfato de sodio;fosfato monossódico;fosfato monosodico;monobásico;monobasico];28352400[fosfato de potássio;fosfato de potassio;fosfato potássico;fosfato potassico;monobásico;monobasico;dibásico;dibasico];28363000[bicarbonato de sódio;bicarbonato de sodio;bicarbonato;soda];28429000[selenito de sódio;selenito de sodio;sal de selênio;selênio;selenio];29152100[ácido acético;acido acetico;acético;acetico;ácido etanóico;acido etanoico];29152910[acetato de sódio;acetato de sodio;acetato;sódio;sodio];29152990[acetato de potássio;acetato de potassio;acetato de zinco;acetato;potássio;potassio;zinco];29181400[ácido cítrico;acido citrico;cítrico;citrico;citric acid];29181610[gliconato de cálcio;gliconato de calcio;sal de cálcio;sal de calcio];29181990[ácido málico;acido malico;malato;malic acid];29199090[glicerofosfato de sódio;glicerofosfato de sodio;fosfato de glicerol sódico;glicerofosfato sódico;glicerofosfato sodico];29224110[lisina;l-lisina;aminoácido;aminoacido];29224190[acetato de lisina;lisina;acetato];29224210[ácido glutâmico;acido glutamico;glutamato;glutamic acid];29224910[glicina;glycine;aminoácido;aminoacido];29224990[ácido aspártico;acido aspartico;alanilglutamina;alanina;asparagina;fenilalanina;isoleucina;leucina;levovalina;prolina;taurina;aminoácido;aminoacido];29225039[tirosina;tirosine;acetiltirosina;acetil tirosina;aminoácido;aminoacido];29225099[serina;treonina;aminoácido;aminoacido];29232000[lecitina de ovo;lecitina;fosfolipídeo;fosfolipideo];29252919[arginina;l-arginina;aminoácido;aminoacido];29304010[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29304090[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29309039[cistina;cystine;aminoácido sulfurado;aminoacido sulfurado];29332992[histidina;l-histidina;aminoácido;aminoacido];29362113[palmitato de retinol;vitamina a;retinol palmitato;vitamina a palmitato];29362210[cloridrato de tiamina;tiamina cloridrato;vitamina b1];29362290[cocarboxilase;co-carboxilase;fosfato de tiamina;tiamina fosfato;vitamina b1];29362310[riboflavina;vitamina b2];29362320[fosfato de riboflavina;fosfato sódico de riboflavina;riboflavina fosfato;vitamina b2];29362520[cloridrato de piridoxina;piridoxina cloridrato;vitamina b6];29362610[cianocobalamina;vitamina b12];29362710[ácido ascórbico;acido ascorbico;vitamina c];29362811[tocoferol;alfa-tocoferol;alfa tocoferol;vitamina e];29362812[acetato de dextroalfatocoferol;dextroalfatocoferol;acetato de tocoferol;acetato de vitamina e;vitamina e];29362911[ácido fólico;acido folico;folato;vitamina b9;folic acid];29362921[colecalciferol;vitamina d3;vitamina d];29362929[ergocalciferol;vitamina d2;vitamina d];29362931[biotina;vitamina b7;vitamina h];29362940[fitomenadiona;vitamina k1;vitamina k];29362952[nicotinamida;niacinamida;vitamina b3;vitamina pp];30021236[albumina humana;albumina;human albumin;fração de plasma;fracao de plasma];31042010[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];31042090[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];35051000[icodextrina;amido modificado;solução de diálise peritoneal;solução de dialise peritoneal;dialisato]</t>
+  </si>
+  <si>
+    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012;1005100;10041000;10071000;10082110;10089010;11041200;12011000;12079910;12092100;12092500;12092900;12093000;12092400;12149000;12099100;23099010</t>
+  </si>
+  <si>
+    <t>11041200[Semente];23099010[Mineral;sal;Vacas;Ovinos;corte;equinos;bovinos;postura;lactação;gado;galos;suinos;porcos;avicola;]</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -1470,13 +1473,13 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1565,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
@@ -1611,7 +1614,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -1697,7 +1700,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
@@ -1720,7 +1723,7 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
@@ -2043,10 +2046,10 @@
         <v>200030</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" t="s">
@@ -2070,10 +2073,10 @@
         <v>200031</v>
       </c>
       <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
         <v>233</v>
-      </c>
-      <c r="E43" t="s">
-        <v>234</v>
       </c>
       <c r="G43" t="s">
         <v>55</v>
@@ -2119,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
         <v>57</v>
@@ -2142,10 +2145,10 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
         <v>58</v>
@@ -2231,7 +2234,10 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>239</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>63</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B891124-450D-4772-88F6-E69B38E14A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF8444-7AE8-48B4-ACE8-5B9588D12D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="18000" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
   <si>
     <t>priority</t>
   </si>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012;1005100;10041000;10071000;10082110;10089010;11041200;12011000;12079910;12092100;12092500;12092900;12093000;12092400;12149000;12099100;23099010</t>
-  </si>
-  <si>
-    <t>11041200[Semente];23099010[Mineral;sal;Vacas;Ovinos;corte;equinos;bovinos;postura;lactação;gado;galos;suinos;porcos;avicola;]</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1154,7 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -2235,9 +2232,6 @@
       </c>
       <c r="D50" t="s">
         <v>239</v>
-      </c>
-      <c r="E50" t="s">
-        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>63</v>

--- a/database/CST_cclass.xlsx
+++ b/database/CST_cclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcont\OneDrive\Documentos\GitHub\Classificador_IA\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF8444-7AE8-48B4-ACE8-5B9588D12D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67B097-64E1-49E8-826A-67386732C608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="18000" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CST_cClass_com_regras" sheetId="1" r:id="rId1"/>
@@ -717,9 +717,6 @@
     <t>Salmão; salmao; salmonideos;atum; atuns; bacalhau; hadoque; saithe</t>
   </si>
   <si>
-    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090</t>
-  </si>
-  <si>
     <r>
       <t>96190000[abs;absorvente;tampao;tampoes;coletores;menstural;menstruais;interno;protetor;diario;</t>
     </r>
@@ -769,7 +766,10 @@
     <t>15131900[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];15132911[triglicerídeos de cadeia média;triglicerideos de cadeia media;tcm;óleo tcm;oleo tcm];17023011[glicose;glucose;dextrose;açúcar de uva;acucar de uva];17025000[frutose;levulose;açúcar de frutas;acucar de frutas];20021000[água para injeção;agua para injecao;water for injection;wfi;água apirogênica;agua apirogenica];21069090[fórmula para dieta;formula para dieta;fórmula metabólica;formula metabolica;dieta isenta;aminoácidos;aminoacidos;fenilalanina;metionina;lisina;triptofano;leucina;isoleucina;valina;dieta cetogênica;dieta cetogenica];22029900[fórmula hiperlipídica;formula hiperlipidica;triglicerídeos de cadeia média;triglicerideos de cadeia media;triheptanoína;triheptanoina;trioleato de glicerol;trierucato de glicerol;preparação líquida;preparacao liquida];25010090[cloreto de sódio;cloreto de sodio;sal;sal comum;sal de cozinha];28111990[ácido selenioso;acido selenioso;selenioso;ácido de selênio;acido de selenio];28272010[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28272090[cloreto de cálcio;cloreto de calcio;sal de cálcio;sal de calcio];28273110[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273190[cloreto de magnésio;cloreto de magnesio;sal de magnésio;sal de magnesio];28273993[cloreto crômico;cloreto cromico;cromo;sal de cromo];28273995[cloreto de manganês;cloreto de manganes;manganês;manganes;sal de manganes];28273998[cloreto de zinco;sal de zinco];28332100[sulfato de magnésio;sulfato de magnesio;sal de epsom;epsom];28332970[sulfato de zinco;znso4;sal de zinco];28352200[fosfato de sódio;fosfato de sodio;fosfato monossódico;fosfato monosodico;monobásico;monobasico];28352400[fosfato de potássio;fosfato de potassio;fosfato potássico;fosfato potassico;monobásico;monobasico;dibásico;dibasico];28363000[bicarbonato de sódio;bicarbonato de sodio;bicarbonato;soda];28429000[selenito de sódio;selenito de sodio;sal de selênio;selênio;selenio];29152100[ácido acético;acido acetico;acético;acetico;ácido etanóico;acido etanoico];29152910[acetato de sódio;acetato de sodio;acetato;sódio;sodio];29152990[acetato de potássio;acetato de potassio;acetato de zinco;acetato;potássio;potassio;zinco];29181400[ácido cítrico;acido citrico;cítrico;citrico;citric acid];29181610[gliconato de cálcio;gliconato de calcio;sal de cálcio;sal de calcio];29181990[ácido málico;acido malico;malato;malic acid];29199090[glicerofosfato de sódio;glicerofosfato de sodio;fosfato de glicerol sódico;glicerofosfato sódico;glicerofosfato sodico];29224110[lisina;l-lisina;aminoácido;aminoacido];29224190[acetato de lisina;lisina;acetato];29224210[ácido glutâmico;acido glutamico;glutamato;glutamic acid];29224910[glicina;glycine;aminoácido;aminoacido];29224990[ácido aspártico;acido aspartico;alanilglutamina;alanina;asparagina;fenilalanina;isoleucina;leucina;levovalina;prolina;taurina;aminoácido;aminoacido];29225039[tirosina;tirosine;acetiltirosina;acetil tirosina;aminoácido;aminoacido];29225099[serina;treonina;aminoácido;aminoacido];29232000[lecitina de ovo;lecitina;fosfolipídeo;fosfolipideo];29252919[arginina;l-arginina;aminoácido;aminoacido];29304010[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29304090[metionina;l-metionina;aminoácido sulfurado;aminoacido sulfurado];29309039[cistina;cystine;aminoácido sulfurado;aminoacido sulfurado];29332992[histidina;l-histidina;aminoácido;aminoacido];29362113[palmitato de retinol;vitamina a;retinol palmitato;vitamina a palmitato];29362210[cloridrato de tiamina;tiamina cloridrato;vitamina b1];29362290[cocarboxilase;co-carboxilase;fosfato de tiamina;tiamina fosfato;vitamina b1];29362310[riboflavina;vitamina b2];29362320[fosfato de riboflavina;fosfato sódico de riboflavina;riboflavina fosfato;vitamina b2];29362520[cloridrato de piridoxina;piridoxina cloridrato;vitamina b6];29362610[cianocobalamina;vitamina b12];29362710[ácido ascórbico;acido ascorbico;vitamina c];29362811[tocoferol;alfa-tocoferol;alfa tocoferol;vitamina e];29362812[acetato de dextroalfatocoferol;dextroalfatocoferol;acetato de tocoferol;acetato de vitamina e;vitamina e];29362911[ácido fólico;acido folico;folato;vitamina b9;folic acid];29362921[colecalciferol;vitamina d3;vitamina d];29362929[ergocalciferol;vitamina d2;vitamina d];29362931[biotina;vitamina b7;vitamina h];29362940[fitomenadiona;vitamina k1;vitamina k];29362952[nicotinamida;niacinamida;vitamina b3;vitamina pp];30021236[albumina humana;albumina;human albumin;fração de plasma;fracao de plasma];31042010[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];31042090[cloreto de potássio;cloreto de potassio;sal de potássio;sal de potassio];35051000[icodextrina;amido modificado;solução de diálise peritoneal;solução de dialise peritoneal;dialisato]</t>
   </si>
   <si>
-    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012;1005100;10041000;10071000;10082110;10089010;11041200;12011000;12079910;12092100;12092500;12092900;12093000;12092400;12149000;12099100;23099010</t>
+    <t>01022;010221;01022110;01022190;010229;0102291;01022911;01022919;01022990;01023;010231;01023110;01023190;010239;0102391;01023911;01023919;01023990;01029000;0103;01031000;01039;01039100;01039200;0104;010410;0104101;01041011;01041019;01041090;010420;01042010;01042090;01051;010511;01051110;01051190;01051200;01051300;01051400;01051500;01069000;0210;02101;02101100;02101200;02101900;02102000;02109;02109100;02109200;02109300;021099;0210991;02109911;02109919;02109920;02109930;02109940;02109990;0309;03091000;03099000;04071;04071100;04071900;0506;05061000;05069000;05111000;05119;0601;06011000;06012000;0602;06021000;06022000;06023000;06024000;060290;06029010;0602902;06029021;06029029;0602908;06029081;06029082;06029083;06029089;06029090;07129010;10049000;101112;12011000;1211;12112000;12113000;12114000;12115000;12116000;121190;12119010;12119090;12130000;13019090;1302199;14019000;14049090;15;21022000;2301;230110;23011010;23011090;230120;23012010;23012090;2302;23021000;230230;23023010;23023090;23024000;23025000;2303;23031000;23032000;23033000;230400;23040010;23040090;23050000;2306;23061000;23062000;230630;23063010;23063090;23064;23064100;23064900;23065000;23066000;230690;23069010;23069090;23080000;230990;23099010;23099020;23099030;23099040;23099050;23099060;23099090;25;250100;2501001;25010011;25010019;25010020;25010090;25030010;25030090;25101010;25101090;25102010;25102090;25210000;27030000;28020000;28061020;28070010;28080010;28092011;28092019;28111920;28151100;28151200;28362010;28362090;28399010;28399050;29152100;29224;292241;29224110;29224190;292242;29224210;29224220;29224300;292244;29224410;29224420;292249;29224910;29224920;2922493;29224931;29224932;29224940;2922495;29224951;29224952;29224959;2922496;29224961;29224962;29224963;29224964;29224969;29224990;293040;29304010;29304090;300212;3002121;30021211;30021212;30021213;30021214;30021215;30021216;30021219;3002122;30021221;30021222;30021223;30021224;30021229;3002123;30021231;30021232;30021233;30021234;30021235;30021236;30021239;300215;30021510;30021520;30021590;300242;30024210;30024220;30024230;30024240;30024250;30024260;30024270;30024280;30024290;300249;30029000;3004;300410;3004101;30041011;30041012;30041013;30041014;30041015;30041019;30041020;300420;3004201;30042011;30042019;3004202;30042021;30042029;3004203;30042031;30042032;30042039;3004204;30042041;30042049;3004205;30042051;30042052;30042059;3004206;30042061;30042062;30042063;30042069;3004207;30042071;30042072;30042073;30042079;3004209;30042091;30042092;30042093;30042094;30042095;30042099;30043;30043100;300432;30043210;30043220;30043290;300439;3004391;30043911;30043912;30043913;30043914;30043915;30043916;30043917;30043918;30043919;3004392;30043921;30043922;30043923;30043924;30043925;30043926;30043927;30043928;30043929;3004393;30043931;30043932;30043933;30043934;30043935;30043936;30043937;30043939;3004398;30043981;30043982;3004399;30043991;30043992;30043994;30043999;30044;30044100;30044200;30044300;300449;30044910;30044920;30044930;30044940;30044950;30044990;300450;30045010;30045020;30045030;30045040;30045050;30045060;30045090;30046000;300490;3004901;30049011;30049012;30049013;30049014;30049015;30049019;3004902;30049021;30049022;30049023;30049024;30049025;30049026;30049027;30049028;30049029;3004903;30049031;30049032;30049033;30049034;30049035;30049036;30049037;30049038;30049039;3004904;30049041;30049042;30049043;30049044;30049045;30049046;30049047;30049048;30049049;3004905;30049051;30049052;30049053;30049054;30049055;30049057;30049058;30049059;3004906;30049061;30049062;30049063;30049064;30049065;30049066;30049067;30049068;30049069;3004907;30049071;30049072;30049073;30049074;30049075;30049076;30049077;30049078;30049079;3004909;30049091;30049092;30049093;30049094;30049095;30049096;30049097;30049098;30049099;31010000;3301;33011;330112;33011210;33011290;33011300;330119;33011910;33011990;33012;33012400;330125;33012510;33012520;33012590;330129;3301291;33012911;33012912;33012913;33012914;33012915;33012916;33012917;33012918;33012919;3301292;33012921;33012922;33012990;33013000;330190;33019010;33019020;33019030;33019040;3507904;35079041;35079042;35079049;38029040;380400;3804001;38040011;38040012;38040020;38070000;3808;38085;38085200;380859;38085910;3808592;38085921;38085922;38085923;38085924;38085925;38085926;38085929;38086;38086100;380862;38086210;38086290;380869;38086910;38086990;38089;380891;3808911;38089111;38089119;38089120;3808919;38089191;38089192;38089193;38089194;38089195;38089196;38089197;38089199;380892;3808921;38089211;38089219;38089220;3808929;38089291;38089292;38089293;38089294;38089295;38089296;38089297;38089299;380893;3808931;38089311;38089319;3808932;38089321;38089322;38089323;38089324;38089325;38089326;38089327;38089328;38089329;3808933;38089331;38089332;38089333;3808934;38089341;38089349;3808935;38089351;38089352;38089359;380894;3808941;38089411;38089419;3808942;38089421;38089422;38089429;380899;3808991;38089911;38089919;38089920;3808999;38089991;38089992;38089993;38089994;38089995;38089996;38089999;38210000;3824;38241000;38243000;38244000;38245000;38246000;38248;382481;38248110;38248190;382482;38248210;38248290;38248300;38248400;38248500;38248600;38248700;382488;38248810;38248820;38248900;38249;38249100;38249200;382499;3824991;38249911;38249912;38249913;38249914;38249915;38249919;3824992;38249921;38249922;38249923;38249924;38249925;38249929;3824993;38249931;38249932;38249933;38249934;38249935;38249936;38249939;3824994;38249941;38249942;38249943;38249949;3824995;38249951;38249952;38249953;38249954;38249959;3824996;38249961;38249962;38249969;3824997;38249971;38249972;38249973;38249974;38249975;38249976;38249977;38249978;38249979;3824998;38249981;38249982;38249983;38249984;38249985;38249986;38249987;38249988;38249989;44013900;44014;44014100;44014900;44029000;47010000;53050090;68062000;71012;1005100;10041000;10071000;10082110;10089010;11041200;12011000;12079910;12092100;12092500;12092900;12093000;12092400;12149000;12099100;23099010;10059010;10059090;10063011;10064000;10083090;10089090</t>
+  </si>
+  <si>
+    <t>02011000;02012010;02012020;02012090;02013000;02021000;02022010;02022020;02022090;02023000;0203;02031;02031100;02031200;02031900;02032;02032100;02032200;02032900;0204;02041000;02042;02042100;02042200;02042300;02043000;02044;02044100;02044200;02044300;02045000;02061000;02062;02062100;02062200;020629;02062910;02062990;02063000;02064;02064100;02064900;02068000;02069000;0207;02071;02071100;020712;02071210;02071220;02071300;020714;0207141;02071411;02071412;02071413;02071419;0207142;02071421;02071422;02071423;02071424;02071429;0207143;02071431;02071432;02071433;02071434;02071439;02072;02072400;02072500;02072600;02072700;02074;02074100;02074200;02074400;02074500;02075;02075100;02075200;02075400;02075500;02076000;020910;0209101;02091011;02091019;0209102;02091021;02091029;02099000;02101;02101100;02101200;02101900;02102000;0210991;02109911;02109919;02109920;02109990;03022100;03022200;03022300;03022400;03022900;03024;03024100;030242;03024210;03024290;03024300;03024400;03024500;03024600;03024700;030249;03024910;03024990;03025;03025400;03025500;03025600;03025900;03027;03027100;030272;03027210;03027290;03027300;03027400;03027900;03028;03028100;03028200;030283;03028310;03028320;03028400;03028500;030289;03028910;0302892;03028921;03028922;03028923;03028924;0302893;03028931;03028932;03028933;03028934;03028935;03028936;03028937;03028938;0302894;03028941;03028942;03028943;03028944;03028945;03028990;0303;03032;03032300;030324;03032410;03032490;03032500;03032600;03032900;03033;03033100;03033200;03033300;03033400;03033900;03035;03035100;03035300;03035400;03035500;03035600;03035700;030359;03035910;03035920;03035990;03036;03036600;03036700;03036800;030369;03036910;03036990;03038;030381;0303811;03038111;03038112;03038113;03038114;03038119;03038190;03038200;030383;0303831;03038311;03038319;0303832;03038321;03038329;03038400;030389;03038910;03038920;0303893;03038932;03038933;0303894;03038941;03038942;03038943;03038944;03038945;03038946;0303895;03038951;03038952;03038953;03038954;03038955;03038956;0303896;03038961;03038962;03038963;03038964;03038965;03038990;0304;03043;03043100;030432;03043210;03043290;03043300;03043900;03044300;03044400;03044500;03044600;03044700;03044800;03044910;03044920;03044990;03045100;03045300;03045400;03045500;03045600;03045700;03045900;03046;03046100;030462;03046210;03046290;03046300;03046900;03047400;03047500;03047900;03048300;03048400;03048510;03048520;03048600;03048810;03048890;030489;03048910;03048920;03048930;03048990;03049100;030492;0304921;03049211;03049212;03049219;0304922;03049221;03049222;03049229;03049300;03049400;03049500;03049600;03049700;03049900;04011010;04011090;04012010;04012090;04014010;04015010;04021010;04021090;04022110;04022120;04022910;04022920;04051000;04061010;04061090;04062000;04069010;04069020;04069030;07133319;07133329;07133399;07133590;0901;09011;090111;09011110;09011190;09011200;09012;09012100;09012200;09019000;0903;09030010;09030090;100620;10062010;10062020;100630;10063010;10063011;10063019;10063020;10063021;10063029;10064000;11010010;11022000;11029000;11031300;11041200;11041900;11042200;11042300;11062000;15132120;15171000;17011400;17019900;19011010;19011090;19012010;19012090;19019090;19021;19021100;19021900;19030000;19059090;21011;210111;21011110;21011190;21011200;21069090;25010020;25010090;11010010;12019000;12060090;12051010;12071090;</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1154,8 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,10 +1470,10 @@
         <v>200003</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
         <v>225</v>
@@ -1565,7 +1565,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
@@ -1611,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -1697,7 +1697,7 @@
         <v>96190000</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
@@ -1720,7 +1720,7 @@
         <v>200014</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
         <v>38</v>
@@ -2043,10 +2043,10 @@
         <v>200030</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" t="s">
@@ -2070,10 +2070,10 @@
         <v>200031</v>
       </c>
       <c r="D43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" t="s">
         <v>232</v>
-      </c>
-      <c r="E43" t="s">
-        <v>233</v>
       </c>
       <c r="G43" t="s">
         <v>55</v>
@@ -2119,7 +2119,7 @@
         <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G45" t="s">
         <v>57</v>
@@ -2142,10 +2142,10 @@
         <v>200034</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G46" t="s">
         <v>58</v>
@@ -2231,7 +2231,7 @@
         <v>200038</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G50" t="s">
         <v>63</v>
